--- a/link.xlsx
+++ b/link.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -409,317 +409,987 @@
       <c r="B1" t="str">
         <v>url</v>
       </c>
+      <c r="C1" t="str">
+        <v>status</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>KRL anjlok</v>
+        <v>DPR nangis</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.tiktok.com/@mediajatim/video/7495567338046000439</v>
+        <v>https://www.tiktok.com/@dailypost.id/video/7500644321973030199</v>
+      </c>
+      <c r="C2" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>KRL anjlok</v>
+        <v>Komnas ham kritik</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.youtube.com/watch?v=0NB1EzJGQyk</v>
+        <v>https://instagram.com/p/DJQ57bmP9Mf</v>
+      </c>
+      <c r="C3" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>KRL anjlok</v>
+        <v>Komnas ham kritik</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.youtube.com/watch?v=1TS9lQzWMNc</v>
+        <v>https://instagram.com/p/DJQTZF5Tx7I</v>
+      </c>
+      <c r="C4" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>KRL anjlok</v>
+        <v>Komnas ham kritik</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.youtube.com/watch?v=3vfZrycAWd8</v>
+        <v>https://instagram.com/p/DJQyybFBiqM</v>
+      </c>
+      <c r="C5" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>KRL anjlok</v>
+        <v>Komnas ham kritik</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.youtube.com/watch?v=7scjdCCj--Q</v>
+        <v>https://www.tiktok.com/@prabu.news/video/7500641610699492616</v>
+      </c>
+      <c r="C6" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>KRL anjlok</v>
+        <v>KPAI kritik</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.youtube.com/watch?v=8otbcwEGZ4c</v>
+        <v>https://www.tiktok.com/@kisikisi200/video/7500771600803826949</v>
+      </c>
+      <c r="C7" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>KRL anjlok</v>
+        <v>KPAI kritik</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.youtube.com/watch?v=Aq_anqhJuUs</v>
+        <v>https://www.tiktok.com/@rtkece004/video/7500950818401668359</v>
+      </c>
+      <c r="C8" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>KRL anjlok</v>
+        <v>Kritik MUI</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.youtube.com/watch?v=D7BnhsFUPnk</v>
+        <v>https://instagram.com/p/DJQV8arSmHu</v>
+      </c>
+      <c r="C9" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>KRL anjlok</v>
+        <v>Kritik MUI</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.youtube.com/watch?v=eL6hKNHzO4E</v>
+        <v>https://www.tiktok.com/@kompastvnews/video/7500863463514803474</v>
+      </c>
+      <c r="C10" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>KRL anjlok</v>
+        <v>Kritik MUI</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.youtube.com/watch?v=EuvnUgShdUc</v>
+        <v>https://www.youtube.com/watch?v=bWkwC71LV4k</v>
+      </c>
+      <c r="C11" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>KRL anjlok</v>
+        <v>Kritik MUI</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.youtube.com/watch?v=fZQbRXHETWQ</v>
+        <v>https://www.youtube.com/watch?v=GbGDPyyEijk</v>
+      </c>
+      <c r="C12" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>KRL anjlok</v>
+        <v>Kritik psikolog</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.youtube.com/watch?v=GZYo7K6dT44</v>
+        <v>https://www.facebook.com/E100/posts/1225606485893372</v>
+      </c>
+      <c r="C13" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>KRL anjlok</v>
+        <v>Mensos kritik</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.youtube.com/watch?v=J92EVsqrv7I</v>
+        <v>https://www.tiktok.com/@kompastvnews/video/7500867862530247943</v>
+      </c>
+      <c r="C14" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>KRL anjlok</v>
+        <v>Ono kritik</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.youtube.com/watch?v=jzns3dmdoI8</v>
+        <v>https://www.tiktok.com/@taman_taman_surga/video/7500492497030860039</v>
+      </c>
+      <c r="C15" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>KRL anjlok</v>
+        <v>Positif wamil anak</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.youtube.com/watch?v=kRAVm6zL858</v>
+        <v>https://instagram.com/p/DJQ5VANpSnz</v>
+      </c>
+      <c r="C16" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.youtube.com/watch?v=NeIQQLNsXlw</v>
+        <v>https://instagram.com/p/DJQ0QxtMC08</v>
+      </c>
+      <c r="C17" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.youtube.com/watch?v=ng2BU9KV9wE</v>
+        <v>https://instagram.com/p/DJQsD90T09r</v>
+      </c>
+      <c r="C18" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B19" t="str">
-        <v>https://www.youtube.com/watch?v=NnDVcFJ5jL8</v>
+        <v>https://instagram.com/p/DJQsZeLzTbS</v>
+      </c>
+      <c r="C19" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B20" t="str">
-        <v>https://www.youtube.com/watch?v=pBKb9gch4Ck</v>
+        <v>https://instagram.com/p/DJQtsjPTvHZ</v>
+      </c>
+      <c r="C20" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.youtube.com/watch?v=PYaZGMkYlCM</v>
+        <v>https://instagram.com/p/DJQYKp7T-yI</v>
+      </c>
+      <c r="C21" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.youtube.com/watch?v=rsgqh9iACNw</v>
+        <v>https://instagram.com/p/DJRdTbIIhn2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.youtube.com/watch?v=sbmqP9OcQso</v>
+        <v>https://instagram.com/p/DJRHyvjTU1X</v>
+      </c>
+      <c r="C23" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.youtube.com/watch?v=ShrDIXkYN4E</v>
+        <v>https://www.facebook.com/COCkomputer/posts/1259346522860283</v>
+      </c>
+      <c r="C24" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.youtube.com/watch?v=wRCk58VRs6s</v>
+        <v>https://www.facebook.com/Indogamers/posts/1102604078561778</v>
+      </c>
+      <c r="C25" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.youtube.com/watch?v=xqWpmWwgZk8</v>
+        <v>https://www.facebook.com/IndramayuPost.Com/posts/1127185586120446</v>
+      </c>
+      <c r="C26" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>KRL anjlok</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.youtube.com/watch?v=zXol_M6M5Dk</v>
+        <v>https://www.facebook.com/InfoBandungBarat/posts/999257652389432</v>
+      </c>
+      <c r="C27" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Pesawat gagal mesin</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.youtube.com/watch?v=cRKgEPqbRzA</v>
+        <v>https://www.facebook.com/KELUDinfo/posts/978185924502156</v>
+      </c>
+      <c r="C28" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Pesawat gagal mesin</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.youtube.com/watch?v=hk3qMKOMpDo</v>
+        <v>https://www.facebook.com/KotakGame/posts/714260274323412</v>
+      </c>
+      <c r="C29" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Pesawat gagal mesin</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.youtube.com/watch?v=HW7LC-n55Ek</v>
+        <v>https://www.facebook.com/PendakiJadul/posts/995232889452735</v>
+      </c>
+      <c r="C30" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Pesawat gagal mesin</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.youtube.com/watch?v=InD9WyIEVRI</v>
+        <v>https://www.facebook.com/UKURGARUT/posts/1532753211119294</v>
+      </c>
+      <c r="C31" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Pesawat gagal mesin</v>
+        <v>Gapura panca</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.youtube.com/watch?v=mtB0_kybTIg</v>
+        <v>https://www.youtube.com/watch?v=18K1wxU431c</v>
+      </c>
+      <c r="C32" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Reaktivasi rel</v>
+        <v>Program kb</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.tiktok.com/@jalanj_jalan/video/7495688272446786824</v>
+        <v>https://instagram.com/p/DJRa86dynyu</v>
+      </c>
+      <c r="C33" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Reaktivasi rel</v>
+        <v>Program kb</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.tiktok.com/@nuh894/video/7495542922033630470</v>
+        <v>https://instagram.com/p/DJRFPy9iOCx</v>
+      </c>
+      <c r="C34" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Reaktivasi rel</v>
+        <v>Program kb</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.youtube.com/watch?v=bntOJQo-qdc</v>
+        <v>https://www.facebook.com/MDTV/posts/1272535520897575</v>
+      </c>
+      <c r="C35" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Reaktivasi rel</v>
+        <v>Program kb</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.youtube.com/watch?v=DRoo15z_usk</v>
+        <v>https://www.facebook.com/Standupcomedy/posts/122188222178266999</v>
+      </c>
+      <c r="C36" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Reaktivasi rel</v>
+        <v>Program kb</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.youtube.com/watch?v=v77ThgoH5yc</v>
+        <v>https://www.tiktok.com/@dedimulyadiofficial/video/7500815137780010246</v>
+      </c>
+      <c r="C37" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Gerbang tol lumpur</v>
+        <v>Program kb</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.youtube.com/watch?v=heNG0veMfa4</v>
+        <v>https://www.tiktok.com/@infojabarjuara/video/7500917578483666184</v>
+      </c>
+      <c r="C38" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Gerbang tol lumpur</v>
+        <v>Program kb</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.youtube.com/watch?v=jJ9_TAtg9Ko</v>
+        <v>https://www.tiktok.com/@kabarbursacom/video/7500858002187062534</v>
+      </c>
+      <c r="C39" t="str">
+        <v>done</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Aduan supir bogor</v>
+        <v>Program kb</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.youtube.com/watch?v=AdOcGW9Qxe8</v>
+        <v>https://www.tiktok.com/@siaran_podcast/video/7500841191500565766</v>
+      </c>
+      <c r="C40" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Program kb</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://www.tiktok.com/@suaradotcom/video/7500900593280486711</v>
+      </c>
+      <c r="C41" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Program kb</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://www.youtube.com/watch?v=tzEYgb9i3SI</v>
+      </c>
+      <c r="C42" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://instagram.com/p/DJQ-5vCTrw_</v>
+      </c>
+      <c r="C43" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://instagram.com/p/DJQTAmoTbEh</v>
+      </c>
+      <c r="C44" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://instagram.com/p/DJRB6rESDbt</v>
+      </c>
+      <c r="C45" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://instagram.com/p/DJRIrRNzfgK</v>
+      </c>
+      <c r="C46" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://instagram.com/p/DJRkVmmzdIC</v>
+      </c>
+      <c r="C47" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B48" t="str">
+        <v>https://www.facebook.com/InfoBaleendah/posts/997084119222119</v>
+      </c>
+      <c r="C48" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://www.facebook.com/JabarEkspresID/posts/642874342078921</v>
+      </c>
+      <c r="C49" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://www.facebook.com/KompasTV/posts/1349279253228680</v>
+      </c>
+      <c r="C50" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://www.facebook.com/MartinusSoniCandra/posts/2153265641802689</v>
+      </c>
+      <c r="C51" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://www.facebook.com/MikhaaylaShaqinaBilla/posts/1401384877960957</v>
+      </c>
+      <c r="C52" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://www.facebook.com/MukhlisCentre/posts/3954706051341159</v>
+      </c>
+      <c r="C53" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://www.facebook.com/RadarJabarID/posts/681824947930779</v>
+      </c>
+      <c r="C54" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://www.facebook.com/TempoMedia/posts/1132509992248678</v>
+      </c>
+      <c r="C55" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://www.facebook.com/TribunJabar.id/posts/1158711969629210</v>
+      </c>
+      <c r="C56" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://www.facebook.com/TribunJabar.id/posts/1158738429626564</v>
+      </c>
+      <c r="C57" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://www.tiktok.com/@ayobandungcom/video/7500889272136764677</v>
+      </c>
+      <c r="C58" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://www.tiktok.com/@cnnindonesia/video/7500913308501888273</v>
+      </c>
+      <c r="C59" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://www.tiktok.com/@divipro.media/video/7500863546738150663</v>
+      </c>
+      <c r="C60" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://www.tiktok.com/@forumkeadilantv/video/7500918855284378897</v>
+      </c>
+      <c r="C61" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B62" t="str">
+        <v>https://www.tiktok.com/@infojabarjuara/video/7500863771661847826</v>
+      </c>
+      <c r="C62" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B63" t="str">
+        <v>https://www.tiktok.com/@infojabarjuara/video/7500897179280755975</v>
+      </c>
+      <c r="C63" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B64" t="str">
+        <v>https://www.tiktok.com/@kompastvnews/video/7500871844837264647</v>
+      </c>
+      <c r="C64" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B65" t="str">
+        <v>https://www.tiktok.com/@kuli_asongan_08/video/7500917325114150162</v>
+      </c>
+      <c r="C65" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B66" t="str">
+        <v>https://www.tiktok.com/@mulutnetizzen/video/7500853374489808134</v>
+      </c>
+      <c r="C66" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B67" t="str">
+        <v>https://www.tiktok.com/@radarjabar.id/video/7500915534184058128</v>
+      </c>
+      <c r="C67" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B68" t="str">
+        <v>https://www.youtube.com/watch?v=8BU1pT3Ontw</v>
+      </c>
+      <c r="C68" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B69" t="str">
+        <v>https://www.youtube.com/watch?v=akUs8COuWG0</v>
+      </c>
+      <c r="C69" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B70" t="str">
+        <v>https://www.youtube.com/watch?v=dIxYB1f5XVQ</v>
+      </c>
+      <c r="C70" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B71" t="str">
+        <v>https://www.youtube.com/watch?v=etN8QHt_OLY</v>
+      </c>
+      <c r="C71" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://www.youtube.com/watch?v=JZu5F77Aacc</v>
+      </c>
+      <c r="C72" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://www.youtube.com/watch?v=MLiXcXOMJBg</v>
+      </c>
+      <c r="C73" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.youtube.com/watch?v=NBWerPgGZF0</v>
+      </c>
+      <c r="C74" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://www.youtube.com/watch?v=oA9bnbbJeFM</v>
+      </c>
+      <c r="C75" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://www.youtube.com/watch?v=R_0uTtaCGPY</v>
+      </c>
+      <c r="C76" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://www.youtube.com/watch?v=ReclngZgiRY</v>
+      </c>
+      <c r="C77" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://www.youtube.com/watch?v=RxAy3g2W70Y</v>
+      </c>
+      <c r="C78" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://www.youtube.com/watch?v=tZ7hbcnFF0M</v>
+      </c>
+      <c r="C79" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://www.youtube.com/watch?v=VPFSvZQ1x3w</v>
+      </c>
+      <c r="C80" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Wamil anak</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://www.youtube.com/watch?v=wXO8Nlf-Z-4</v>
+      </c>
+      <c r="C81" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://www.facebook.com/DinSamu/posts/2200412047055556</v>
+      </c>
+      <c r="C82" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://www.facebook.com/TribunBengkulu.com/posts/770301515507518</v>
+      </c>
+      <c r="C83" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://www.tiktok.com/@infojabarjuara/video/7500829903932247303</v>
+      </c>
+      <c r="C84" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://www.tiktok.com/@infosubang.co/video/7500791879382994231</v>
+      </c>
+      <c r="C85" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://www.youtube.com/watch?v=_9uiGNzqKgo</v>
+      </c>
+      <c r="C86" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://www.youtube.com/watch?v=bZ5Ke4rHgu0</v>
+      </c>
+      <c r="C87" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://www.youtube.com/watch?v=hrLAhVn-KVM</v>
+      </c>
+      <c r="C88" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://www.youtube.com/watch?v=O9ttxKE1cJ4</v>
+      </c>
+      <c r="C89" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Rudy silaturahmi</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://www.youtube.com/watch?v=tZ3EJ688QZ8</v>
+      </c>
+      <c r="C90" t="str">
+        <v>done</v>
       </c>
     </row>
   </sheetData>
@@ -746,27 +1416,61 @@
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
     <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B32" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B37" r:id="rId29"/>
+    <hyperlink ref="B38" r:id="rId30"/>
+    <hyperlink ref="B39" r:id="rId31"/>
+    <hyperlink ref="B40" r:id="rId32"/>
+    <hyperlink ref="B41" r:id="rId33"/>
+    <hyperlink ref="B42" r:id="rId34"/>
+    <hyperlink ref="B43" r:id="rId35"/>
+    <hyperlink ref="B44" r:id="rId36"/>
+    <hyperlink ref="B45" r:id="rId37"/>
+    <hyperlink ref="B46" r:id="rId38"/>
+    <hyperlink ref="B47" r:id="rId39"/>
+    <hyperlink ref="B56" r:id="rId40"/>
+    <hyperlink ref="B57" r:id="rId41"/>
+    <hyperlink ref="B58" r:id="rId42"/>
+    <hyperlink ref="B59" r:id="rId43"/>
+    <hyperlink ref="B60" r:id="rId44"/>
+    <hyperlink ref="B61" r:id="rId45"/>
+    <hyperlink ref="B62" r:id="rId46"/>
+    <hyperlink ref="B63" r:id="rId47"/>
+    <hyperlink ref="B64" r:id="rId48"/>
+    <hyperlink ref="B65" r:id="rId49"/>
+    <hyperlink ref="B66" r:id="rId50"/>
+    <hyperlink ref="B67" r:id="rId51"/>
+    <hyperlink ref="B68" r:id="rId52"/>
+    <hyperlink ref="B69" r:id="rId53"/>
+    <hyperlink ref="B70" r:id="rId54"/>
+    <hyperlink ref="B71" r:id="rId55"/>
+    <hyperlink ref="B72" r:id="rId56"/>
+    <hyperlink ref="B73" r:id="rId57"/>
+    <hyperlink ref="B74" r:id="rId58"/>
+    <hyperlink ref="B75" r:id="rId59"/>
+    <hyperlink ref="B76" r:id="rId60"/>
+    <hyperlink ref="B77" r:id="rId61"/>
+    <hyperlink ref="B78" r:id="rId62"/>
+    <hyperlink ref="B79" r:id="rId63"/>
+    <hyperlink ref="B80" r:id="rId64"/>
+    <hyperlink ref="B81" r:id="rId65"/>
+    <hyperlink ref="B83" r:id="rId66"/>
+    <hyperlink ref="B84" r:id="rId67"/>
+    <hyperlink ref="B85" r:id="rId68"/>
+    <hyperlink ref="B86" r:id="rId69"/>
+    <hyperlink ref="B87" r:id="rId70"/>
+    <hyperlink ref="B88" r:id="rId71"/>
+    <hyperlink ref="B89" r:id="rId72"/>
+    <hyperlink ref="B90" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C90"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/link.xlsx
+++ b/link.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DPR nangis</v>
+        <v>Program KB</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.tiktok.com/@dailypost.id/video/7500644321973030199</v>
+        <v>http://instagram.com/p/DJS-uAcxUGS</v>
       </c>
       <c r="C2" t="str">
         <v>done</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Komnas ham kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B3" t="str">
-        <v>https://instagram.com/p/DJQ57bmP9Mf</v>
+        <v>http://instagram.com/p/DJS8eBczJEG</v>
       </c>
       <c r="C3" t="str">
         <v>done</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Komnas ham kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B4" t="str">
-        <v>https://instagram.com/p/DJQTZF5Tx7I</v>
+        <v>http://instagram.com/p/DJTX-XbSYEK</v>
       </c>
       <c r="C4" t="str">
         <v>done</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Komnas ham kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B5" t="str">
-        <v>https://instagram.com/p/DJQyybFBiqM</v>
+        <v>https://www.facebook.com/Pojokjabarcom/posts/1123470693130433</v>
       </c>
       <c r="C5" t="str">
         <v>done</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Komnas ham kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.tiktok.com/@prabu.news/video/7500641610699492616</v>
+        <v>https://www.tiktok.com/@bisikin.id/video/7501132986885180679</v>
       </c>
       <c r="C6" t="str">
         <v>done</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>KPAI kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.tiktok.com/@kisikisi200/video/7500771600803826949</v>
+        <v>https://www.tiktok.com/@sindonews/video/7501275889452436743</v>
       </c>
       <c r="C7" t="str">
         <v>done</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>KPAI kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.tiktok.com/@rtkece004/video/7500950818401668359</v>
+        <v>https://www.youtube.com/watch?v=29g3FJpTIlc</v>
       </c>
       <c r="C8" t="str">
         <v>done</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Kritik MUI</v>
+        <v>Program KB</v>
       </c>
       <c r="B9" t="str">
-        <v>https://instagram.com/p/DJQV8arSmHu</v>
+        <v>https://www.youtube.com/watch?v=8DY7H1ZylI0</v>
       </c>
       <c r="C9" t="str">
         <v>done</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Kritik MUI</v>
+        <v>Program KB</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.tiktok.com/@kompastvnews/video/7500863463514803474</v>
+        <v>https://www.youtube.com/watch?v=aR5teH-bXdw</v>
       </c>
       <c r="C10" t="str">
         <v>done</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Kritik MUI</v>
+        <v>Program KB</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.youtube.com/watch?v=bWkwC71LV4k</v>
+        <v>https://www.youtube.com/watch?v=egrUqZyf-IY</v>
       </c>
       <c r="C11" t="str">
         <v>done</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Kritik MUI</v>
+        <v>Program KB</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.youtube.com/watch?v=GbGDPyyEijk</v>
+        <v>https://www.youtube.com/watch?v=jNWIaEshmVc</v>
       </c>
       <c r="C12" t="str">
         <v>done</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Kritik psikolog</v>
+        <v>Program KB</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.facebook.com/E100/posts/1225606485893372</v>
+        <v>https://www.youtube.com/watch?v=olTJy-OJZMc</v>
       </c>
       <c r="C13" t="str">
         <v>done</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mensos kritik</v>
+        <v>Program KB</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.tiktok.com/@kompastvnews/video/7500867862530247943</v>
+        <v>https://www.youtube.com/watch?v=pCp2gGMNgPo</v>
       </c>
       <c r="C14" t="str">
         <v>done</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ono kritik</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.tiktok.com/@taman_taman_surga/video/7500492497030860039</v>
+        <v>http://instagram.com/p/DJS3gLKPZtm</v>
       </c>
       <c r="C15" t="str">
         <v>done</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Positif wamil anak</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B16" t="str">
-        <v>https://instagram.com/p/DJQ5VANpSnz</v>
+        <v>http://instagram.com/p/DJSlYm7zn4n</v>
       </c>
       <c r="C16" t="str">
         <v>done</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B17" t="str">
-        <v>https://instagram.com/p/DJQ0QxtMC08</v>
+        <v>http://instagram.com/p/DJSrFwrNS_l</v>
       </c>
       <c r="C17" t="str">
         <v>done</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B18" t="str">
-        <v>https://instagram.com/p/DJQsD90T09r</v>
+        <v>http://instagram.com/p/DJTjsLiRSi9</v>
       </c>
       <c r="C18" t="str">
         <v>done</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B19" t="str">
-        <v>https://instagram.com/p/DJQsZeLzTbS</v>
+        <v>http://instagram.com/p/DJTJXS_S_4Q</v>
       </c>
       <c r="C19" t="str">
         <v>done</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B20" t="str">
-        <v>https://instagram.com/p/DJQtsjPTvHZ</v>
+        <v>http://instagram.com/p/DJTlMbFy1Ui</v>
       </c>
       <c r="C20" t="str">
         <v>done</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B21" t="str">
-        <v>https://instagram.com/p/DJQYKp7T-yI</v>
+        <v>https://www.facebook.com/Akurat.co/posts/1237665918369841</v>
       </c>
       <c r="C21" t="str">
         <v>done</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B22" t="str">
-        <v>https://instagram.com/p/DJRdTbIIhn2</v>
+        <v>https://www.facebook.com/Kompas.com/posts/1180939437395502</v>
       </c>
       <c r="C22" t="str">
         <v>done</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B23" t="str">
-        <v>https://instagram.com/p/DJRHyvjTU1X</v>
+        <v>https://www.facebook.com/LedyShenaga/posts/29275333418776675</v>
       </c>
       <c r="C23" t="str">
         <v>done</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.facebook.com/COCkomputer/posts/1259346522860283</v>
+        <v>https://www.facebook.com/Liputan6/posts/1299049441586340</v>
       </c>
       <c r="C24" t="str">
         <v>done</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.facebook.com/Indogamers/posts/1102604078561778</v>
+        <v>https://www.facebook.com/MDadangKusumadinata/posts/122224635554158608</v>
       </c>
       <c r="C25" t="str">
         <v>done</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.facebook.com/IndramayuPost.Com/posts/1127185586120446</v>
+        <v>https://www.facebook.com/MetroTV/posts/1254052549423991</v>
       </c>
       <c r="C26" t="str">
         <v>done</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.facebook.com/InfoBandungBarat/posts/999257652389432</v>
+        <v>https://www.facebook.com/NUOnlineJabar/posts/1097646165720602</v>
       </c>
       <c r="C27" t="str">
         <v>done</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.facebook.com/KELUDinfo/posts/978185924502156</v>
+        <v>https://www.facebook.com/NusantaraCerdas/posts/717947697565002</v>
       </c>
       <c r="C28" t="str">
         <v>done</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.facebook.com/KotakGame/posts/714260274323412</v>
+        <v>https://www.facebook.com/OdangRodiana/posts/122153708912572721</v>
       </c>
       <c r="C29" t="str">
         <v>done</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.facebook.com/PendakiJadul/posts/995232889452735</v>
+        <v>https://www.facebook.com/RadigaFam's/posts/29993585823566201</v>
       </c>
       <c r="C30" t="str">
         <v>done</v>
@@ -734,10 +734,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.facebook.com/UKURGARUT/posts/1532753211119294</v>
+        <v>https://www.facebook.com/SekitarGarut/posts/1095961729230254</v>
       </c>
       <c r="C31" t="str">
         <v>done</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gapura panca</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.youtube.com/watch?v=18K1wxU431c</v>
+        <v>https://www.tiktok.com/@allabout.bandungbarat/video/7501163158204091655</v>
       </c>
       <c r="C32" t="str">
         <v>done</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B33" t="str">
-        <v>https://instagram.com/p/DJRa86dynyu</v>
+        <v>https://www.tiktok.com/@jabar_people/video/7501300871876152582</v>
       </c>
       <c r="C33" t="str">
         <v>done</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B34" t="str">
-        <v>https://instagram.com/p/DJRFPy9iOCx</v>
+        <v>https://www.tiktok.com/@jiebex2/video/7501175460932488454</v>
       </c>
       <c r="C34" t="str">
         <v>done</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.facebook.com/MDTV/posts/1272535520897575</v>
+        <v>https://www.tiktok.com/@lang.bahas.bahas/video/7501258139660995845</v>
       </c>
       <c r="C35" t="str">
         <v>done</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.facebook.com/Standupcomedy/posts/122188222178266999</v>
+        <v>https://www.tiktok.com/@lidah.rakyat7/video/7501122261689060616</v>
       </c>
       <c r="C36" t="str">
         <v>done</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.tiktok.com/@dedimulyadiofficial/video/7500815137780010246</v>
+        <v>https://www.tiktok.com/@metro_tv/video/7501275429655907605</v>
       </c>
       <c r="C37" t="str">
         <v>done</v>
@@ -811,10 +811,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.tiktok.com/@infojabarjuara/video/7500917578483666184</v>
+        <v>https://www.tiktok.com/@taman_taman_surga/video/7500951869447998738</v>
       </c>
       <c r="C38" t="str">
         <v>done</v>
@@ -822,10 +822,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.tiktok.com/@kabarbursacom/video/7500858002187062534</v>
+        <v>https://www.youtube.com/watch?v=_4KZ-FAYwhs</v>
       </c>
       <c r="C39" t="str">
         <v>done</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.tiktok.com/@siaran_podcast/video/7500841191500565766</v>
+        <v>https://www.youtube.com/watch?v=_5Ij6cIFNsk</v>
       </c>
       <c r="C40" t="str">
         <v>done</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.tiktok.com/@suaradotcom/video/7500900593280486711</v>
+        <v>https://www.youtube.com/watch?v=5AO8WkTIeic</v>
       </c>
       <c r="C41" t="str">
         <v>done</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Program kb</v>
+        <v>Wamil anak</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.youtube.com/watch?v=tzEYgb9i3SI</v>
+        <v>https://www.youtube.com/watch?v=5cyVfz7mEjU</v>
       </c>
       <c r="C42" t="str">
         <v>done</v>
@@ -869,7 +869,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B43" t="str">
-        <v>https://instagram.com/p/DJQ-5vCTrw_</v>
+        <v>https://www.youtube.com/watch?v=69XiLbJf9ho</v>
       </c>
       <c r="C43" t="str">
         <v>done</v>
@@ -880,7 +880,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B44" t="str">
-        <v>https://instagram.com/p/DJQTAmoTbEh</v>
+        <v>https://www.youtube.com/watch?v=6L8_VMSKTA8</v>
       </c>
       <c r="C44" t="str">
         <v>done</v>
@@ -891,7 +891,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B45" t="str">
-        <v>https://instagram.com/p/DJRB6rESDbt</v>
+        <v>https://www.youtube.com/watch?v=82kCnREh-1w</v>
       </c>
       <c r="C45" t="str">
         <v>done</v>
@@ -902,7 +902,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B46" t="str">
-        <v>https://instagram.com/p/DJRIrRNzfgK</v>
+        <v>https://www.youtube.com/watch?v=9MqYlxnz7S0</v>
       </c>
       <c r="C46" t="str">
         <v>done</v>
@@ -913,7 +913,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B47" t="str">
-        <v>https://instagram.com/p/DJRkVmmzdIC</v>
+        <v>https://www.youtube.com/watch?v=CAA5eddMTNI</v>
       </c>
       <c r="C47" t="str">
         <v>done</v>
@@ -924,7 +924,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B48" t="str">
-        <v>https://www.facebook.com/InfoBaleendah/posts/997084119222119</v>
+        <v>https://www.youtube.com/watch?v=DL7dTtdFi_Q</v>
       </c>
       <c r="C48" t="str">
         <v>done</v>
@@ -935,7 +935,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.facebook.com/JabarEkspresID/posts/642874342078921</v>
+        <v>https://www.youtube.com/watch?v=dtRj2I_30ME</v>
       </c>
       <c r="C49" t="str">
         <v>done</v>
@@ -946,7 +946,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.facebook.com/KompasTV/posts/1349279253228680</v>
+        <v>https://www.youtube.com/watch?v=Frjgo80A3x0</v>
       </c>
       <c r="C50" t="str">
         <v>done</v>
@@ -957,7 +957,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.facebook.com/MartinusSoniCandra/posts/2153265641802689</v>
+        <v>https://www.youtube.com/watch?v=HAJIV25zt48</v>
       </c>
       <c r="C51" t="str">
         <v>done</v>
@@ -968,7 +968,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B52" t="str">
-        <v>https://www.facebook.com/MikhaaylaShaqinaBilla/posts/1401384877960957</v>
+        <v>https://www.youtube.com/watch?v=s8EApSSYjrk</v>
       </c>
       <c r="C52" t="str">
         <v>done</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Wamil anak</v>
+        <v>Gapura Panca</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.facebook.com/MukhlisCentre/posts/3954706051341159</v>
+        <v>https://www.facebook.com/CeritaEmakArrafani/posts/122227428212231601</v>
       </c>
       <c r="C53" t="str">
         <v>done</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Wamil anak</v>
+        <v>Gapura Panca</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.facebook.com/RadarJabarID/posts/681824947930779</v>
+        <v>https://www.facebook.com/KangDediFanbase/posts/999448245639279</v>
       </c>
       <c r="C54" t="str">
         <v>done</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Wamil anak</v>
+        <v>Gapura Panca</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.facebook.com/TempoMedia/posts/1132509992248678</v>
+        <v>https://www.facebook.com/KarimHasby/posts/24290586663862244</v>
       </c>
       <c r="C55" t="str">
         <v>done</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Wamil anak</v>
+        <v>Gapura Panca</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.facebook.com/TribunJabar.id/posts/1158711969629210</v>
+        <v>https://www.youtube.com/watch?v=fSILlKpouG4</v>
       </c>
       <c r="C56" t="str">
         <v>done</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Wamil anak</v>
+        <v>Mengurus ODGJ</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.facebook.com/TribunJabar.id/posts/1158738429626564</v>
+        <v>https://www.facebook.com/DesyWidyaningsih/posts/2752754058245211</v>
       </c>
       <c r="C57" t="str">
         <v>done</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Wamil anak</v>
+        <v>Mengurus ODGJ</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.tiktok.com/@ayobandungcom/video/7500889272136764677</v>
+        <v>https://www.facebook.com/DesyWidyaningsih/posts/4203035733315270</v>
       </c>
       <c r="C58" t="str">
         <v>done</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Wamil anak</v>
+        <v>Mengurus ODGJ</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.tiktok.com/@cnnindonesia/video/7500913308501888273</v>
+        <v>https://www.facebook.com/NitaPurnamaHabibie/posts/1045276710905247</v>
       </c>
       <c r="C59" t="str">
         <v>done</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B60" t="str">
-        <v>https://www.tiktok.com/@divipro.media/video/7500863546738150663</v>
+        <v>http://instagram.com/p/DJTE-o6yO_N</v>
       </c>
       <c r="C60" t="str">
         <v>done</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.tiktok.com/@forumkeadilantv/video/7500918855284378897</v>
+        <v>http://instagram.com/p/DJTifevTHe8</v>
       </c>
       <c r="C61" t="str">
         <v>done</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.tiktok.com/@infojabarjuara/video/7500863771661847826</v>
+        <v>http://instagram.com/p/DJTqa1cT4A8</v>
       </c>
       <c r="C62" t="str">
         <v>done</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.tiktok.com/@infojabarjuara/video/7500897179280755975</v>
+        <v>https://www.facebook.com/detikcom/posts/1197682675734313</v>
       </c>
       <c r="C63" t="str">
         <v>done</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.tiktok.com/@kompastvnews/video/7500871844837264647</v>
+        <v>https://www.facebook.com/TribunSumsel/posts/1136149465205157</v>
       </c>
       <c r="C64" t="str">
         <v>done</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.tiktok.com/@kuli_asongan_08/video/7500917325114150162</v>
+        <v>https://www.tiktok.com/@infopangandaran.id/video/7501288024668425478</v>
       </c>
       <c r="C65" t="str">
         <v>done</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.tiktok.com/@mulutnetizzen/video/7500853374489808134</v>
+        <v>https://www.tiktok.com/@jawabaratbisa/video/7501264805806738694</v>
       </c>
       <c r="C66" t="str">
         <v>done</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.tiktok.com/@radarjabar.id/video/7500915534184058128</v>
+        <v>https://www.tiktok.com/@puanglamba/video/7501013976008936709</v>
       </c>
       <c r="C67" t="str">
         <v>done</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Wamil anak</v>
+        <v>Mendukung wamil</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.youtube.com/watch?v=8BU1pT3Ontw</v>
+        <v>https://www.youtube.com/watch?v=KCJ-332Sfzw</v>
       </c>
       <c r="C68" t="str">
         <v>done</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Wamil anak</v>
+        <v>Komnas ham kritik</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.youtube.com/watch?v=akUs8COuWG0</v>
+        <v>https://www.facebook.com/TribunBengkulu.com/posts/771184945419175</v>
       </c>
       <c r="C69" t="str">
         <v>done</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Wamil anak</v>
+        <v>Ono kritik</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.youtube.com/watch?v=dIxYB1f5XVQ</v>
+        <v>http://instagram.com/p/DJTXFtuT_Tp</v>
       </c>
       <c r="C70" t="str">
         <v>done</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.youtube.com/watch?v=etN8QHt_OLY</v>
+        <v>https://www.facebook.com/AffinVortex/posts/1789266411632563</v>
       </c>
       <c r="C71" t="str">
         <v>done</v>
@@ -1185,210 +1185,12 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.youtube.com/watch?v=JZu5F77Aacc</v>
+        <v>https://www.facebook.com/NUOnlineJabar/posts/1097585322393353</v>
       </c>
       <c r="C72" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B73" t="str">
-        <v>https://www.youtube.com/watch?v=MLiXcXOMJBg</v>
-      </c>
-      <c r="C73" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B74" t="str">
-        <v>https://www.youtube.com/watch?v=NBWerPgGZF0</v>
-      </c>
-      <c r="C74" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B75" t="str">
-        <v>https://www.youtube.com/watch?v=oA9bnbbJeFM</v>
-      </c>
-      <c r="C75" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B76" t="str">
-        <v>https://www.youtube.com/watch?v=R_0uTtaCGPY</v>
-      </c>
-      <c r="C76" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B77" t="str">
-        <v>https://www.youtube.com/watch?v=ReclngZgiRY</v>
-      </c>
-      <c r="C77" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B78" t="str">
-        <v>https://www.youtube.com/watch?v=RxAy3g2W70Y</v>
-      </c>
-      <c r="C78" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B79" t="str">
-        <v>https://www.youtube.com/watch?v=tZ7hbcnFF0M</v>
-      </c>
-      <c r="C79" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B80" t="str">
-        <v>https://www.youtube.com/watch?v=VPFSvZQ1x3w</v>
-      </c>
-      <c r="C80" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>Wamil anak</v>
-      </c>
-      <c r="B81" t="str">
-        <v>https://www.youtube.com/watch?v=wXO8Nlf-Z-4</v>
-      </c>
-      <c r="C81" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B82" t="str">
-        <v>https://www.facebook.com/DinSamu/posts/2200412047055556</v>
-      </c>
-      <c r="C82" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B83" t="str">
-        <v>https://www.facebook.com/TribunBengkulu.com/posts/770301515507518</v>
-      </c>
-      <c r="C83" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B84" t="str">
-        <v>https://www.tiktok.com/@infojabarjuara/video/7500829903932247303</v>
-      </c>
-      <c r="C84" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B85" t="str">
-        <v>https://www.tiktok.com/@infosubang.co/video/7500791879382994231</v>
-      </c>
-      <c r="C85" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B86" t="str">
-        <v>https://www.youtube.com/watch?v=_9uiGNzqKgo</v>
-      </c>
-      <c r="C86" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B87" t="str">
-        <v>https://www.youtube.com/watch?v=bZ5Ke4rHgu0</v>
-      </c>
-      <c r="C87" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B88" t="str">
-        <v>https://www.youtube.com/watch?v=hrLAhVn-KVM</v>
-      </c>
-      <c r="C88" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B89" t="str">
-        <v>https://www.youtube.com/watch?v=O9ttxKE1cJ4</v>
-      </c>
-      <c r="C89" t="str">
-        <v>done</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>Rudy silaturahmi</v>
-      </c>
-      <c r="B90" t="str">
-        <v>https://www.youtube.com/watch?v=tZ3EJ688QZ8</v>
-      </c>
-      <c r="C90" t="str">
         <v>done</v>
       </c>
     </row>
@@ -1415,62 +1217,43 @@
     <hyperlink ref="B20" r:id="rId19"/>
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B32" r:id="rId25"/>
-    <hyperlink ref="B33" r:id="rId26"/>
-    <hyperlink ref="B34" r:id="rId27"/>
-    <hyperlink ref="B35" r:id="rId28"/>
-    <hyperlink ref="B37" r:id="rId29"/>
-    <hyperlink ref="B38" r:id="rId30"/>
-    <hyperlink ref="B39" r:id="rId31"/>
-    <hyperlink ref="B40" r:id="rId32"/>
-    <hyperlink ref="B41" r:id="rId33"/>
-    <hyperlink ref="B42" r:id="rId34"/>
-    <hyperlink ref="B43" r:id="rId35"/>
-    <hyperlink ref="B44" r:id="rId36"/>
-    <hyperlink ref="B45" r:id="rId37"/>
-    <hyperlink ref="B46" r:id="rId38"/>
-    <hyperlink ref="B47" r:id="rId39"/>
-    <hyperlink ref="B56" r:id="rId40"/>
-    <hyperlink ref="B57" r:id="rId41"/>
-    <hyperlink ref="B58" r:id="rId42"/>
-    <hyperlink ref="B59" r:id="rId43"/>
-    <hyperlink ref="B60" r:id="rId44"/>
-    <hyperlink ref="B61" r:id="rId45"/>
-    <hyperlink ref="B62" r:id="rId46"/>
-    <hyperlink ref="B63" r:id="rId47"/>
-    <hyperlink ref="B64" r:id="rId48"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B32" r:id="rId23"/>
+    <hyperlink ref="B33" r:id="rId24"/>
+    <hyperlink ref="B34" r:id="rId25"/>
+    <hyperlink ref="B35" r:id="rId26"/>
+    <hyperlink ref="B36" r:id="rId27"/>
+    <hyperlink ref="B37" r:id="rId28"/>
+    <hyperlink ref="B38" r:id="rId29"/>
+    <hyperlink ref="B39" r:id="rId30"/>
+    <hyperlink ref="B40" r:id="rId31"/>
+    <hyperlink ref="B41" r:id="rId32"/>
+    <hyperlink ref="B42" r:id="rId33"/>
+    <hyperlink ref="B43" r:id="rId34"/>
+    <hyperlink ref="B44" r:id="rId35"/>
+    <hyperlink ref="B45" r:id="rId36"/>
+    <hyperlink ref="B46" r:id="rId37"/>
+    <hyperlink ref="B47" r:id="rId38"/>
+    <hyperlink ref="B48" r:id="rId39"/>
+    <hyperlink ref="B49" r:id="rId40"/>
+    <hyperlink ref="B50" r:id="rId41"/>
+    <hyperlink ref="B51" r:id="rId42"/>
+    <hyperlink ref="B52" r:id="rId43"/>
+    <hyperlink ref="B56" r:id="rId44"/>
+    <hyperlink ref="B60" r:id="rId45"/>
+    <hyperlink ref="B61" r:id="rId46"/>
+    <hyperlink ref="B62" r:id="rId47"/>
+    <hyperlink ref="B63" r:id="rId48"/>
     <hyperlink ref="B65" r:id="rId49"/>
     <hyperlink ref="B66" r:id="rId50"/>
     <hyperlink ref="B67" r:id="rId51"/>
     <hyperlink ref="B68" r:id="rId52"/>
     <hyperlink ref="B69" r:id="rId53"/>
     <hyperlink ref="B70" r:id="rId54"/>
-    <hyperlink ref="B71" r:id="rId55"/>
-    <hyperlink ref="B72" r:id="rId56"/>
-    <hyperlink ref="B73" r:id="rId57"/>
-    <hyperlink ref="B74" r:id="rId58"/>
-    <hyperlink ref="B75" r:id="rId59"/>
-    <hyperlink ref="B76" r:id="rId60"/>
-    <hyperlink ref="B77" r:id="rId61"/>
-    <hyperlink ref="B78" r:id="rId62"/>
-    <hyperlink ref="B79" r:id="rId63"/>
-    <hyperlink ref="B80" r:id="rId64"/>
-    <hyperlink ref="B81" r:id="rId65"/>
-    <hyperlink ref="B83" r:id="rId66"/>
-    <hyperlink ref="B84" r:id="rId67"/>
-    <hyperlink ref="B85" r:id="rId68"/>
-    <hyperlink ref="B86" r:id="rId69"/>
-    <hyperlink ref="B87" r:id="rId70"/>
-    <hyperlink ref="B88" r:id="rId71"/>
-    <hyperlink ref="B89" r:id="rId72"/>
-    <hyperlink ref="B90" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C90"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C72"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/link.xlsx
+++ b/link.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B2" t="str">
-        <v>http://instagram.com/p/DJS-uAcxUGS</v>
+        <v>https://instagram.com/p/DJVJSD4T0jY</v>
       </c>
       <c r="C2" t="str">
         <v>done</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B3" t="str">
-        <v>http://instagram.com/p/DJS8eBczJEG</v>
+        <v>https://instagram.com/p/DJVLkebTseR</v>
       </c>
       <c r="C3" t="str">
         <v>done</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B4" t="str">
-        <v>http://instagram.com/p/DJTX-XbSYEK</v>
+        <v>https://instagram.com/p/DJVLL3OTZo2</v>
       </c>
       <c r="C4" t="str">
         <v>done</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.facebook.com/Pojokjabarcom/posts/1123470693130433</v>
+        <v>https://instagram.com/p/DJVMw7Wzn_t</v>
       </c>
       <c r="C5" t="str">
         <v>done</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.tiktok.com/@bisikin.id/video/7501132986885180679</v>
+        <v>https://instagram.com/p/DJVQRLtTU-d</v>
       </c>
       <c r="C6" t="str">
         <v>done</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.tiktok.com/@sindonews/video/7501275889452436743</v>
+        <v>https://instagram.com/p/DJVREbhz3sK</v>
       </c>
       <c r="C7" t="str">
         <v>done</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.youtube.com/watch?v=29g3FJpTIlc</v>
+        <v>https://instagram.com/p/DJVRI9cTZtK</v>
       </c>
       <c r="C8" t="str">
         <v>done</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.youtube.com/watch?v=8DY7H1ZylI0</v>
+        <v>https://instagram.com/p/DJVRjZ-yzg2</v>
       </c>
       <c r="C9" t="str">
         <v>done</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.youtube.com/watch?v=aR5teH-bXdw</v>
+        <v>https://instagram.com/p/DJVV0Viy8bm</v>
       </c>
       <c r="C10" t="str">
         <v>done</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.youtube.com/watch?v=egrUqZyf-IY</v>
+        <v>https://instagram.com/p/DJVVbo7yGTK</v>
       </c>
       <c r="C11" t="str">
         <v>done</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.youtube.com/watch?v=jNWIaEshmVc</v>
+        <v>https://instagram.com/p/DJVXO13TjpF</v>
       </c>
       <c r="C12" t="str">
         <v>done</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.youtube.com/watch?v=olTJy-OJZMc</v>
+        <v>https://instagram.com/p/DJWavamTYrg</v>
       </c>
       <c r="C13" t="str">
         <v>done</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Program KB</v>
+        <v>Musrembang</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.youtube.com/watch?v=pCp2gGMNgPo</v>
+        <v>https://instagram.com/p/DJWB00TTVdH</v>
       </c>
       <c r="C14" t="str">
         <v>done</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B15" t="str">
-        <v>http://instagram.com/p/DJS3gLKPZtm</v>
+        <v>https://instagram.com/p/DJWfhKUhG0y</v>
       </c>
       <c r="C15" t="str">
         <v>done</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B16" t="str">
-        <v>http://instagram.com/p/DJSlYm7zn4n</v>
+        <v>https://www.facebook.com/CecepNurulYakin/posts/1827542358102258</v>
       </c>
       <c r="C16" t="str">
         <v>done</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B17" t="str">
-        <v>http://instagram.com/p/DJSrFwrNS_l</v>
+        <v>https://www.facebook.com/KecamatanKejaksan/posts/1197127481899013</v>
       </c>
       <c r="C17" t="str">
         <v>done</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B18" t="str">
-        <v>http://instagram.com/p/DJTjsLiRSi9</v>
+        <v>https://www.tiktok.com/@ntvnews.id/video/7501621205317750024</v>
       </c>
       <c r="C18" t="str">
         <v>done</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B19" t="str">
-        <v>http://instagram.com/p/DJTJXS_S_4Q</v>
+        <v>https://www.tiktok.com/@rio2712345/video/7501528493960793352</v>
       </c>
       <c r="C19" t="str">
         <v>done</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B20" t="str">
-        <v>http://instagram.com/p/DJTlMbFy1Ui</v>
+        <v>https://www.tiktok.com/@sukabumi.talks/video/7501553737601797381</v>
       </c>
       <c r="C20" t="str">
         <v>done</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.facebook.com/Akurat.co/posts/1237665918369841</v>
+        <v>https://www.youtube.com/watch?v=ab1_f8z3mwg</v>
       </c>
       <c r="C21" t="str">
         <v>done</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.facebook.com/Kompas.com/posts/1180939437395502</v>
+        <v>https://www.youtube.com/watch?v=E-86xHt4z8I</v>
       </c>
       <c r="C22" t="str">
         <v>done</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.facebook.com/LedyShenaga/posts/29275333418776675</v>
+        <v>https://www.youtube.com/watch?v=vzrU2_TkGj0</v>
       </c>
       <c r="C23" t="str">
         <v>done</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Wamil anak</v>
+        <v>Musrembang</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.facebook.com/Liputan6/posts/1299049441586340</v>
+        <v>https://www.youtube.com/watch?v=wA-A00Jj_78</v>
       </c>
       <c r="C24" t="str">
         <v>done</v>
@@ -671,7 +671,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.facebook.com/MDadangKusumadinata/posts/122224635554158608</v>
+        <v>https://instagram.com/p/DJV2ydFqREy</v>
       </c>
       <c r="C25" t="str">
         <v>done</v>
@@ -682,7 +682,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.facebook.com/MetroTV/posts/1254052549423991</v>
+        <v>https://instagram.com/p/DJVbr9dPGyf</v>
       </c>
       <c r="C26" t="str">
         <v>done</v>
@@ -693,7 +693,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.facebook.com/NUOnlineJabar/posts/1097646165720602</v>
+        <v>https://instagram.com/p/DJVs-kez7iW</v>
       </c>
       <c r="C27" t="str">
         <v>done</v>
@@ -704,7 +704,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.facebook.com/NusantaraCerdas/posts/717947697565002</v>
+        <v>https://www.facebook.com/AlfiVanRiza/posts/10228552385296623</v>
       </c>
       <c r="C28" t="str">
         <v>done</v>
@@ -715,7 +715,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.facebook.com/OdangRodiana/posts/122153708912572721</v>
+        <v>https://www.facebook.com/HaloKarawang/posts/1255747396553074</v>
       </c>
       <c r="C29" t="str">
         <v>done</v>
@@ -726,7 +726,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.facebook.com/RadigaFam's/posts/29993585823566201</v>
+        <v>https://www.facebook.com/tvOneNews/posts/716188131063549</v>
       </c>
       <c r="C30" t="str">
         <v>done</v>
@@ -737,7 +737,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.facebook.com/SekitarGarut/posts/1095961729230254</v>
+        <v>https://www.tiktok.com/@informasi_karawang/video/7501547235587542279</v>
       </c>
       <c r="C31" t="str">
         <v>done</v>
@@ -748,7 +748,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.tiktok.com/@allabout.bandungbarat/video/7501163158204091655</v>
+        <v>https://www.tiktok.com/@pecu.73/video/7501636778609085702</v>
       </c>
       <c r="C32" t="str">
         <v>done</v>
@@ -759,7 +759,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.tiktok.com/@jabar_people/video/7501300871876152582</v>
+        <v>https://www.tiktok.com/@radardepok.id/video/7501576224129420562</v>
       </c>
       <c r="C33" t="str">
         <v>done</v>
@@ -770,7 +770,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.tiktok.com/@jiebex2/video/7501175460932488454</v>
+        <v>https://www.tiktok.com/@sctv_/video/7501549474230062342</v>
       </c>
       <c r="C34" t="str">
         <v>done</v>
@@ -781,7 +781,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.tiktok.com/@lang.bahas.bahas/video/7501258139660995845</v>
+        <v>https://www.tiktok.com/@tvoneofficial/video/7501641864009829653</v>
       </c>
       <c r="C35" t="str">
         <v>done</v>
@@ -792,7 +792,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.tiktok.com/@lidah.rakyat7/video/7501122261689060616</v>
+        <v>https://www.youtube.com/watch?v=Jp6p5Oqwkyo</v>
       </c>
       <c r="C36" t="str">
         <v>done</v>
@@ -803,7 +803,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.tiktok.com/@metro_tv/video/7501275429655907605</v>
+        <v>https://www.youtube.com/watch?v=kxSC9Le4tJ8</v>
       </c>
       <c r="C37" t="str">
         <v>done</v>
@@ -814,7 +814,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.tiktok.com/@taman_taman_surga/video/7500951869447998738</v>
+        <v>https://www.youtube.com/watch?v=liNo4ocd8dk</v>
       </c>
       <c r="C38" t="str">
         <v>done</v>
@@ -825,7 +825,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.youtube.com/watch?v=_4KZ-FAYwhs</v>
+        <v>https://www.youtube.com/watch?v=MFhS-WGDvM4</v>
       </c>
       <c r="C39" t="str">
         <v>done</v>
@@ -836,7 +836,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.youtube.com/watch?v=_5Ij6cIFNsk</v>
+        <v>https://www.youtube.com/watch?v=pda2P62oSq4</v>
       </c>
       <c r="C40" t="str">
         <v>done</v>
@@ -847,7 +847,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.youtube.com/watch?v=5AO8WkTIeic</v>
+        <v>https://www.youtube.com/watch?v=VJkmSqTTuOI</v>
       </c>
       <c r="C41" t="str">
         <v>done</v>
@@ -858,7 +858,7 @@
         <v>Wamil anak</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.youtube.com/watch?v=5cyVfz7mEjU</v>
+        <v>https://www.youtube.com/watch?v=Y8OXiBJTulQ</v>
       </c>
       <c r="C42" t="str">
         <v>done</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B43" t="str">
-        <v>https://www.youtube.com/watch?v=69XiLbJf9ho</v>
+        <v>https://instagram.com/p/DJV3v2HSG6x</v>
       </c>
       <c r="C43" t="str">
         <v>done</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B44" t="str">
-        <v>https://www.youtube.com/watch?v=6L8_VMSKTA8</v>
+        <v>https://instagram.com/p/DJVWwGwzBmG</v>
       </c>
       <c r="C44" t="str">
         <v>done</v>
@@ -888,10 +888,10 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B45" t="str">
-        <v>https://www.youtube.com/watch?v=82kCnREh-1w</v>
+        <v>https://www.facebook.com/LannyKristiani/posts/3598689017094803</v>
       </c>
       <c r="C45" t="str">
         <v>done</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.youtube.com/watch?v=9MqYlxnz7S0</v>
+        <v>https://www.facebook.com/tvOneNews/posts/716138091068553</v>
       </c>
       <c r="C46" t="str">
         <v>done</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.youtube.com/watch?v=CAA5eddMTNI</v>
+        <v>https://www.tiktok.com/@mulutnetizzen/video/7501695312487107846</v>
       </c>
       <c r="C47" t="str">
         <v>done</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B48" t="str">
-        <v>https://www.youtube.com/watch?v=DL7dTtdFi_Q</v>
+        <v>https://www.tiktok.com/@tvoneofficial/video/7501615051707665685</v>
       </c>
       <c r="C48" t="str">
         <v>done</v>
@@ -932,10 +932,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.youtube.com/watch?v=dtRj2I_30ME</v>
+        <v>https://www.youtube.com/watch?v=clT2oKkamO4</v>
       </c>
       <c r="C49" t="str">
         <v>done</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.youtube.com/watch?v=Frjgo80A3x0</v>
+        <v>https://www.youtube.com/watch?v=v261YpVBE00</v>
       </c>
       <c r="C50" t="str">
         <v>done</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Wamil anak</v>
+        <v>Program KB</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.youtube.com/watch?v=HAJIV25zt48</v>
+        <v>https://www.youtube.com/watch?v=XJDNa7tsa50</v>
       </c>
       <c r="C51" t="str">
         <v>done</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Wamil anak</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B52" t="str">
-        <v>https://www.youtube.com/watch?v=s8EApSSYjrk</v>
+        <v>https://instagram.com/p/DJVwZqsztEj</v>
       </c>
       <c r="C52" t="str">
         <v>done</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Gapura Panca</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.facebook.com/CeritaEmakArrafani/posts/122227428212231601</v>
+        <v>https://instagram.com/p/DJWgCeLzAVH</v>
       </c>
       <c r="C53" t="str">
         <v>done</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Gapura Panca</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.facebook.com/KangDediFanbase/posts/999448245639279</v>
+        <v>https://www.facebook.com/KangHarisMardiyana/posts/3472359906227864</v>
       </c>
       <c r="C54" t="str">
         <v>done</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Gapura Panca</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.facebook.com/KarimHasby/posts/24290586663862244</v>
+        <v>https://www.tiktok.com/@ayobandungcom/video/7501593033910029574</v>
       </c>
       <c r="C55" t="str">
         <v>done</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Gapura Panca</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.youtube.com/watch?v=fSILlKpouG4</v>
+        <v>https://www.tiktok.com/@kompastvnews/video/7501660437608500498</v>
       </c>
       <c r="C56" t="str">
         <v>done</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mengurus ODGJ</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.facebook.com/DesyWidyaningsih/posts/2752754058245211</v>
+        <v>https://www.tiktok.com/@metro_tv/video/7501544118925937941</v>
       </c>
       <c r="C57" t="str">
         <v>done</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mengurus ODGJ</v>
+        <v>Wamil dewasa</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.facebook.com/DesyWidyaningsih/posts/4203035733315270</v>
+        <v>https://www.tiktok.com/@pakar_it.com/video/7501640319998463250</v>
       </c>
       <c r="C58" t="str">
         <v>done</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mengurus ODGJ</v>
+        <v>Cirebon</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.facebook.com/NitaPurnamaHabibie/posts/1045276710905247</v>
+        <v>https://instagram.com/p/DJVyLQKTgsY</v>
       </c>
       <c r="C59" t="str">
         <v>done</v>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Mendukung wamil</v>
+        <v>Cirebon</v>
       </c>
       <c r="B60" t="str">
-        <v>http://instagram.com/p/DJTE-o6yO_N</v>
+        <v>https://www.facebook.com/Cirebonberita/posts/1218632383047206</v>
       </c>
       <c r="C60" t="str">
         <v>done</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mendukung wamil</v>
+        <v>Cirebon</v>
       </c>
       <c r="B61" t="str">
-        <v>http://instagram.com/p/DJTifevTHe8</v>
+        <v>https://www.facebook.com/DeddyMadjmoe/posts/1687507792131236</v>
       </c>
       <c r="C61" t="str">
         <v>done</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mendukung wamil</v>
+        <v>Cirebon</v>
       </c>
       <c r="B62" t="str">
-        <v>http://instagram.com/p/DJTqa1cT4A8</v>
+        <v>https://www.facebook.com/TribunPriangan/posts/667810939403362</v>
       </c>
       <c r="C62" t="str">
         <v>done</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mendukung wamil</v>
+        <v>Cirebon</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.facebook.com/detikcom/posts/1197682675734313</v>
+        <v>https://www.youtube.com/watch?v=bu9LVH_THQo</v>
       </c>
       <c r="C63" t="str">
         <v>done</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mendukung wamil</v>
+        <v>Cirebon</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.facebook.com/TribunSumsel/posts/1136149465205157</v>
+        <v>https://www.youtube.com/watch?v=ieuRsQxhImQ</v>
       </c>
       <c r="C64" t="str">
         <v>done</v>
@@ -1108,10 +1108,10 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mendukung wamil</v>
+        <v>DPRD dukung wamil</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.tiktok.com/@infopangandaran.id/video/7501288024668425478</v>
+        <v>https://instagram.com/p/DJV1_HoOetj</v>
       </c>
       <c r="C65" t="str">
         <v>done</v>
@@ -1119,10 +1119,10 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mendukung wamil</v>
+        <v>Menham dukung wamil</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.tiktok.com/@jawabaratbisa/video/7501264805806738694</v>
+        <v>https://www.tiktok.com/@tribunnewsindo/video/7501673813772340498</v>
       </c>
       <c r="C66" t="str">
         <v>done</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mendukung wamil</v>
+        <v>Menham dukung wamil</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.tiktok.com/@puanglamba/video/7501013976008936709</v>
+        <v>https://www.youtube.com/watch?v=kFYagVibj_c</v>
       </c>
       <c r="C67" t="str">
         <v>done</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mendukung wamil</v>
+        <v>Pemprov dukung wamil</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.youtube.com/watch?v=KCJ-332Sfzw</v>
+        <v>https://www.tiktok.com/@mashanzchannel/video/7501651693965249800</v>
       </c>
       <c r="C68" t="str">
         <v>done</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Komnas ham kritik</v>
+        <v>Imparsial kritik KDM</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.facebook.com/TribunBengkulu.com/posts/771184945419175</v>
+        <v>https://instagram.com/p/DJViP-sI-Ja</v>
       </c>
       <c r="C69" t="str">
         <v>done</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Ono kritik</v>
+        <v>Islam kritk vasektomi</v>
       </c>
       <c r="B70" t="str">
-        <v>http://instagram.com/p/DJTXFtuT_Tp</v>
+        <v>https://www.facebook.com/HendriMairizal/posts/122221067624188011</v>
       </c>
       <c r="C70" t="str">
         <v>done</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Program KB</v>
+        <v>Islam krtik vasektomi</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.facebook.com/AffinVortex/posts/1789266411632563</v>
+        <v>https://www.facebook.com/DakwahTangsel/posts/3928238090724281</v>
       </c>
       <c r="C71" t="str">
         <v>done</v>
@@ -1185,12 +1185,67 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Program KB</v>
+        <v>Ono kritik</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.facebook.com/NUOnlineJabar/posts/1097585322393353</v>
+        <v>https://www.youtube.com/watch?v=MAj0-5ELpuk</v>
       </c>
       <c r="C72" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Ono kritik cirebon</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://www.tiktok.com/@cirebon.banget/video/7501682212660628791</v>
+      </c>
+      <c r="C73" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Ono kritik cirebon</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://www.tiktok.com/@tribunpriangan.com/video/7501642047468686610</v>
+      </c>
+      <c r="C74" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>PKTA kritik wamil</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://www.facebook.com/AsliGarutSwissVanJava/posts/722900770306705</v>
+      </c>
+      <c r="C75" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>PKTA kritik wamil</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://www.facebook.com/ResepRahasiaMama/posts/122212028822247268</v>
+      </c>
+      <c r="C76" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Psikolog kritik wamil</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://www.youtube.com/watch?v=ju-KAUSu400</v>
+      </c>
+      <c r="C77" t="str">
         <v>done</v>
       </c>
     </row>
@@ -1210,50 +1265,60 @@
     <hyperlink ref="B13" r:id="rId12"/>
     <hyperlink ref="B14" r:id="rId13"/>
     <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B32" r:id="rId23"/>
-    <hyperlink ref="B33" r:id="rId24"/>
-    <hyperlink ref="B34" r:id="rId25"/>
-    <hyperlink ref="B35" r:id="rId26"/>
-    <hyperlink ref="B36" r:id="rId27"/>
-    <hyperlink ref="B37" r:id="rId28"/>
-    <hyperlink ref="B38" r:id="rId29"/>
-    <hyperlink ref="B39" r:id="rId30"/>
-    <hyperlink ref="B40" r:id="rId31"/>
-    <hyperlink ref="B41" r:id="rId32"/>
-    <hyperlink ref="B42" r:id="rId33"/>
-    <hyperlink ref="B43" r:id="rId34"/>
-    <hyperlink ref="B44" r:id="rId35"/>
-    <hyperlink ref="B45" r:id="rId36"/>
-    <hyperlink ref="B46" r:id="rId37"/>
-    <hyperlink ref="B47" r:id="rId38"/>
-    <hyperlink ref="B48" r:id="rId39"/>
-    <hyperlink ref="B49" r:id="rId40"/>
-    <hyperlink ref="B50" r:id="rId41"/>
-    <hyperlink ref="B51" r:id="rId42"/>
-    <hyperlink ref="B52" r:id="rId43"/>
-    <hyperlink ref="B56" r:id="rId44"/>
-    <hyperlink ref="B60" r:id="rId45"/>
-    <hyperlink ref="B61" r:id="rId46"/>
-    <hyperlink ref="B62" r:id="rId47"/>
-    <hyperlink ref="B63" r:id="rId48"/>
-    <hyperlink ref="B65" r:id="rId49"/>
-    <hyperlink ref="B66" r:id="rId50"/>
-    <hyperlink ref="B67" r:id="rId51"/>
-    <hyperlink ref="B68" r:id="rId52"/>
-    <hyperlink ref="B69" r:id="rId53"/>
-    <hyperlink ref="B70" r:id="rId54"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B49" r:id="rId43"/>
+    <hyperlink ref="B50" r:id="rId44"/>
+    <hyperlink ref="B51" r:id="rId45"/>
+    <hyperlink ref="B52" r:id="rId46"/>
+    <hyperlink ref="B53" r:id="rId47"/>
+    <hyperlink ref="B55" r:id="rId48"/>
+    <hyperlink ref="B56" r:id="rId49"/>
+    <hyperlink ref="B57" r:id="rId50"/>
+    <hyperlink ref="B58" r:id="rId51"/>
+    <hyperlink ref="B59" r:id="rId52"/>
+    <hyperlink ref="B60" r:id="rId53"/>
+    <hyperlink ref="B63" r:id="rId54"/>
+    <hyperlink ref="B64" r:id="rId55"/>
+    <hyperlink ref="B65" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B72" r:id="rId61"/>
+    <hyperlink ref="B73" r:id="rId62"/>
+    <hyperlink ref="B74" r:id="rId63"/>
+    <hyperlink ref="B77" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C77"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227FD685-F84A-7843-9AE5-A40E431ADC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7658BC33-7935-E549-A34E-E44D9009131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>kategori</t>
   </si>
@@ -43,232 +43,184 @@
     <t>status</t>
   </si>
   <si>
-    <t>Musrembang</t>
-  </si>
-  <si>
     <t>Wamil anak</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1182685240554255</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunJabar.id/posts/1161262586040815</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@genfunofficial/video/7502046571349970183</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hello.ihsan/video/7501978902152154374</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@mata_kepo/video/7501945817587109121</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tribunpriangan.com/video/7502051777785646344</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tvri_jabar/video/7501909719582297352</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=E8dJ4XW8tpo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EgjCqFVW_Zs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KJUTh_o9PBk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lMOSTb6QYWI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TsAWzMvKTvw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vkjPLEW5Y64</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wNVcHhwUXJs</t>
   </si>
   <si>
-    <t>https://instagram.com/p/DJYa1BjTX8O</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJYpezRxFm3</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJYV2GYTCU8</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@asepsuryaatmaja/video/7501940515772861703</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@biroumumprovjabar/video/7502067689116945719</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dpdrijabar/video/7501896699133168902</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@indojabarnews.com/video/7501893688113532167</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kangimron_/video/7501985571544370450</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@pasundanekspres_news/video/7501892364546379063</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tribunpriangan.com/video/7501966423808347410</t>
-  </si>
-  <si>
-    <t>Program vasektomi</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1182692760553503</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NetiBetriana/posts/3006353952879821</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Wahyudin/posts/1407360130474447</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@metro_tv/video/7502006855925779733</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@radarbandung/video/7501872940200348934</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7BF6Ly9B5xs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PrZyRWZmGL8</t>
-  </si>
-  <si>
-    <t>Abdi Nagri</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJYCTFbzcg7</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJYJJRMSUs-</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@fajar.cirebon/video/7502003642124258566</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kangimron_/video/7501985155561671944</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cy5qZ77vnoI</t>
-  </si>
-  <si>
     <t>Gapura panca</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/@bekasimedia/video/7501841993585265926</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tribunpriangan.com/video/7502029542165417224</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nGz_TCJ4g14</t>
-  </si>
-  <si>
-    <t>Didukung warga wamil</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@iwanverry69/video/7501951313417194807</t>
-  </si>
-  <si>
-    <t>Kepsek dukung wamil</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@infopangandaran.id/video/7502045127116983558</t>
-  </si>
-  <si>
-    <t>Komisi DPR dukung</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJYOuSgxF0y</t>
-  </si>
-  <si>
-    <t>Menham dukugn</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/716947767654252</t>
-  </si>
-  <si>
-    <t>Menham dukung</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@officialinews/video/7502043235565571336</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@officialinews/video/7502046115789835528</t>
-  </si>
-  <si>
-    <t>Pertumbuhan ekonomi</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@jadipreneur.id/video/7502069772213832966</t>
-  </si>
-  <si>
-    <t>LBH kritik</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1182658577223588</t>
-  </si>
-  <si>
-    <t>Ortu melaporkan KDM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1182623103893802</t>
-  </si>
-  <si>
-    <t>Pakar kritik wamil</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@surabayatv/video/7502034862807731463</t>
-  </si>
-  <si>
-    <t>Sidik kritik wamil</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJZBPxISe_L</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/OpiniRakjatID/posts/1217868367012975</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PRFMNewsChannel/posts/1178939397544496</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi/posts/122128631372746177</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CeritaEmakArrafani/posts/122227927364231601</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RadigaFam's/posts/30019605177630932</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TempoMedia/posts/1135328228633521</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KarawangInfo(www.karawanginfo.com)/posts/1075421091277261</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PamanukanPanturaIstimewa/posts/1544804916439811</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ChoiruddinMuhammad/posts/3273456146150267</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IndramayuInfo/posts/1242695991197252</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PodcastClips/posts/697343509903184</t>
+    <t>https://instagram.com/p/DJbT28Yp0Ak</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tvOneNews/posts/717671837581845</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@indozone.id/video/7502053081895685394</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@pikiranrakyat/video/7502233090362707218</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tribunkaltim.co/video/7502269294030441746</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-cwtUfUtnxE</t>
+  </si>
+  <si>
+    <t>Alokasi APBD</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Bisnis.com/posts/1096997849123177</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJaWF3qTUsr</t>
+  </si>
+  <si>
+    <t>Program KB</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@genfunofficial/video/7502272186359516424</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@hakusi99/video/7502215713348767031</t>
+  </si>
+  <si>
+    <t>Pemeriksaan Kesehatan</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJa9KYeSTgS</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJbeV89zlio</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJbPkAGyecn</t>
+  </si>
+  <si>
+    <t>Ortu laporkan KDM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJbV5rdPACY</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iNews/posts/1144109187761146</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jabodetabek24.info/posts/122130431438639792</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SINDOnews/posts/1110024754494720</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r39jYEms2nA</t>
+  </si>
+  <si>
+    <t>Kritik program vasektomi</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJbjunaykFO</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJbtvWjpiYW</t>
+  </si>
+  <si>
+    <t>Dukungan ke wamil</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SINDOnews/posts/1110010344496161</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/QieeNoeyy/posts/9906849082707925</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RezaFachlevi/posts/10228770930524990</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RadarBandung/posts/1102802591865852</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RamlanEpendiHarahap/posts/705915735338636</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/posts/677365894899401</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDediFanbase/posts/1001514345432669</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PikiranRakyat/posts/530161780168616</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TempoMedia/posts/1135655331934144</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ALFANFAUZI,Berasa/posts/1266945345057879</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AndryMaulana/posts/1760722268178481</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BeritaTerkini/posts/24310275718574199</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Fahrullrozzitwo/posts/1101900221956909</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/INFODEPOK/posts/982991013996981</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDang/posts/1617572112291585</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDang/posts/1859160271605979</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDang/posts/2864556267065376</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDang/posts/9697785220318403</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lindalaraswati/posts/122216047562172506</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NurhasanNurhasan/posts/713420281249977</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PamanukanPanturaIstimewa/posts/1545585443028425</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RafsanjaniMAyim/posts/1099765401981840</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi/posts/122128883144746177</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TatarPasundan/posts/1269621671258957</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunSumsel/posts/1137972161689554</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunSumsel/posts/1138024815017622</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UmDaisha/posts/1205945391316176</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UmDaisha/posts/4044709239121751</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mustanir.InfoMediaMuslim/posts/1267032012094225</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NUOnlineJabar/posts/1099813025503916</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NUOnlineJabar/posts/1099828488835703</t>
   </si>
 </sst>
 </file>
@@ -641,7 +593,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C62"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,183 +614,183 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -846,360 +798,296 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{34A8B63E-074B-FC4F-9133-BCC4AC9F0940}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{700458ED-9BE5-9E4A-A75D-4CB1E716AA7E}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{5FE9372A-6D50-1840-96AB-CA9A34E0812D}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{04BB7FD9-3388-8349-9E74-857F3804CFCF}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{4BE8C17B-446B-2B45-913B-522D106305AD}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{EE94E272-0A01-1147-8A48-47095FBBEAAC}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{66E765A8-5B2D-0646-9023-02584E048047}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{83C22B14-B250-FC4E-808F-FBDF135339B6}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{47BB1E99-AF80-CE48-BFAA-5C0EE3D82E86}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{8207569F-0B8E-7641-983E-66F4977DE660}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{7F0757FE-EA8B-A641-90DB-D280A349F4A4}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{94489204-CE24-2B45-B2ED-B22F46B3A5F9}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{2F7BA19A-5314-B542-8753-0127CDCB3E20}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{348BB9F2-FCA1-904D-8041-CAD1D74B9638}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{309D90E4-5306-3F48-B59C-DF5721E47ADD}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{510418D1-BC09-BC41-8AE3-6921357A9726}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{9CEE814F-0CE9-C04F-AF7F-CEC6EF2A728A}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{F09C4310-3966-DA4C-B77B-2F85CEE87912}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{B08702E0-6C3C-8B43-A72E-FE21352C956D}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{EF837813-F61E-7143-9ABD-EA584FA17D36}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{0B360160-54B5-E145-90DA-52BD18459D65}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{777921AC-4745-3D4C-8880-DF642F8259D4}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{AE05E11E-2825-FB42-A387-352B1DF87A58}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{6CD29B35-31E7-734C-8020-797C1DEC4C51}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{417446E1-D735-164F-83C9-66157A69A699}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{11408418-5B56-6547-A33C-4EC19E2C44B6}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{926352D8-051F-0F44-9193-4BB261847776}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{B60A6E1E-AE63-FC49-A5BB-AD479A269C6B}"/>
-    <hyperlink ref="B36" r:id="rId29" xr:uid="{BFE811C0-1183-7B42-9AE2-6A3E86F47A47}"/>
-    <hyperlink ref="B37" r:id="rId30" xr:uid="{14D856E5-315F-664E-B572-02D1E7A86749}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{49C6BBF1-E654-F542-9906-10EB02530E1B}"/>
-    <hyperlink ref="B39" r:id="rId32" xr:uid="{FAB409C9-AC6C-3144-A228-797A646B183F}"/>
-    <hyperlink ref="B40" r:id="rId33" xr:uid="{797DF299-2928-DF45-8C6D-06F4F5FB8A3C}"/>
-    <hyperlink ref="B41" r:id="rId34" xr:uid="{EC28B227-0C35-4840-9ADC-EBAEAAE4C85C}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{C92E1124-6AA3-8046-A885-F9E5761F6F7E}"/>
-    <hyperlink ref="B43" r:id="rId36" xr:uid="{B71FC3C3-1146-5D48-8537-E2596C14D46D}"/>
-    <hyperlink ref="B46" r:id="rId37" xr:uid="{B32F3EA6-C3EB-0F46-95F4-E83544A28CDB}"/>
-    <hyperlink ref="B47" r:id="rId38" xr:uid="{7E6D94E0-3B60-2C43-AD76-1787243F8949}"/>
-    <hyperlink ref="B48" r:id="rId39" xr:uid="{097F70E9-3766-3742-AE0E-C7FF24AC80AB}"/>
-    <hyperlink ref="B49" r:id="rId40" xr:uid="{E0E54E68-F60A-7946-83B0-4E4AAEA2E620}"/>
-    <hyperlink ref="B50" r:id="rId41" xr:uid="{C48D194B-6FBC-EF4F-990A-1983A5D290EC}"/>
-    <hyperlink ref="B51" r:id="rId42" xr:uid="{D3EE7240-2481-4646-9286-5C8AE1D8812C}"/>
-    <hyperlink ref="B52" r:id="rId43" xr:uid="{678C8A33-5F34-554C-9A7B-CAAC4DCA4C06}"/>
-    <hyperlink ref="B53" r:id="rId44" xr:uid="{55BA9FE1-2BDD-8440-927A-DDFB888BAD01}"/>
-    <hyperlink ref="B54" r:id="rId45" xr:uid="{C5522606-BBB4-0143-A4E4-350E5E94DDC9}"/>
-    <hyperlink ref="B55" r:id="rId46" xr:uid="{1C9D4C1E-2BDC-8D43-8D37-28A38405EB71}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{A8699D2B-AAD8-BC45-918E-D36D87E3DB55}"/>
-    <hyperlink ref="B59" r:id="rId48" xr:uid="{EAAE539E-5F31-8E40-B866-5B0990072319}"/>
-    <hyperlink ref="B61" r:id="rId49" xr:uid="{B40D41FF-6A5F-3E43-8B53-C5A1FB4DAFAA}"/>
-    <hyperlink ref="B62" r:id="rId50" xr:uid="{0C606CAF-D40B-B749-8707-959898709D89}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C5A99DB9-32E0-9B4D-A19C-791CEC63D9E2}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{384CE132-9399-DB4A-92C3-8A9615A4B5FA}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{86E9B419-7DD7-BE4D-BC1E-A67C04C9B504}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{39D02255-AA54-FC4F-8916-4254513B4FFC}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{28B7364C-CBDA-4646-A410-AE2B0B1CF4A0}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{4BD4B8D8-9C23-1B43-B2EA-28E995A16949}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{FC67EF9C-45EF-F94F-8976-5EF7FABF8A10}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{731725F1-30F2-6A4B-BA7A-78EDBB729836}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{ECB9F1EA-3459-5648-A1B8-9C29AC48EBA4}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{7178D0E1-5415-654C-82B5-DB588F7C5FAA}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{39159DA8-3699-8645-9B12-14AF7991A223}"/>
+    <hyperlink ref="B21" r:id="rId12" xr:uid="{03A3D920-4A54-AC43-8C6E-2AFC319D6B81}"/>
+    <hyperlink ref="B22" r:id="rId13" xr:uid="{6E81AE93-821D-414E-8BFA-7799860B6B55}"/>
+    <hyperlink ref="B23" r:id="rId14" xr:uid="{3FA1BA1F-0F28-0942-A889-AE87B7A79293}"/>
+    <hyperlink ref="B24" r:id="rId15" xr:uid="{7E3AC2C7-5265-8941-A233-1A9726EEAB3C}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{DA8E374D-2123-2149-8A9E-1335B805CE87}"/>
+    <hyperlink ref="B31" r:id="rId17" xr:uid="{17614B46-6BD9-7D48-BCD6-01AE2C8B06EE}"/>
+    <hyperlink ref="B41" r:id="rId18" xr:uid="{D4CB035E-AEB2-C948-BF10-077653053ECE}"/>
+    <hyperlink ref="B47" r:id="rId19" xr:uid="{73BE516E-DCE1-2345-A83E-C6AAC0C552CC}"/>
+    <hyperlink ref="B48" r:id="rId20" xr:uid="{641D3868-9138-1740-9145-BD282797ADB5}"/>
+    <hyperlink ref="B49" r:id="rId21" xr:uid="{3600B468-8940-E548-87B5-2EF309550592}"/>
+    <hyperlink ref="B53" r:id="rId22" xr:uid="{EB67E00B-813F-C149-AE9D-E70C6BA2DE0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7658BC33-7935-E549-A34E-E44D9009131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E53279-0195-8E4D-AE45-EF70039DDA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>kategori</t>
   </si>
@@ -46,188 +46,203 @@
     <t>Wamil anak</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wNVcHhwUXJs</t>
-  </si>
-  <si>
-    <t>Gapura panca</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJbT28Yp0Ak</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/717671837581845</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@indozone.id/video/7502053081895685394</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@pikiranrakyat/video/7502233090362707218</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tribunkaltim.co/video/7502269294030441746</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-cwtUfUtnxE</t>
-  </si>
-  <si>
-    <t>Alokasi APBD</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Bisnis.com/posts/1096997849123177</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJaWF3qTUsr</t>
-  </si>
-  <si>
-    <t>Program KB</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@genfunofficial/video/7502272186359516424</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hakusi99/video/7502215713348767031</t>
-  </si>
-  <si>
-    <t>Pemeriksaan Kesehatan</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJa9KYeSTgS</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJbeV89zlio</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJbPkAGyecn</t>
-  </si>
-  <si>
-    <t>Ortu laporkan KDM</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJbV5rdPACY</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/iNews/posts/1144109187761146</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Jabodetabek24.info/posts/122130431438639792</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SINDOnews/posts/1110024754494720</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=r39jYEms2nA</t>
-  </si>
-  <si>
-    <t>Kritik program vasektomi</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJbjunaykFO</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJbtvWjpiYW</t>
-  </si>
-  <si>
-    <t>Dukungan ke wamil</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SINDOnews/posts/1110010344496161</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/QieeNoeyy/posts/9906849082707925</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RezaFachlevi/posts/10228770930524990</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RadarBandung/posts/1102802591865852</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RamlanEpendiHarahap/posts/705915735338636</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/677365894899401</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDediFanbase/posts/1001514345432669</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PikiranRakyat/posts/530161780168616</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TempoMedia/posts/1135655331934144</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ALFANFAUZI,Berasa/posts/1266945345057879</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AndryMaulana/posts/1760722268178481</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BeritaTerkini/posts/24310275718574199</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Fahrullrozzitwo/posts/1101900221956909</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/INFODEPOK/posts/982991013996981</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDang/posts/1617572112291585</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDang/posts/1859160271605979</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDang/posts/2864556267065376</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDang/posts/9697785220318403</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/lindalaraswati/posts/122216047562172506</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NurhasanNurhasan/posts/713420281249977</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PamanukanPanturaIstimewa/posts/1545585443028425</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RafsanjaniMAyim/posts/1099765401981840</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi/posts/122128883144746177</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TatarPasundan/posts/1269621671258957</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunSumsel/posts/1137972161689554</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunSumsel/posts/1138024815017622</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UmDaisha/posts/1205945391316176</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UmDaisha/posts/4044709239121751</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Mustanir.InfoMediaMuslim/posts/1267032012094225</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NUOnlineJabar/posts/1099813025503916</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NUOnlineJabar/posts/1099828488835703</t>
+    <t>Abdul Muhaimin kritik</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJdPSD2TDFG</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Inilahcom/posts/1101320008706568</t>
+  </si>
+  <si>
+    <t>Dicopot jadi Gubernur</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/774198038451199</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/774255411778795</t>
+  </si>
+  <si>
+    <t>Kritik hibah pesantren</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJeNJrJh104</t>
+  </si>
+  <si>
+    <t>Maarif institut kritik</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SINDOnews/posts/1110787267751802</t>
+  </si>
+  <si>
+    <t>NU kritik wamil</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iNews/posts/1144764941028904</t>
+  </si>
+  <si>
+    <t>Ono kritik KDM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunJabar.id/posts/1162512659249141</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kanguciill25/video/7502768245670268167</t>
+  </si>
+  <si>
+    <t>Ortu lapor KDM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunJabar.id/posts/3468094003326056</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunWOW.com/posts/1142235351277599</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@andriexecutive/video/7502682379123707191</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@infojabarjuara/video/7502725027482144018</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@metro_tv/video/7502694898617945360</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mulutnetizzen/video/7502708204275649847</t>
+  </si>
+  <si>
+    <t>Pelaranggaran efisiensi</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJdSMsYoc_k</t>
+  </si>
+  <si>
+    <t>Yusuf kritik KDM</t>
+  </si>
+  <si>
+    <t>Bonus persib</t>
+  </si>
+  <si>
+    <t>Respon dilaporkan ortu</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJdud84PVyw</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJduZxKt1uS</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@cianjurupdate.com/video/7502583671212346679</t>
+  </si>
+  <si>
+    <t>Wamil dewasa</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJdhQ8hTrx3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CIAMIS/posts/1112593154235538</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bebenhva/video/7502686051371076882</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@genfunofficial/video/7502779746573438215</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/posts/678022401500417</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KaySudiro/posts/3911293622418305</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/posts/678196288149695</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DedeRusdiana/posts/4029856563956733</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FairuzARafiqFans/posts/1202829478310458</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FanskeluargaRAffiahmaddanNagitaslavina/posts/1217014140017017</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Inserttodayupdate/posts/1260034952156495</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Inserttoday/posts/1265780021574030</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangIpey/posts/122208295562143100</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kianotigerwongfans/posts/1511632100254944</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KompasTV/posts/1352735366216402</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MakusMustitaskus/posts/1705248103689589</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MakusMustitaskus/posts/2038939473542768</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MakusMustitaskus/posts/2061679027658232</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MakusMustitaskus/posts/3634854183482541</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NezhaChanell/posts/2277540009369788</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MediaOnlineOpiniplus.com/posts/122128123064780940</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RCTV(RadarCirebonTelevisi)/posts/1114420894038481</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CecepRuhiat/posts/10002132766514358</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DonatusSeda/posts/122214335834268288</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GaleriSeputarIndonesia/posts/664525536361775</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NitaPurnamaHabibie/posts/1048348020598116</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SadaramSadaram/posts/1748656765686276</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ZakiaZakia/posts/2202153713576366</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ZakiaZakia/posts/2621242938071051</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ZakiaZakia/posts/666596242951873</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RoniParulianSiagian/posts/10061246797268576</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KompasTV/posts/1352693179553954</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PikiranRakyat/posts/531064400078354</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,6 +261,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -271,10 +293,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -593,7 +616,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,63 +637,63 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -678,354 +701,354 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,28 +1089,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C5A99DB9-32E0-9B4D-A19C-791CEC63D9E2}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{384CE132-9399-DB4A-92C3-8A9615A4B5FA}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{86E9B419-7DD7-BE4D-BC1E-A67C04C9B504}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{39D02255-AA54-FC4F-8916-4254513B4FFC}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{28B7364C-CBDA-4646-A410-AE2B0B1CF4A0}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{4BD4B8D8-9C23-1B43-B2EA-28E995A16949}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{FC67EF9C-45EF-F94F-8976-5EF7FABF8A10}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{731725F1-30F2-6A4B-BA7A-78EDBB729836}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{ECB9F1EA-3459-5648-A1B8-9C29AC48EBA4}"/>
-    <hyperlink ref="B19" r:id="rId10" xr:uid="{7178D0E1-5415-654C-82B5-DB588F7C5FAA}"/>
-    <hyperlink ref="B20" r:id="rId11" xr:uid="{39159DA8-3699-8645-9B12-14AF7991A223}"/>
-    <hyperlink ref="B21" r:id="rId12" xr:uid="{03A3D920-4A54-AC43-8C6E-2AFC319D6B81}"/>
-    <hyperlink ref="B22" r:id="rId13" xr:uid="{6E81AE93-821D-414E-8BFA-7799860B6B55}"/>
-    <hyperlink ref="B23" r:id="rId14" xr:uid="{3FA1BA1F-0F28-0942-A889-AE87B7A79293}"/>
-    <hyperlink ref="B24" r:id="rId15" xr:uid="{7E3AC2C7-5265-8941-A233-1A9726EEAB3C}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{DA8E374D-2123-2149-8A9E-1335B805CE87}"/>
-    <hyperlink ref="B31" r:id="rId17" xr:uid="{17614B46-6BD9-7D48-BCD6-01AE2C8B06EE}"/>
-    <hyperlink ref="B41" r:id="rId18" xr:uid="{D4CB035E-AEB2-C948-BF10-077653053ECE}"/>
-    <hyperlink ref="B47" r:id="rId19" xr:uid="{73BE516E-DCE1-2345-A83E-C6AAC0C552CC}"/>
-    <hyperlink ref="B48" r:id="rId20" xr:uid="{641D3868-9138-1740-9145-BD282797ADB5}"/>
-    <hyperlink ref="B49" r:id="rId21" xr:uid="{3600B468-8940-E548-87B5-2EF309550592}"/>
-    <hyperlink ref="B53" r:id="rId22" xr:uid="{EB67E00B-813F-C149-AE9D-E70C6BA2DE0F}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{740E83D0-B14D-FE4A-AB43-C66F5F57008F}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{6027D0C9-54B9-2F44-BE2E-79FE517B89F8}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{5F4D956B-FD5D-F94F-B551-3C9A185CF08A}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{733D1E5B-F5D0-0345-8C40-96650E591354}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{F0F43280-B4EB-B24E-8724-C351B1C85AB6}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{3DAC9011-3849-6641-91CF-254154072E53}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{8211689E-D7E1-C948-9A54-BBFC053AF55B}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{6325864E-71CC-5B43-86CD-B612EFA672A3}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{B53B4467-1C02-BB4D-9C30-3289862A68E6}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{20CAB0D2-23F6-144A-AAE8-AC53891DD475}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{2AE4CC74-DCE4-1840-AE57-1058A060F9B9}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{5CE4A80A-EE3B-3D40-8330-E6AE2A0E3F94}"/>
+    <hyperlink ref="B30" r:id="rId13" xr:uid="{C53BC9A0-5B84-2947-8A79-5FB4023634D9}"/>
+    <hyperlink ref="B31" r:id="rId14" xr:uid="{A0F935C1-2D55-634A-8796-7BC7D819909D}"/>
+    <hyperlink ref="B32" r:id="rId15" xr:uid="{51CA0991-FE3F-C54A-B357-AD48FBB9FB1D}"/>
+    <hyperlink ref="B33" r:id="rId16" xr:uid="{DDCC06B4-7870-4443-BF58-5D400A62209B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E53279-0195-8E4D-AE45-EF70039DDA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C22661-6A02-964E-BF36-EED335AA7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>kategori</t>
   </si>
@@ -46,196 +46,142 @@
     <t>Wamil anak</t>
   </si>
   <si>
-    <t>Abdul Muhaimin kritik</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJdPSD2TDFG</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Inilahcom/posts/1101320008706568</t>
-  </si>
-  <si>
-    <t>Dicopot jadi Gubernur</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/774198038451199</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/774255411778795</t>
-  </si>
-  <si>
-    <t>Kritik hibah pesantren</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJeNJrJh104</t>
-  </si>
-  <si>
-    <t>Maarif institut kritik</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SINDOnews/posts/1110787267751802</t>
-  </si>
-  <si>
-    <t>NU kritik wamil</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/iNews/posts/1144764941028904</t>
-  </si>
-  <si>
-    <t>Ono kritik KDM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunJabar.id/posts/1162512659249141</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kanguciill25/video/7502768245670268167</t>
-  </si>
-  <si>
-    <t>Ortu lapor KDM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunJabar.id/posts/3468094003326056</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunWOW.com/posts/1142235351277599</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@andriexecutive/video/7502682379123707191</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@infojabarjuara/video/7502725027482144018</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@metro_tv/video/7502694898617945360</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@mulutnetizzen/video/7502708204275649847</t>
-  </si>
-  <si>
-    <t>Pelaranggaran efisiensi</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJdSMsYoc_k</t>
-  </si>
-  <si>
-    <t>Yusuf kritik KDM</t>
-  </si>
-  <si>
-    <t>Bonus persib</t>
-  </si>
-  <si>
-    <t>Respon dilaporkan ortu</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJdud84PVyw</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJduZxKt1uS</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@cianjurupdate.com/video/7502583671212346679</t>
-  </si>
-  <si>
     <t>Wamil dewasa</t>
   </si>
   <si>
-    <t>https://instagram.com/p/DJdhQ8hTrx3</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CIAMIS/posts/1112593154235538</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@bebenhva/video/7502686051371076882</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@genfunofficial/video/7502779746573438215</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/678022401500417</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KaySudiro/posts/3911293622418305</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/678196288149695</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DedeRusdiana/posts/4029856563956733</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FairuzARafiqFans/posts/1202829478310458</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FanskeluargaRAffiahmaddanNagitaslavina/posts/1217014140017017</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Inserttodayupdate/posts/1260034952156495</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Inserttoday/posts/1265780021574030</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangIpey/posts/122208295562143100</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kianotigerwongfans/posts/1511632100254944</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KompasTV/posts/1352735366216402</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MakusMustitaskus/posts/1705248103689589</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MakusMustitaskus/posts/2038939473542768</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MakusMustitaskus/posts/2061679027658232</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MakusMustitaskus/posts/3634854183482541</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NezhaChanell/posts/2277540009369788</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MediaOnlineOpiniplus.com/posts/122128123064780940</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RCTV(RadarCirebonTelevisi)/posts/1114420894038481</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CecepRuhiat/posts/10002132766514358</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DonatusSeda/posts/122214335834268288</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GaleriSeputarIndonesia/posts/664525536361775</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NitaPurnamaHabibie/posts/1048348020598116</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SadaramSadaram/posts/1748656765686276</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ZakiaZakia/posts/2202153713576366</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ZakiaZakia/posts/2621242938071051</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ZakiaZakia/posts/666596242951873</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RoniParulianSiagian/posts/10061246797268576</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KompasTV/posts/1352693179553954</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PikiranRakyat/posts/531064400078354</t>
+    <t>Respon pelaporan</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Tribunnews.com/posts/1110856724423769</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tvOneNews/posts/718838217465207</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3629972238466187667</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3629989942899100244</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3629847117227156943</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@hariankompas/video/7503049147398819079</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jutaanwarga/video/7503039560285261111</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@pakar_it.com/video/7503139137558564104</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/detikcom/posts/1201415812027666</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3629878910302678528</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3630000832194054050</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@krisna.euy/video/7502987991292431621</t>
+  </si>
+  <si>
+    <t>Kritik ono</t>
+  </si>
+  <si>
+    <t>Kritik Rocky</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3630097580165837694</t>
+  </si>
+  <si>
+    <t>Kritik vasektomi</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/3629892526574303094</t>
+  </si>
+  <si>
+    <t>Lain bapak aing</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Pojokjabarcom/posts/1127184442759058</t>
+  </si>
+  <si>
+    <t>Pelanggaran HAM</t>
+  </si>
+  <si>
+    <t>Menham dukung</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tvOneNews/posts/718938924121803</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tvoneofficial/video/7503131018568879368</t>
+  </si>
+  <si>
+    <t>Pengelolaan APBD</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@toktok.2025/video/7503164271082179895</t>
+  </si>
+  <si>
+    <t>TvOne dukung</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tvOneNews/posts/718895110792851</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AlvannahChef/posts/1419858979024619</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InfoBurinyay/posts/122176968638288342</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UjAto/posts/1224977386296542</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UpdateNusantara/posts/734616672843733</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AhmadAhmad/posts/10003774049645874</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KamalMohammad/posts/23929737093317877</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KanzaCaca/posts/122210966360133874</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RandiZulfikar/posts/23976788221913469</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NusantaraCerdas/posts/721353510557754</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RidaLirih/posts/9754608481299618</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RezaFebriansyah/posts/3570003723304332</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RudyiSyafaatPohan/posts/9942154479171153</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SendyPribadi/posts/1409049780305482</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CobellaBoay/posts/1455815575400833</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangYadiMulyadi/posts/1765109174423148</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangYadiMulyadi/posts/2199101097214658</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuaraJabar/posts/1296890595771057</t>
   </si>
 </sst>
 </file>
@@ -616,7 +562,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,23 +583,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -661,395 +607,331 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
+      <c r="B34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
+      <c r="B36" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -1089,22 +971,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{740E83D0-B14D-FE4A-AB43-C66F5F57008F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{6027D0C9-54B9-2F44-BE2E-79FE517B89F8}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{5F4D956B-FD5D-F94F-B551-3C9A185CF08A}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{733D1E5B-F5D0-0345-8C40-96650E591354}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{F0F43280-B4EB-B24E-8724-C351B1C85AB6}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{3DAC9011-3849-6641-91CF-254154072E53}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{8211689E-D7E1-C948-9A54-BBFC053AF55B}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{6325864E-71CC-5B43-86CD-B612EFA672A3}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{B53B4467-1C02-BB4D-9C30-3289862A68E6}"/>
-    <hyperlink ref="B27" r:id="rId10" xr:uid="{20CAB0D2-23F6-144A-AAE8-AC53891DD475}"/>
-    <hyperlink ref="B28" r:id="rId11" xr:uid="{2AE4CC74-DCE4-1840-AE57-1058A060F9B9}"/>
-    <hyperlink ref="B29" r:id="rId12" xr:uid="{5CE4A80A-EE3B-3D40-8330-E6AE2A0E3F94}"/>
-    <hyperlink ref="B30" r:id="rId13" xr:uid="{C53BC9A0-5B84-2947-8A79-5FB4023634D9}"/>
-    <hyperlink ref="B31" r:id="rId14" xr:uid="{A0F935C1-2D55-634A-8796-7BC7D819909D}"/>
-    <hyperlink ref="B32" r:id="rId15" xr:uid="{51CA0991-FE3F-C54A-B357-AD48FBB9FB1D}"/>
-    <hyperlink ref="B33" r:id="rId16" xr:uid="{DDCC06B4-7870-4443-BF58-5D400A62209B}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F431F7F1-B28B-F64D-9C10-E0379FE87CB2}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{9736D454-68CC-2346-9C07-93A23832D99D}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{B277FEFE-37F7-4C49-9D0B-199AE188D556}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{D5F7F41C-788C-9F43-9440-56F95D44796A}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{23894218-2D40-9245-A69F-B98CA5E7396D}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{119943AD-C5DA-BB49-A5DC-254DD522B525}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{73A8F0CF-D38F-B14E-9E03-E6849EBBD618}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{5B97B79F-730C-854D-AB8D-47C49A232A32}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{2C31653A-AABE-A24E-B926-C5323D90BA98}"/>
+    <hyperlink ref="B21" r:id="rId10" xr:uid="{D4E97215-BDD4-9C4E-8E18-2122C8119A43}"/>
+    <hyperlink ref="B22" r:id="rId11" xr:uid="{03E438CE-7299-4948-AAF2-AD06D9A2F621}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{BFEE5863-2CCF-4149-A79E-082647C8BBC1}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{F3EC6D31-06FA-0147-9E70-3166B338E976}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{4E1449FC-EFEE-B64F-874C-F7C627021A55}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{864236DF-79A4-C441-83E2-40F0ACD2CAFF}"/>
+    <hyperlink ref="B34" r:id="rId16" xr:uid="{FFAF266D-51D5-D449-B9E2-4458AFF2CFF9}"/>
+    <hyperlink ref="B35" r:id="rId17" xr:uid="{463228C9-AAC2-4B48-8C1D-CEE6FB06828B}"/>
+    <hyperlink ref="B36" r:id="rId18" xr:uid="{7612DDE1-FF6D-B04D-8A3A-8DAADF075914}"/>
+    <hyperlink ref="B37" r:id="rId19" xr:uid="{53D5CFDD-0651-2C4A-9A5F-B04CDDD7644E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C22661-6A02-964E-BF36-EED335AA7E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889AE9F-BBE0-AC42-839F-3C56E38D5020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>kategori</t>
   </si>
@@ -46,142 +46,109 @@
     <t>Wamil anak</t>
   </si>
   <si>
-    <t>Wamil dewasa</t>
-  </si>
-  <si>
-    <t>Respon pelaporan</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Tribunnews.com/posts/1110856724423769</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/718838217465207</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3629972238466187667</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3629989942899100244</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3629847117227156943</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hariankompas/video/7503049147398819079</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@jutaanwarga/video/7503039560285261111</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@pakar_it.com/video/7503139137558564104</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/detikcom/posts/1201415812027666</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3629878910302678528</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3630000832194054050</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@krisna.euy/video/7502987991292431621</t>
-  </si>
-  <si>
-    <t>Kritik ono</t>
-  </si>
-  <si>
-    <t>Kritik Rocky</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3630097580165837694</t>
-  </si>
-  <si>
-    <t>Kritik vasektomi</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/3629892526574303094</t>
-  </si>
-  <si>
-    <t>Lain bapak aing</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Pojokjabarcom/posts/1127184442759058</t>
-  </si>
-  <si>
-    <t>Pelanggaran HAM</t>
-  </si>
-  <si>
-    <t>Menham dukung</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/718938924121803</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tvoneofficial/video/7503131018568879368</t>
-  </si>
-  <si>
-    <t>Pengelolaan APBD</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@toktok.2025/video/7503164271082179895</t>
-  </si>
-  <si>
-    <t>TvOne dukung</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/718895110792851</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AlvannahChef/posts/1419858979024619</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/InfoBurinyay/posts/122176968638288342</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UjAto/posts/1224977386296542</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UpdateNusantara/posts/734616672843733</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AhmadAhmad/posts/10003774049645874</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KamalMohammad/posts/23929737093317877</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KanzaCaca/posts/122210966360133874</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RandiZulfikar/posts/23976788221913469</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NusantaraCerdas/posts/721353510557754</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RidaLirih/posts/9754608481299618</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RezaFebriansyah/posts/3570003723304332</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RudyiSyafaatPohan/posts/9942154479171153</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SendyPribadi/posts/1409049780305482</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CobellaBoay/posts/1455815575400833</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangYadiMulyadi/posts/1765109174423148</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangYadiMulyadi/posts/2199101097214658</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SuaraJabar/posts/1296890595771057</t>
+    <t>Musibah amunisi</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@akuratco/video/7503526898190912823</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@cnnindonesia/video/7503541429759790356</t>
+  </si>
+  <si>
+    <t>Kak seto tinjau</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJjJOSrzMjT</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@antaramegapolitan/video/7503544669805071621</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kompastv.indonesia/video/7503440120893230344</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@pakar_it.com/video/7503317790388931848</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tribunkaltim.co/video/7503422676443106576</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJiBsDPzyXv</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJiYb9eSNZ9</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kompastv.indonesia/video/7503502835519196432</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tribunnewsindo/video/7503488344316316946</t>
+  </si>
+  <si>
+    <t>Jumlah anak tak sekolah</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com775929674944702</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com775935301610806</t>
+  </si>
+  <si>
+    <t>Ortu lapor KDM</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bekasiekspose/video/7503454620111490359</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@visi.news/video/7503426678673165573</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CA5ofWs35rQ</t>
+  </si>
+  <si>
+    <t>Respon Chico Hakim</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Liputan61303094381181846</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AsepOtongSr.673708815281611</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AwinS716652207397099</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BerjayaNegeriku1016540657331484</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MetroTV1258352295660683</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TehMayangReal706699648521374</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WisataDiGarut1007047508279691</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AgungCandra4134195976864357</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz679638128005511</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PikiranRakyat532110996640361</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuaraPerubahan1014358187560460</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi1672563826964804</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi4066016870354080</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LiusLimaa1370206267631841</t>
   </si>
 </sst>
 </file>
@@ -562,12 +529,12 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="75.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -583,106 +550,106 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -706,168 +673,144 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -971,25 +914,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{F431F7F1-B28B-F64D-9C10-E0379FE87CB2}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{9736D454-68CC-2346-9C07-93A23832D99D}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{B277FEFE-37F7-4C49-9D0B-199AE188D556}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{D5F7F41C-788C-9F43-9440-56F95D44796A}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{23894218-2D40-9245-A69F-B98CA5E7396D}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{119943AD-C5DA-BB49-A5DC-254DD522B525}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{73A8F0CF-D38F-B14E-9E03-E6849EBBD618}"/>
-    <hyperlink ref="B17" r:id="rId8" xr:uid="{5B97B79F-730C-854D-AB8D-47C49A232A32}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{2C31653A-AABE-A24E-B926-C5323D90BA98}"/>
-    <hyperlink ref="B21" r:id="rId10" xr:uid="{D4E97215-BDD4-9C4E-8E18-2122C8119A43}"/>
-    <hyperlink ref="B22" r:id="rId11" xr:uid="{03E438CE-7299-4948-AAF2-AD06D9A2F621}"/>
-    <hyperlink ref="B23" r:id="rId12" xr:uid="{BFEE5863-2CCF-4149-A79E-082647C8BBC1}"/>
-    <hyperlink ref="B26" r:id="rId13" xr:uid="{F3EC6D31-06FA-0147-9E70-3166B338E976}"/>
-    <hyperlink ref="B27" r:id="rId14" xr:uid="{4E1449FC-EFEE-B64F-874C-F7C627021A55}"/>
-    <hyperlink ref="B28" r:id="rId15" xr:uid="{864236DF-79A4-C441-83E2-40F0ACD2CAFF}"/>
-    <hyperlink ref="B34" r:id="rId16" xr:uid="{FFAF266D-51D5-D449-B9E2-4458AFF2CFF9}"/>
-    <hyperlink ref="B35" r:id="rId17" xr:uid="{463228C9-AAC2-4B48-8C1D-CEE6FB06828B}"/>
-    <hyperlink ref="B36" r:id="rId18" xr:uid="{7612DDE1-FF6D-B04D-8A3A-8DAADF075914}"/>
-    <hyperlink ref="B37" r:id="rId19" xr:uid="{53D5CFDD-0651-2C4A-9A5F-B04CDDD7644E}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{3E627B43-9445-894B-AC6D-28770B5B5FB9}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{2CA32908-F9C9-2742-AC85-E10118322003}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{CE2C99B2-313E-EF4A-9056-53AA7E713146}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{672D3E10-9F5B-B64E-B6BF-C238ABB239B4}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{3EC0D26B-9826-0240-85F1-5D550D14BD6D}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{CFE16CBA-74D7-3D40-9C0A-F682E9BB0BDD}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{2FCD590B-AD27-F94C-A9F1-6BEFCDE4DE7B}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{7D569755-E020-8041-B756-4EE1F92B6DC9}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{18417E75-D33A-B047-B117-EB9A453442FA}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{602E0E22-AAC9-7F43-9032-61FE8C907A54}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{CA16C227-366D-E249-A550-43C7E9216574}"/>
+    <hyperlink ref="B23" r:id="rId12" xr:uid="{1E394B07-4E0A-C942-ADAA-9CE9D6E29235}"/>
+    <hyperlink ref="B24" r:id="rId13" xr:uid="{E5354B93-4E21-CA46-87A3-7C8B415EAC97}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{51F6228F-118F-8B43-BD92-6B5087A21913}"/>
+    <hyperlink ref="B28" r:id="rId15" xr:uid="{8E34BE40-F143-BC46-A9CC-00659D566579}"/>
+    <hyperlink ref="B29" r:id="rId16" xr:uid="{7A6C5864-853B-5049-A057-2E056EB94BEA}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{95E7DACA-1BAC-B04F-BEE9-8DA21D498BFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889AE9F-BBE0-AC42-839F-3C56E38D5020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8560AA-0BAF-764F-87B8-4BFD2CBC3F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
     <t>Jumlah anak tak sekolah</t>
   </si>
   <si>
-    <t>https://www.facebook.com/TribunBengkulu.com775929674944702</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com775935301610806</t>
-  </si>
-  <si>
     <t>Ortu lapor KDM</t>
   </si>
   <si>
@@ -109,46 +103,52 @@
     <t>Respon Chico Hakim</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Liputan61303094381181846</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AsepOtongSr.673708815281611</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AwinS716652207397099</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BerjayaNegeriku1016540657331484</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MetroTV1258352295660683</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TehMayangReal706699648521374</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/WisataDiGarut1007047508279691</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AgungCandra4134195976864357</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz679638128005511</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PikiranRakyat532110996640361</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SuaraPerubahan1014358187560460</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi1672563826964804</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi4066016870354080</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/LiusLimaa1370206267631841</t>
+    <t>https://www.facebook.com/AsepOtongSr./673708815281611</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AwinS/716652207397099</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BerjayaNegeriku/1016540657331484</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MetroTV/1258352295660683</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TehMayangReal/706699648521374</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WisataDiGarut/1007047508279691</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AgungCandra/4134195976864357</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/679638128005511</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PikiranRakyat/532110996640361</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuaraPerubahan/1014358187560460</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/775929674944702</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/775935301610806</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi/1672563826964804</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi/4066016870354080</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Liputan/61303094381181846</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LiusLimaa/1370206267631841</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,48 +552,48 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -688,32 +688,32 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -729,62 +729,62 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -931,6 +931,19 @@
     <hyperlink ref="B28" r:id="rId15" xr:uid="{8E34BE40-F143-BC46-A9CC-00659D566579}"/>
     <hyperlink ref="B29" r:id="rId16" xr:uid="{7A6C5864-853B-5049-A057-2E056EB94BEA}"/>
     <hyperlink ref="B30" r:id="rId17" xr:uid="{95E7DACA-1BAC-B04F-BEE9-8DA21D498BFD}"/>
+    <hyperlink ref="B2" r:id="rId18" xr:uid="{45B28FB4-7535-6641-8A7E-D758B98FF81A}"/>
+    <hyperlink ref="B3" r:id="rId19" xr:uid="{40A2CCC4-E1BD-0440-B665-235A06573FF1}"/>
+    <hyperlink ref="B4" r:id="rId20" xr:uid="{E18353DE-C73F-5B44-B3A1-4F667E569DA8}"/>
+    <hyperlink ref="B5" r:id="rId21" xr:uid="{BF7907BD-0C02-0143-8D1E-9239408EBA21}"/>
+    <hyperlink ref="B6" r:id="rId22" xr:uid="{A92F1204-47BE-7A42-B432-F0E20D1C3445}"/>
+    <hyperlink ref="B7" r:id="rId23" xr:uid="{9DF49C76-680A-544E-A8A8-B28D0ED72A13}"/>
+    <hyperlink ref="B19" r:id="rId24" xr:uid="{B110AA4A-2390-6345-9A3F-F11722862774}"/>
+    <hyperlink ref="B20" r:id="rId25" xr:uid="{99A7225C-08DA-CF4B-8F21-FA6D8B190683}"/>
+    <hyperlink ref="B21" r:id="rId26" xr:uid="{E05125AD-9106-3041-B522-F733F469E66D}"/>
+    <hyperlink ref="B22" r:id="rId27" xr:uid="{E7607C2E-B433-064A-8F95-AF853A482BD4}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{84D3C700-61F3-6E4B-8650-444F8FAAC459}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{FEE05FE2-53EF-9B45-9ADF-4D2696351F87}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{7A97F39F-562E-774E-B1A2-264925C63290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8560AA-0BAF-764F-87B8-4BFD2CBC3F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427B6BC-4554-AE4C-9694-797FD038BBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>kategori</t>
   </si>
@@ -43,112 +43,64 @@
     <t>status</t>
   </si>
   <si>
-    <t>Wamil anak</t>
-  </si>
-  <si>
     <t>Musibah amunisi</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/@akuratco/video/7503526898190912823</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@cnnindonesia/video/7503541429759790356</t>
-  </si>
-  <si>
-    <t>Kak seto tinjau</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJjJOSrzMjT</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@antaramegapolitan/video/7503544669805071621</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kompastv.indonesia/video/7503440120893230344</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@pakar_it.com/video/7503317790388931848</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tribunkaltim.co/video/7503422676443106576</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJiBsDPzyXv</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJiYb9eSNZ9</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kompastv.indonesia/video/7503502835519196432</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tribunnewsindo/video/7503488344316316946</t>
-  </si>
-  <si>
     <t>Jumlah anak tak sekolah</t>
   </si>
   <si>
     <t>Ortu lapor KDM</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/@bekasiekspose/video/7503454620111490359</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@visi.news/video/7503426678673165573</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CA5ofWs35rQ</t>
-  </si>
-  <si>
     <t>Respon Chico Hakim</t>
   </si>
   <si>
-    <t>https://www.facebook.com/AsepOtongSr./673708815281611</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AwinS/716652207397099</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BerjayaNegeriku/1016540657331484</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MetroTV/1258352295660683</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TehMayangReal/706699648521374</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/WisataDiGarut/1007047508279691</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AgungCandra/4134195976864357</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/679638128005511</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PikiranRakyat/532110996640361</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SuaraPerubahan/1014358187560460</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/775929674944702</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/775935301610806</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi/1672563826964804</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi/4066016870354080</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Liputan/61303094381181846</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/LiusLimaa/1370206267631841</t>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/775929674944702</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/775935301610806</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Liputan6/posts/1303094381181846</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AsepOtongSr./posts/673708815281611</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AwinS/posts/716652207397099</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BerjayaNegeriku/posts/1016540657331484</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MetroTV/posts/1258352295660683</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TehMayangReal/posts/706699648521374</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WisataDiGarut/posts/1007047508279691</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AgungCandra/posts/4134195976864357</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/posts/679638128005511</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PikiranRakyat/posts/532110996640361</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuaraPerubahan/posts/1014358187560460</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi/posts/1672563826964804</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarPurwakasi/posts/4066016870354080</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LiusLimaa/posts/1370206267631841</t>
   </si>
 </sst>
 </file>
@@ -526,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,243 +502,187 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -794,43 +690,43 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
@@ -838,11 +734,11 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -850,100 +746,17 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{3E627B43-9445-894B-AC6D-28770B5B5FB9}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{2CA32908-F9C9-2742-AC85-E10118322003}"/>
-    <hyperlink ref="B10" r:id="rId3" xr:uid="{CE2C99B2-313E-EF4A-9056-53AA7E713146}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{672D3E10-9F5B-B64E-B6BF-C238ABB239B4}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{3EC0D26B-9826-0240-85F1-5D550D14BD6D}"/>
-    <hyperlink ref="B13" r:id="rId6" xr:uid="{CFE16CBA-74D7-3D40-9C0A-F682E9BB0BDD}"/>
-    <hyperlink ref="B14" r:id="rId7" xr:uid="{2FCD590B-AD27-F94C-A9F1-6BEFCDE4DE7B}"/>
-    <hyperlink ref="B15" r:id="rId8" xr:uid="{7D569755-E020-8041-B756-4EE1F92B6DC9}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{18417E75-D33A-B047-B117-EB9A453442FA}"/>
-    <hyperlink ref="B17" r:id="rId10" xr:uid="{602E0E22-AAC9-7F43-9032-61FE8C907A54}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{CA16C227-366D-E249-A550-43C7E9216574}"/>
-    <hyperlink ref="B23" r:id="rId12" xr:uid="{1E394B07-4E0A-C942-ADAA-9CE9D6E29235}"/>
-    <hyperlink ref="B24" r:id="rId13" xr:uid="{E5354B93-4E21-CA46-87A3-7C8B415EAC97}"/>
-    <hyperlink ref="B27" r:id="rId14" xr:uid="{51F6228F-118F-8B43-BD92-6B5087A21913}"/>
-    <hyperlink ref="B28" r:id="rId15" xr:uid="{8E34BE40-F143-BC46-A9CC-00659D566579}"/>
-    <hyperlink ref="B29" r:id="rId16" xr:uid="{7A6C5864-853B-5049-A057-2E056EB94BEA}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{95E7DACA-1BAC-B04F-BEE9-8DA21D498BFD}"/>
-    <hyperlink ref="B2" r:id="rId18" xr:uid="{45B28FB4-7535-6641-8A7E-D758B98FF81A}"/>
-    <hyperlink ref="B3" r:id="rId19" xr:uid="{40A2CCC4-E1BD-0440-B665-235A06573FF1}"/>
-    <hyperlink ref="B4" r:id="rId20" xr:uid="{E18353DE-C73F-5B44-B3A1-4F667E569DA8}"/>
-    <hyperlink ref="B5" r:id="rId21" xr:uid="{BF7907BD-0C02-0143-8D1E-9239408EBA21}"/>
-    <hyperlink ref="B6" r:id="rId22" xr:uid="{A92F1204-47BE-7A42-B432-F0E20D1C3445}"/>
-    <hyperlink ref="B7" r:id="rId23" xr:uid="{9DF49C76-680A-544E-A8A8-B28D0ED72A13}"/>
-    <hyperlink ref="B19" r:id="rId24" xr:uid="{B110AA4A-2390-6345-9A3F-F11722862774}"/>
-    <hyperlink ref="B20" r:id="rId25" xr:uid="{99A7225C-08DA-CF4B-8F21-FA6D8B190683}"/>
-    <hyperlink ref="B21" r:id="rId26" xr:uid="{E05125AD-9106-3041-B522-F733F469E66D}"/>
-    <hyperlink ref="B22" r:id="rId27" xr:uid="{E7607C2E-B433-064A-8F95-AF853A482BD4}"/>
-    <hyperlink ref="B25" r:id="rId28" xr:uid="{84D3C700-61F3-6E4B-8650-444F8FAAC459}"/>
-    <hyperlink ref="B26" r:id="rId29" xr:uid="{FEE05FE2-53EF-9B45-9ADF-4D2696351F87}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{7A97F39F-562E-774E-B1A2-264925C63290}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{B8B95724-E5A9-9D4A-A15A-785E78B25618}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{15E5A2E7-25B2-464D-8381-DE4854BF38E0}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{16E82E20-993A-9145-9601-9B02F8235604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427B6BC-4554-AE4C-9694-797FD038BBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD96A9-98D4-BD47-82C6-3387034E4122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>kategori</t>
   </si>
@@ -43,71 +43,167 @@
     <t>status</t>
   </si>
   <si>
-    <t>Musibah amunisi</t>
-  </si>
-  <si>
-    <t>Jumlah anak tak sekolah</t>
-  </si>
-  <si>
-    <t>Ortu lapor KDM</t>
-  </si>
-  <si>
-    <t>Respon Chico Hakim</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/775929674944702</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/775935301610806</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Liputan6/posts/1303094381181846</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AsepOtongSr./posts/673708815281611</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AwinS/posts/716652207397099</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BerjayaNegeriku/posts/1016540657331484</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MetroTV/posts/1258352295660683</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TehMayangReal/posts/706699648521374</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/WisataDiGarut/posts/1007047508279691</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AgungCandra/posts/4134195976864357</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/679638128005511</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PikiranRakyat/posts/532110996640361</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SuaraPerubahan/posts/1014358187560460</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi/posts/1672563826964804</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarPurwakasi/posts/4066016870354080</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/LiusLimaa/posts/1370206267631841</t>
+    <t>Insiden ledakan</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJmEzDKh4HU</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Apandi/posts/1631359240876059</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Apandi/posts/705764121906238</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iNews/posts/1146933950812003</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Solopos.com/posts/1127782269384764</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@abbad_4/video/7503893285778378002</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@blue.sky1353/video/7503792531461655863</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bro_fids14/video/7503836494650412295</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@cecesunandar163/video/7503803119441136903</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5uNA1v3KAns</t>
+  </si>
+  <si>
+    <t>Janji KDM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJlu0WyxK-t</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iNews/posts/1146944710810927</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iNews/posts/1147024557469609</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kabar_tvone/video/7503856949398752567</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ketua.rt83/video/7503793379386330373</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@metro_tv/video/7503786894086475028</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@timlimapeta/video/7503832931530640646</t>
+  </si>
+  <si>
+    <t>Satgas anti-premanisme</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Redaksi.Relung/posts/711543534731109</t>
+  </si>
+  <si>
+    <t>TPP</t>
+  </si>
+  <si>
+    <t>Jakarta wamil</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJkqZwUTB0Z</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJlZOgPzE3O</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Beritasatu/posts/1105996181562579</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Move/posts/741710424853741</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tvOneNews/posts/720194053996290</t>
+  </si>
+  <si>
+    <t>Media asing</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Pojokjabarcom/posts/1128677295943106</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@save.jabar/video/7503723530748448018</t>
+  </si>
+  <si>
+    <t>Wamil anak</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BenskicauBf/posts/122282304986021752</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KiyahBoruregar/posts/4076166122620551</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MediaSiberVisi.news/posts/666195693049329</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NurhasanNurhasan/posts/716428107615861</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TokoBukuNasution/posts/1233855388489683</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunMedan/posts/1112323980932225</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ImajinasiKreatif/posts/2561782470834625</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SatriaRizal/posts/3119642944870024</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SatriaRizal/posts/9791257827661213</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AldianDA/posts/742388375201012</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CianjurInisiatif/posts/122132413766406682</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CobellaBoay/posts/1457282521920805</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/EllyYathie/posts/1609432306413720</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FatimahAzZahra/posts/122218105058172288</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FatimahAzZahra/posts/122218105658172288</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDediFanbase/posts/1003975008519936</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LovitaIsyana/posts/1402368954450687</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NitaPurnamaHabibie/posts/1050144143751837</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuryaInsomniafans/posts/693190820165426</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AfidinSyafi'i/posts/1891576788360182</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,13 +222,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -158,11 +247,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,7 +569,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,24 +592,24 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -529,15 +617,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -545,204 +633,320 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
@@ -754,9 +958,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{B8B95724-E5A9-9D4A-A15A-785E78B25618}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{15E5A2E7-25B2-464D-8381-DE4854BF38E0}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{16E82E20-993A-9145-9601-9B02F8235604}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{713B4BC0-AA66-A34D-9628-2BD34572848B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D9A5DC3A-6BE7-E04A-8300-2DC4E9F23808}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{97B8E85C-17C8-844A-A445-0E59A5BF49EF}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{F97DE7DD-067A-4C46-8D4B-0613D11EDE20}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{38884970-26B7-894A-A9EB-4C08C1705BB8}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{E84D9AD7-165E-654F-B318-437C495C189A}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{937E9DAB-9971-E34B-897B-F5F54EDA676F}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{9B51950A-F012-1146-90BE-2F29F2D3868F}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{0E0C99AA-F4FC-0D49-9D16-AC06E5ED0D9D}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{CF9AB0A2-9901-4347-855C-024DC2909495}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{3B840B80-9BD0-774A-8581-3E2FA745A6A7}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{79AB8600-44AD-FA47-8284-6EDCBB23C37C}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{3958AD56-BD7E-C645-A8FD-E7258B3A4995}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{1CAEB7C8-F813-E448-8E2C-FAC4C87669B6}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{A678530F-D21D-6240-8C76-BCD1BE3F3742}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{251E0D48-E892-4249-B320-097739243F80}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{3CD5F250-6635-034C-B5E2-ABD4DF2B1DE0}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{236B04EE-E555-134D-907F-D1A23E837BF2}"/>
+    <hyperlink ref="B29" r:id="rId19" xr:uid="{0D6026C0-32C6-064F-9E47-8721BF467600}"/>
+    <hyperlink ref="B30" r:id="rId20" xr:uid="{139DBF67-885D-3445-999A-4592B5B19C54}"/>
+    <hyperlink ref="B32" r:id="rId21" xr:uid="{4B561FE1-7A2D-3743-9693-42397C63E159}"/>
+    <hyperlink ref="B40" r:id="rId22" xr:uid="{C8AFAF22-ECA5-F54A-906C-CC658123D763}"/>
+    <hyperlink ref="B43" r:id="rId23" xr:uid="{42FEC1BF-20A9-714A-949B-4428B9B2D3EB}"/>
+    <hyperlink ref="B44" r:id="rId24" xr:uid="{4484A882-9CC9-1B4E-8425-1D58E09326D8}"/>
+    <hyperlink ref="B45" r:id="rId25" xr:uid="{BEFCAAA2-CE87-E548-A716-C65FEE9C7D9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6D7012-A373-1A4C-819F-1FB9C4E9BD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA7259-ED0C-4341-9EE7-1B5758C69A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>kategori</t>
   </si>
@@ -43,118 +43,136 @@
     <t>status</t>
   </si>
   <si>
-    <t>Janji KDM</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJny7sRxt5a</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KejoraKejora/posts/9897825846929929</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KejoraKejora/posts/9987614004595289</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunMedan/posts/1112969777534312</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/720965867252442</t>
-  </si>
-  <si>
-    <t>Meutya hafid kunjungi</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJn6mYSSCr9</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJoLk0LhgEx</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJotUuUPkI8</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJoYY2pzixA</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@sasalsuci/video/7504150965801471248</t>
-  </si>
-  <si>
-    <t>Festival layanan publik</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AhmadMarzuqie/posts/672990795448863</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CirebonInfo/posts/3154171741408068</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IndramayuInfo/posts/1246987257434792</t>
-  </si>
-  <si>
-    <t>Jakarta tidak ikut KDM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/20detik/posts/1007735658225662</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DariaAqila/posts/1193388242802503</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/EchaAghniya/posts/1381363763184913</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/INFODUNIA/posts/122138659022614860</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/JakartaTerkini/posts/122186750582051091</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Liputan6/posts/1304349794389638</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MedcomID/posts/1167665122042165</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RiyandiBrian/posts/3465983553577758</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SefruitFakta/posts/122198264396144921</t>
-  </si>
-  <si>
-    <t>Mulyono</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Bibitlelecakimam89/posts/4177328265878345</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DewaSadewa/posts/30621013277497465</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KAP/posts/588123444314402</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SuaraRakyat/posts/1235681984587298</t>
-  </si>
-  <si>
-    <t>Maju presiden</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/680937714542219</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MeliHildaKusumaWati/posts/719874287366057</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/777519674785702</t>
-  </si>
-  <si>
     <t>Angka pengangguran</t>
   </si>
   <si>
-    <t>https://www.facebook.com/InfoNetizenOMG/posts/721328070468979</t>
+    <t>Meutya Hafid</t>
   </si>
   <si>
-    <t>https://www.facebook.com/MediaOnlineSundanese/posts/1014583820786219</t>
+    <t>https://instagram.com/p/DJq3nyQJ9g_</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJqE0FivQ-W</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJqqfi4ReVY</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JabarKita/posts/999580849046633</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kangdmchannel/video/7504500188086652215</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tvri_jabar/video/7504568167033851144</t>
+  </si>
+  <si>
+    <t>Nganjang ka Warga</t>
+  </si>
+  <si>
+    <t>Wamil anak</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJp5XTZTSRU</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@andara_tv_blogger_atb/video/7504549804228365574</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4kFiD2xbYJM</t>
+  </si>
+  <si>
+    <t>APDESI</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJqflL0Jy-d</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@humaspoldajbr/video/7504626818478132486</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lukmanbantarsari/video/7504556660829064466</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@pojoksatu.id/video/7504630148059122960</t>
+  </si>
+  <si>
+    <t>Ortu lapor KDM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJqYRWkzDIB</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kurni.garsel/video/7504569171468913926</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@yuyanti_chen/video/7504530871328705810</t>
+  </si>
+  <si>
+    <t>Jakarta tidak ikut</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@winnews_/video/7504660895046388998</t>
+  </si>
+  <si>
+    <t>Dilaporkan KPK</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KV08vb6cC7Q</t>
+  </si>
+  <si>
+    <t>Ono survei</t>
+  </si>
+  <si>
+    <t>Program KB</t>
+  </si>
+  <si>
+    <t>Dukung wamil anak</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tvOneNews/posts/721634333852262</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArulSepet/posts/24265862316348106</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MawardiAnggi/posts/24217082661227183</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SandriaReeyaa/posts/1209248040693722</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TehSussy/posts/1450476822801207</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LukmanImelPgbgn/posts/2524299381249304</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AmirulMu'mininKhalifah/posts/1088111043357900</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/INFOSajabar/posts/1597095660934645</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/INFOSajabar/posts/1734374987513095</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MiminSajabar/posts/1413326523417350</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NowIKnow/posts/122211553184088132</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RaraArtanti/posts/122219068046089125</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SitiHafsah/posts/1492543258389549</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AhmadZakaria/posts/3286950304781274</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuryaSwastikaBuana/posts/1371430883908381</t>
   </si>
 </sst>
 </file>
@@ -527,7 +545,7 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,47 +566,47 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -596,211 +614,219 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -5492,37 +5518,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D1FCF009-F820-E646-B80E-46096F3E835E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E055D0A3-364D-EE4D-B1B6-6BA227AC8B96}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{587EEDE5-AF41-F545-9A13-5A3512AF2DE6}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{D2D671C5-60FD-6849-BD04-B3C42FF1F164}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{096690BC-615B-2E48-8F20-274EF1E5020B}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{963573EA-5C99-B641-994E-DFC2EB79F82A}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{69B1A527-1E1C-1846-AC35-58F950FAD826}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{B7946A87-741D-D34C-8113-B90F277BF4DC}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{2F247078-4117-0342-A19F-03955CCB6412}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{D15E4E74-D113-EC46-975A-DC26CD5C6133}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{EAEDBA97-F825-1042-AF08-B8B4DC8708A9}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{958833DA-CDA5-6F49-A7D6-FCD1C983003A}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{1AA59873-CBD8-8F49-968A-D448318AA783}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{B0CC8AFF-136A-2F46-AEDF-492FBD81B301}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{0A3209E8-F73A-D948-977A-6E45A552FC80}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{088712E4-CCA7-9340-95AA-8FEB7FA90C58}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{F79D7E7F-6564-3F4E-9E44-8E918913DAA9}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{DF1171F3-9A0F-144F-8538-4D21F24F383C}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{3FA39091-D82F-7849-9AD3-DA58BD021877}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{050656C9-DB45-0940-8AE0-B3AC291FC30E}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{76F43C4C-2323-3B46-AE49-F4EA1CF0C56E}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{F41A55BF-D25E-8240-817B-30DA3652FAB7}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{3C7E45C3-EBC9-9C4D-B62B-4D9EFB2D0BBC}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{E01DC07E-BFAC-3A4E-A5BA-3224266D5D2B}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{F0CEFD0A-0061-3341-8D98-19A5AA5CA4A4}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{6731E5F7-AC5D-674E-BBCB-A260A6B09139}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{047C5D36-A662-D148-8C3E-FAA7FEFD1264}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{A45E2955-1FE0-BC49-A008-30F01AC25998}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{031DFEF1-96F2-2A4E-ADC0-826027DB0CA5}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{03991493-60A8-704E-8A78-C1D48E9972CA}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{78E62FDA-2B80-8040-908A-214FAC055606}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{ABB78B9C-96D0-EF42-9E44-A95D0316BE7E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{39E11DFB-6FB9-104D-A745-74BF267EE2F7}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4AB0867F-5DCD-D348-B2E1-A3CCFB3E3C8D}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6C78AA3A-D561-8041-AF53-1BA176A23D62}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{559031E4-76BD-D546-9EAB-E28D6FEE0BC0}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{8B1B8772-9B5F-6E42-B5D2-47477BF43AC7}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{155F2A75-D2A1-6444-8382-5D5C407AC335}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{F5D603E3-966D-F94E-89C3-36898E4FF805}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{CD5ED83A-57CF-FD43-87AD-5F07B07A80EF}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{5C42D981-8013-D145-ADF2-60C0BE9CAB2C}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{D53DB747-3949-714E-AC4A-C3FED09D026A}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{470A3A65-2D6F-8245-B89B-DFD332D007F9}"/>
+    <hyperlink ref="B25" r:id="rId13" xr:uid="{EAD8B97D-B203-A742-8B37-DC187953C379}"/>
+    <hyperlink ref="B26" r:id="rId14" xr:uid="{79141E42-245B-784E-8FF3-8778E71BF99E}"/>
+    <hyperlink ref="B27" r:id="rId15" xr:uid="{B572EC07-25C7-E94A-953F-57720EB49798}"/>
+    <hyperlink ref="B28" r:id="rId16" xr:uid="{9669D376-C171-9242-8533-33E70476CB65}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{2DE0FB59-65D3-494B-BAF0-C36551212C8F}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{396883C0-3579-4340-9FDA-86BEAE288DA3}"/>
+    <hyperlink ref="B34" r:id="rId19" xr:uid="{F597B9A8-F353-9344-87F6-2F28E60D7915}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA7259-ED0C-4341-9EE7-1B5758C69A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BCA5B8-2F04-724B-AF2A-6881B999D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
   <si>
     <t>kategori</t>
   </si>
@@ -46,133 +46,229 @@
     <t>Angka pengangguran</t>
   </si>
   <si>
-    <t>Meutya Hafid</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJq3nyQJ9g_</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJqE0FivQ-W</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJqqfi4ReVY</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/JabarKita/posts/999580849046633</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kangdmchannel/video/7504500188086652215</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tvri_jabar/video/7504568167033851144</t>
-  </si>
-  <si>
-    <t>Nganjang ka Warga</t>
-  </si>
-  <si>
-    <t>Wamil anak</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJp5XTZTSRU</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@andara_tv_blogger_atb/video/7504549804228365574</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4kFiD2xbYJM</t>
-  </si>
-  <si>
-    <t>APDESI</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJqflL0Jy-d</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@humaspoldajbr/video/7504626818478132486</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@lukmanbantarsari/video/7504556660829064466</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@pojoksatu.id/video/7504630148059122960</t>
-  </si>
-  <si>
-    <t>Ortu lapor KDM</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJqYRWkzDIB</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kurni.garsel/video/7504569171468913926</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@yuyanti_chen/video/7504530871328705810</t>
-  </si>
-  <si>
-    <t>Jakarta tidak ikut</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@winnews_/video/7504660895046388998</t>
-  </si>
-  <si>
-    <t>Dilaporkan KPK</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KV08vb6cC7Q</t>
-  </si>
-  <si>
-    <t>Ono survei</t>
-  </si>
-  <si>
     <t>Program KB</t>
   </si>
   <si>
-    <t>Dukung wamil anak</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/tvOneNews/posts/721634333852262</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArulSepet/posts/24265862316348106</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MawardiAnggi/posts/24217082661227183</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SandriaReeyaa/posts/1209248040693722</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TehSussy/posts/1450476822801207</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/LukmanImelPgbgn/posts/2524299381249304</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AmirulMu'mininKhalifah/posts/1088111043357900</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/INFOSajabar/posts/1597095660934645</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/INFOSajabar/posts/1734374987513095</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MiminSajabar/posts/1413326523417350</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NowIKnow/posts/122211553184088132</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RaraArtanti/posts/122219068046089125</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SitiHafsah/posts/1492543258389549</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AhmadZakaria/posts/3286950304781274</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SuryaSwastikaBuana/posts/1371430883908381</t>
+    <t>Koperasi desa</t>
+  </si>
+  <si>
+    <t>tiktok.com/@dedi.mulyadi.life/video/7504934579846008069</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kecamatan_nagreg/video/7504857995013115191</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kliknusae/video/7504806515996429573</t>
+  </si>
+  <si>
+    <t>tiktok.com/@pelintasjalan/video/7504864080679701765</t>
+  </si>
+  <si>
+    <t>KPR</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJs2ntmTHG4</t>
+  </si>
+  <si>
+    <t>tiktok.com/@supian.suri/video/7504880137188543750</t>
+  </si>
+  <si>
+    <t>Dilecekhkan KDM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJs7u_iTg3x</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJszXw-TYHm</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJtA_s2sCsB</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/antaranews.com/posts/1122997776536396</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/detikcom/posts/1205301911639056</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Faridz/posts/1236230321462153</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jabodetabek24.info/posts/122131518602639792</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1188976349925144</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MERDEKA.com/posts/1113061557519786</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SukabumiUpdate.com/posts/703157578932979</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SukabumiUpdate.com/posts/703184128930324</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/778951581309178</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunJabar.id/posts/1167209108779496</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunJabar.id/posts/1167213442112396</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/VIVA.co.id/posts/1121365293360013</t>
+  </si>
+  <si>
+    <t>tiktok.com/@aa.dedy.mulyadi/video/7504989644413504773</t>
+  </si>
+  <si>
+    <t>tiktok.com/@arinanews25/video/7504938678540586295</t>
+  </si>
+  <si>
+    <t>tiktok.com/@dana_irawan/video/7504967461121559814</t>
+  </si>
+  <si>
+    <t>tiktok.com/@diarypolitic/video/7504970953986690310</t>
+  </si>
+  <si>
+    <t>tiktok.com/@feedgramindo4/video/7505013002198863109</t>
+  </si>
+  <si>
+    <t>tiktok.com/@genfunofficial/video/7504940169410186503</t>
+  </si>
+  <si>
+    <t>tiktok.com/@hadejabarofficial/video/7504931245021809926</t>
+  </si>
+  <si>
+    <t>tiktok.com/@informasi_karawang/video/7504976836384869639</t>
+  </si>
+  <si>
+    <t>tiktok.com/@jabarekspres_id/video/7504883679060118791</t>
+  </si>
+  <si>
+    <t>tiktok.com/@jabarekspres/video/7504927155235638535</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kisikisi200/video/7505017829922475269</t>
+  </si>
+  <si>
+    <t>tiktok.com/@klik.fakta/video/7504951394588249350</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kompascom/video/7504992916687949061</t>
+  </si>
+  <si>
+    <t>tiktok.com/@laporan8.id/video/7505020492026301712</t>
+  </si>
+  <si>
+    <t>tiktok.com/@merdekacom/video/7504959986116644104</t>
+  </si>
+  <si>
+    <t>tiktok.com/@official.ntv/video/7505021877312752914</t>
+  </si>
+  <si>
+    <t>tiktok.com/@pasundanekspres_news/video/7504999379279826231</t>
+  </si>
+  <si>
+    <t>tiktok.com/@pojoksatu.id/video/7505016984325655809</t>
+  </si>
+  <si>
+    <t>tiktok.com/@sukabumiupdate.com/video/7504951489194954000</t>
+  </si>
+  <si>
+    <t>tiktok.com/@tribunpriangan.com/video/7505010268427029768</t>
+  </si>
+  <si>
+    <t>tiktok.com/@tribunpriangan.com/video/7505015190161919240</t>
+  </si>
+  <si>
+    <t>Jakarta tidak ikut KDM</t>
+  </si>
+  <si>
+    <t>Gibran sindir</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kompastv.indonesia/video/7504895309391121672</t>
+  </si>
+  <si>
+    <t>Kritik Ono</t>
+  </si>
+  <si>
+    <t>tiktok.com/@calonmayit823/video/7504818905911708983</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJsQ3fHBHp_</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AhmadZakaria/posts/3288567234619581</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CikarangViral/posts/726124826652978</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/EviiNuraeni/posts/1226390089496802</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/IDNTimesVideo/posts/1090130119809929</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/IndramayuInfo/posts/1248696347263883</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InformasiKeren/posts/122148106484466124</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JatengTerkini/posts/122139176252674709</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KanaSumpena/posts/122129473466740256</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangHarisMardiyana/posts/1244609457265708</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KeluargaGarutSelatan/posts/1238760634926252</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KompasTV/posts/1356666942489911</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NurawiyahFatdev/posts/2201899693659291</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NurawiyahFatdev/posts/4069772446645189</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PikiranRakyat/posts/535026996348761</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RudiYana/posts/1490462718842512</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SiiCabaiRawit/posts/3783048548493492</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunMedan/posts/1114210920743531</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UpdateNusantara/posts/738626805776053</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AUjangBadruZaman/posts/1948714515902865</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FaktaGeorge/posts/677736995228372</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AriskaQanita/posts/1769633270638462</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KeluargaRenggana/posts/1205178937733241</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TriyonoBinIsmanto/posts/10228665299522977</t>
   </si>
 </sst>
 </file>
@@ -545,11 +641,12 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,407 +663,547 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-    </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
@@ -5518,25 +5755,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ABB78B9C-96D0-EF42-9E44-A95D0316BE7E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{39E11DFB-6FB9-104D-A745-74BF267EE2F7}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4AB0867F-5DCD-D348-B2E1-A3CCFB3E3C8D}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{6C78AA3A-D561-8041-AF53-1BA176A23D62}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{559031E4-76BD-D546-9EAB-E28D6FEE0BC0}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{8B1B8772-9B5F-6E42-B5D2-47477BF43AC7}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{155F2A75-D2A1-6444-8382-5D5C407AC335}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{F5D603E3-966D-F94E-89C3-36898E4FF805}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{CD5ED83A-57CF-FD43-87AD-5F07B07A80EF}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{5C42D981-8013-D145-ADF2-60C0BE9CAB2C}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{D53DB747-3949-714E-AC4A-C3FED09D026A}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{470A3A65-2D6F-8245-B89B-DFD332D007F9}"/>
-    <hyperlink ref="B25" r:id="rId13" xr:uid="{EAD8B97D-B203-A742-8B37-DC187953C379}"/>
-    <hyperlink ref="B26" r:id="rId14" xr:uid="{79141E42-245B-784E-8FF3-8778E71BF99E}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{B572EC07-25C7-E94A-953F-57720EB49798}"/>
-    <hyperlink ref="B28" r:id="rId16" xr:uid="{9669D376-C171-9242-8533-33E70476CB65}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{2DE0FB59-65D3-494B-BAF0-C36551212C8F}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{396883C0-3579-4340-9FDA-86BEAE288DA3}"/>
-    <hyperlink ref="B34" r:id="rId19" xr:uid="{F597B9A8-F353-9344-87F6-2F28E60D7915}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://tiktok.com/@dedi.mulyadi.life/video/7504934579846008069" xr:uid="{3CC199B5-F822-CA4E-8833-64E0C2D6D8E0}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://tiktok.com/@kecamatan_nagreg/video/7504857995013115191" xr:uid="{B4CD8DE4-BC53-4F44-AF51-4DB75EB7DD47}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://tiktok.com/@kliknusae/video/7504806515996429573" xr:uid="{3C925A08-590B-7445-8547-2B4AF8171784}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://tiktok.com/@pelintasjalan/video/7504864080679701765" xr:uid="{7E4DCADF-F3E2-8B4C-955E-57E6DA22BE5B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{0FEF5862-918F-2C48-83A7-466DE3FE4ED9}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://tiktok.com/@supian.suri/video/7504880137188543750" xr:uid="{8A1AA663-DBF9-4B42-9811-CF16BF3CED32}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{4F882930-5496-4D47-8E8F-68DC371F6F21}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{2565B100-227A-334C-B763-339638531B47}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{0C226210-0E6F-CB4B-ADAD-C74A9C29F70F}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{98EB5870-E9FD-8D4C-B07A-FC82E8FFBA71}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{B874CF4D-92D2-9948-9410-AD235E382E4F}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{13012213-290B-BC45-9387-0525A95DA3B9}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{A34E2C59-DFBD-B849-A371-9F9112BF0AD7}"/>
+    <hyperlink ref="B26" r:id="rId14" xr:uid="{DA5DAE06-CEF9-EE4E-9DB1-692E02E2D275}"/>
+    <hyperlink ref="B27" r:id="rId15" xr:uid="{48BB466C-FDEB-DB49-9344-50B58C7D4A63}"/>
+    <hyperlink ref="B33" r:id="rId16" xr:uid="{A023D99E-A643-044D-9BBD-AE1E9974AEBA}"/>
+    <hyperlink ref="B34" r:id="rId17" xr:uid="{F6476A7F-ED79-FF42-B0E2-7F12CFBF82FE}"/>
+    <hyperlink ref="B36" r:id="rId18" xr:uid="{5648032C-A6C8-5940-978F-5BE0787D7BC4}"/>
+    <hyperlink ref="B37" r:id="rId19" xr:uid="{03A4B389-6066-BF4C-B6BB-16655F2CC619}"/>
+    <hyperlink ref="B38" r:id="rId20" xr:uid="{291B6E34-6EEC-9243-9CE6-806DF207CD2B}"/>
+    <hyperlink ref="B40" r:id="rId21" xr:uid="{0AD71908-6C9D-E243-9ED1-81D5D49C6A21}"/>
+    <hyperlink ref="B41" r:id="rId22" display="http://tiktok.com/@aa.dedy.mulyadi/video/7504989644413504773" xr:uid="{6E18F76E-E299-8A46-8D6E-6AAD12525660}"/>
+    <hyperlink ref="B42" r:id="rId23" display="http://tiktok.com/@arinanews25/video/7504938678540586295" xr:uid="{D7BE9018-808E-6642-A466-86394401A1D3}"/>
+    <hyperlink ref="B43" r:id="rId24" display="http://tiktok.com/@dana_irawan/video/7504967461121559814" xr:uid="{6FAD473A-89A9-0046-A6B7-3921D63C2E8C}"/>
+    <hyperlink ref="B44" r:id="rId25" display="http://tiktok.com/@diarypolitic/video/7504970953986690310" xr:uid="{1DAD8240-2359-8E45-8F97-1194F7380067}"/>
+    <hyperlink ref="B45" r:id="rId26" display="http://tiktok.com/@feedgramindo4/video/7505013002198863109" xr:uid="{2726E7E5-E504-AB49-B248-672B6EF4C7DC}"/>
+    <hyperlink ref="B46" r:id="rId27" display="http://tiktok.com/@genfunofficial/video/7504940169410186503" xr:uid="{5578A471-95E5-8C48-9BD1-EDFCC92B6CE4}"/>
+    <hyperlink ref="B47" r:id="rId28" display="http://tiktok.com/@hadejabarofficial/video/7504931245021809926" xr:uid="{0B194EFC-7F1C-9E4F-A454-7E25BED7CE70}"/>
+    <hyperlink ref="B48" r:id="rId29" display="http://tiktok.com/@informasi_karawang/video/7504976836384869639" xr:uid="{868C7E10-9DDB-824E-A917-ADE35EDDCA32}"/>
+    <hyperlink ref="B49" r:id="rId30" display="http://tiktok.com/@jabarekspres_id/video/7504883679060118791" xr:uid="{FA596690-C049-FB41-B4AA-B5D89340C4A6}"/>
+    <hyperlink ref="B50" r:id="rId31" display="http://tiktok.com/@jabarekspres/video/7504927155235638535" xr:uid="{5FC0C9DA-4437-DA4B-9CBB-2CE98A3B6F3C}"/>
+    <hyperlink ref="B51" r:id="rId32" display="http://tiktok.com/@kisikisi200/video/7505017829922475269" xr:uid="{CCCE3549-3C6E-E341-BC06-12381BB511BD}"/>
+    <hyperlink ref="B52" r:id="rId33" display="http://tiktok.com/@klik.fakta/video/7504951394588249350" xr:uid="{0CAD35FE-7253-4644-BD5B-90C0F518D667}"/>
+    <hyperlink ref="B53" r:id="rId34" display="http://tiktok.com/@kompascom/video/7504992916687949061" xr:uid="{4A6E5212-13E5-A344-9A80-7D8EC0FEF111}"/>
+    <hyperlink ref="B54" r:id="rId35" display="http://tiktok.com/@laporan8.id/video/7505020492026301712" xr:uid="{95A98446-85FB-FC4A-9A2C-5C989B429439}"/>
+    <hyperlink ref="B55" r:id="rId36" display="http://tiktok.com/@merdekacom/video/7504959986116644104" xr:uid="{D24531EB-93CA-0048-B7B3-029E4EDBE3A1}"/>
+    <hyperlink ref="B56" r:id="rId37" display="http://tiktok.com/@official.ntv/video/7505021877312752914" xr:uid="{22A9774D-CAE6-544D-A4B9-256CA2A5C5E9}"/>
+    <hyperlink ref="B57" r:id="rId38" display="http://tiktok.com/@pasundanekspres_news/video/7504999379279826231" xr:uid="{C2DE4D22-3C0C-034B-BC40-A40EB788062D}"/>
+    <hyperlink ref="B58" r:id="rId39" display="http://tiktok.com/@pojoksatu.id/video/7505016984325655809" xr:uid="{EFCC7F35-7CA3-BD44-875D-2314E929015A}"/>
+    <hyperlink ref="B59" r:id="rId40" display="http://tiktok.com/@sukabumiupdate.com/video/7504951489194954000" xr:uid="{392C5EFD-1F36-5040-BC48-B31D08A41611}"/>
+    <hyperlink ref="B60" r:id="rId41" display="http://tiktok.com/@tribunpriangan.com/video/7505010268427029768" xr:uid="{15DBC594-28A0-1F4B-B9C0-4C2BCA31DB2E}"/>
+    <hyperlink ref="B61" r:id="rId42" display="http://tiktok.com/@tribunpriangan.com/video/7505015190161919240" xr:uid="{D223C346-7B7B-0047-B80F-6ACD1C3E71F1}"/>
+    <hyperlink ref="B67" r:id="rId43" display="http://tiktok.com/@kompastv.indonesia/video/7504895309391121672" xr:uid="{FC772CA4-7BB9-3A49-901A-1E710409A758}"/>
+    <hyperlink ref="B68" r:id="rId44" display="http://tiktok.com/@calonmayit823/video/7504818905911708983" xr:uid="{FA690BFE-F257-2049-99DE-6A36F678C6E2}"/>
+    <hyperlink ref="B69" r:id="rId45" xr:uid="{6E928440-A50C-654D-9B1F-B3665ACDAE7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BCA5B8-2F04-724B-AF2A-6881B999D9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C21C73-23C5-9442-8283-84421BE32FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>kategori</t>
   </si>
@@ -46,236 +46,200 @@
     <t>Angka pengangguran</t>
   </si>
   <si>
-    <t>Program KB</t>
-  </si>
-  <si>
-    <t>Koperasi desa</t>
-  </si>
-  <si>
-    <t>tiktok.com/@dedi.mulyadi.life/video/7504934579846008069</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kecamatan_nagreg/video/7504857995013115191</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kliknusae/video/7504806515996429573</t>
-  </si>
-  <si>
-    <t>tiktok.com/@pelintasjalan/video/7504864080679701765</t>
-  </si>
-  <si>
-    <t>KPR</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJs2ntmTHG4</t>
-  </si>
-  <si>
-    <t>tiktok.com/@supian.suri/video/7504880137188543750</t>
-  </si>
-  <si>
-    <t>Dilecekhkan KDM</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJs7u_iTg3x</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJszXw-TYHm</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJtA_s2sCsB</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/antaranews.com/posts/1122997776536396</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/detikcom/posts/1205301911639056</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Faridz/posts/1236230321462153</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Jabodetabek24.info/posts/122131518602639792</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1188976349925144</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MERDEKA.com/posts/1113061557519786</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SukabumiUpdate.com/posts/703157578932979</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SukabumiUpdate.com/posts/703184128930324</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/778951581309178</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunJabar.id/posts/1167209108779496</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunJabar.id/posts/1167213442112396</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/VIVA.co.id/posts/1121365293360013</t>
-  </si>
-  <si>
-    <t>tiktok.com/@aa.dedy.mulyadi/video/7504989644413504773</t>
-  </si>
-  <si>
-    <t>tiktok.com/@arinanews25/video/7504938678540586295</t>
-  </si>
-  <si>
-    <t>tiktok.com/@dana_irawan/video/7504967461121559814</t>
-  </si>
-  <si>
-    <t>tiktok.com/@diarypolitic/video/7504970953986690310</t>
-  </si>
-  <si>
-    <t>tiktok.com/@feedgramindo4/video/7505013002198863109</t>
-  </si>
-  <si>
-    <t>tiktok.com/@genfunofficial/video/7504940169410186503</t>
-  </si>
-  <si>
-    <t>tiktok.com/@hadejabarofficial/video/7504931245021809926</t>
-  </si>
-  <si>
-    <t>tiktok.com/@informasi_karawang/video/7504976836384869639</t>
-  </si>
-  <si>
-    <t>tiktok.com/@jabarekspres_id/video/7504883679060118791</t>
-  </si>
-  <si>
-    <t>tiktok.com/@jabarekspres/video/7504927155235638535</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kisikisi200/video/7505017829922475269</t>
-  </si>
-  <si>
-    <t>tiktok.com/@klik.fakta/video/7504951394588249350</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kompascom/video/7504992916687949061</t>
-  </si>
-  <si>
-    <t>tiktok.com/@laporan8.id/video/7505020492026301712</t>
-  </si>
-  <si>
-    <t>tiktok.com/@merdekacom/video/7504959986116644104</t>
-  </si>
-  <si>
-    <t>tiktok.com/@official.ntv/video/7505021877312752914</t>
-  </si>
-  <si>
-    <t>tiktok.com/@pasundanekspres_news/video/7504999379279826231</t>
-  </si>
-  <si>
-    <t>tiktok.com/@pojoksatu.id/video/7505016984325655809</t>
-  </si>
-  <si>
-    <t>tiktok.com/@sukabumiupdate.com/video/7504951489194954000</t>
-  </si>
-  <si>
-    <t>tiktok.com/@tribunpriangan.com/video/7505010268427029768</t>
-  </si>
-  <si>
-    <t>tiktok.com/@tribunpriangan.com/video/7505015190161919240</t>
-  </si>
-  <si>
-    <t>Jakarta tidak ikut KDM</t>
-  </si>
-  <si>
-    <t>Gibran sindir</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kompastv.indonesia/video/7504895309391121672</t>
-  </si>
-  <si>
-    <t>Kritik Ono</t>
-  </si>
-  <si>
-    <t>tiktok.com/@calonmayit823/video/7504818905911708983</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJsQ3fHBHp_</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AhmadZakaria/posts/3288567234619581</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CikarangViral/posts/726124826652978</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/EviiNuraeni/posts/1226390089496802</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IDNTimesVideo/posts/1090130119809929</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IndramayuInfo/posts/1248696347263883</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/InformasiKeren/posts/122148106484466124</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/JatengTerkini/posts/122139176252674709</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KanaSumpena/posts/122129473466740256</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangHarisMardiyana/posts/1244609457265708</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KeluargaGarutSelatan/posts/1238760634926252</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KompasTV/posts/1356666942489911</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NurawiyahFatdev/posts/2201899693659291</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NurawiyahFatdev/posts/4069772446645189</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PikiranRakyat/posts/535026996348761</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RudiYana/posts/1490462718842512</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SiiCabaiRawit/posts/3783048548493492</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunMedan/posts/1114210920743531</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UpdateNusantara/posts/738626805776053</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AUjangBadruZaman/posts/1948714515902865</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FaktaGeorge/posts/677736995228372</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AriskaQanita/posts/1769633270638462</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KeluargaRenggana/posts/1205178937733241</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TriyonoBinIsmanto/posts/10228665299522977</t>
+    <t>Premanisme</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KdjMohammadDanielWasilata/posts/1028295215949317</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KompasTV/posts/1357174252439180</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MisarSuryanaChannel/posts/2132639233866143</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MisarSuryanaChannel/posts/9767879036665105</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PelintasJalan/posts/1183787336878889</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Pojokbogor/posts/1162640432575064</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TiaraMaharani/posts/24083699234587336</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TiaraMaharani/posts/2618846261638543</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TiaraMaharani/posts/4053977014861640</t>
+  </si>
+  <si>
+    <t>Respon KDM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJwAboUS6I3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/posts/682941997675124</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/779947314542938</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@edigondrong25/video/7505373649549970694</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@save.jabar/video/7505252153431395602</t>
+  </si>
+  <si>
+    <t>Dukung KDM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJvexW1yb5-</t>
+  </si>
+  <si>
+    <t>Dukung wamil anak</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArisvaraReal/posts/122135982458747493</t>
+  </si>
+  <si>
+    <t>Penghargaan Kinerja Ekonomi</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@taman_taman_surga/video/7504970283296574738</t>
+  </si>
+  <si>
+    <t>Silakan PDIP Walkout</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@smartpipeul77/video/7505148092736670982</t>
+  </si>
+  <si>
+    <t>PDIP Walkout</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJvb7KbpdFL</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/A'uvi/posts/2549736308701977</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AhmadALiImron/posts/2913138165513882</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ALFANFAUZI,Berasa/posts/1272859044466509</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AzahraFachion/posts/3476392742536839</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangBerita/posts/1609562223068672</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1189576959865083</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1189834306506015</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1189915439831235</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MetroTV/posts/1261653448663901</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NandangMulyanaMultikreasigrafika/posts/3124687664348801</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SekilasPeristiwa/posts/648035848234921</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SukabumiUpdate.com/posts/703888518859885</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SyahriAbdullah/posts/3878616675722095</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunMedan/posts/1115077103990246</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@antaramegapolitan/video/7505236529359457541</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bisniscom/video/7505256095045209362</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@detikjabar/video/7505334672143125778</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fgq_abq/video/7505237285508631813</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@heritage.2159/video/7505296752010956038</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@inilahcom/video/7505244980202605832</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@intiporia_/video/7505358408493616392</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lampungnews.id/video/7505215516630420791</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lingkardotnews/video/7505269905009184006</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mangadul21/video/7505185867418356998</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@prianganinsider/video/7505198815285202181</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@spiritbinokasih/video/7505211525783702792</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tahwarta/video/7505276237665864968</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@taman_taman_surga/video/7505088475327204626</t>
+  </si>
+  <si>
+    <t>Kritik wamil anak</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DokterGamal/posts/1244352193728080</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDediFanbase/posts/1006647304919373</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@gamal.albinsaid/video/7505353015382215954</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FransiusK./posts/122210880788141201</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@infoupdate08/video/7505298653897182471</t>
+  </si>
+  <si>
+    <t>Jakarta tidak ikut</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangRosmana/posts/2700558470134903</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MawarMerah/posts/1737616756877813</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +258,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -319,10 +290,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,7 +613,7 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,103 +635,103 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -767,443 +739,387 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
@@ -5755,51 +5671,56 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://tiktok.com/@dedi.mulyadi.life/video/7504934579846008069" xr:uid="{3CC199B5-F822-CA4E-8833-64E0C2D6D8E0}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://tiktok.com/@kecamatan_nagreg/video/7504857995013115191" xr:uid="{B4CD8DE4-BC53-4F44-AF51-4DB75EB7DD47}"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://tiktok.com/@kliknusae/video/7504806515996429573" xr:uid="{3C925A08-590B-7445-8547-2B4AF8171784}"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://tiktok.com/@pelintasjalan/video/7504864080679701765" xr:uid="{7E4DCADF-F3E2-8B4C-955E-57E6DA22BE5B}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{0FEF5862-918F-2C48-83A7-466DE3FE4ED9}"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://tiktok.com/@supian.suri/video/7504880137188543750" xr:uid="{8A1AA663-DBF9-4B42-9811-CF16BF3CED32}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{4F882930-5496-4D47-8E8F-68DC371F6F21}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{2565B100-227A-334C-B763-339638531B47}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{0C226210-0E6F-CB4B-ADAD-C74A9C29F70F}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{98EB5870-E9FD-8D4C-B07A-FC82E8FFBA71}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{B874CF4D-92D2-9948-9410-AD235E382E4F}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{13012213-290B-BC45-9387-0525A95DA3B9}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{A34E2C59-DFBD-B849-A371-9F9112BF0AD7}"/>
-    <hyperlink ref="B26" r:id="rId14" xr:uid="{DA5DAE06-CEF9-EE4E-9DB1-692E02E2D275}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{48BB466C-FDEB-DB49-9344-50B58C7D4A63}"/>
-    <hyperlink ref="B33" r:id="rId16" xr:uid="{A023D99E-A643-044D-9BBD-AE1E9974AEBA}"/>
-    <hyperlink ref="B34" r:id="rId17" xr:uid="{F6476A7F-ED79-FF42-B0E2-7F12CFBF82FE}"/>
-    <hyperlink ref="B36" r:id="rId18" xr:uid="{5648032C-A6C8-5940-978F-5BE0787D7BC4}"/>
-    <hyperlink ref="B37" r:id="rId19" xr:uid="{03A4B389-6066-BF4C-B6BB-16655F2CC619}"/>
-    <hyperlink ref="B38" r:id="rId20" xr:uid="{291B6E34-6EEC-9243-9CE6-806DF207CD2B}"/>
-    <hyperlink ref="B40" r:id="rId21" xr:uid="{0AD71908-6C9D-E243-9ED1-81D5D49C6A21}"/>
-    <hyperlink ref="B41" r:id="rId22" display="http://tiktok.com/@aa.dedy.mulyadi/video/7504989644413504773" xr:uid="{6E18F76E-E299-8A46-8D6E-6AAD12525660}"/>
-    <hyperlink ref="B42" r:id="rId23" display="http://tiktok.com/@arinanews25/video/7504938678540586295" xr:uid="{D7BE9018-808E-6642-A466-86394401A1D3}"/>
-    <hyperlink ref="B43" r:id="rId24" display="http://tiktok.com/@dana_irawan/video/7504967461121559814" xr:uid="{6FAD473A-89A9-0046-A6B7-3921D63C2E8C}"/>
-    <hyperlink ref="B44" r:id="rId25" display="http://tiktok.com/@diarypolitic/video/7504970953986690310" xr:uid="{1DAD8240-2359-8E45-8F97-1194F7380067}"/>
-    <hyperlink ref="B45" r:id="rId26" display="http://tiktok.com/@feedgramindo4/video/7505013002198863109" xr:uid="{2726E7E5-E504-AB49-B248-672B6EF4C7DC}"/>
-    <hyperlink ref="B46" r:id="rId27" display="http://tiktok.com/@genfunofficial/video/7504940169410186503" xr:uid="{5578A471-95E5-8C48-9BD1-EDFCC92B6CE4}"/>
-    <hyperlink ref="B47" r:id="rId28" display="http://tiktok.com/@hadejabarofficial/video/7504931245021809926" xr:uid="{0B194EFC-7F1C-9E4F-A454-7E25BED7CE70}"/>
-    <hyperlink ref="B48" r:id="rId29" display="http://tiktok.com/@informasi_karawang/video/7504976836384869639" xr:uid="{868C7E10-9DDB-824E-A917-ADE35EDDCA32}"/>
-    <hyperlink ref="B49" r:id="rId30" display="http://tiktok.com/@jabarekspres_id/video/7504883679060118791" xr:uid="{FA596690-C049-FB41-B4AA-B5D89340C4A6}"/>
-    <hyperlink ref="B50" r:id="rId31" display="http://tiktok.com/@jabarekspres/video/7504927155235638535" xr:uid="{5FC0C9DA-4437-DA4B-9CBB-2CE98A3B6F3C}"/>
-    <hyperlink ref="B51" r:id="rId32" display="http://tiktok.com/@kisikisi200/video/7505017829922475269" xr:uid="{CCCE3549-3C6E-E341-BC06-12381BB511BD}"/>
-    <hyperlink ref="B52" r:id="rId33" display="http://tiktok.com/@klik.fakta/video/7504951394588249350" xr:uid="{0CAD35FE-7253-4644-BD5B-90C0F518D667}"/>
-    <hyperlink ref="B53" r:id="rId34" display="http://tiktok.com/@kompascom/video/7504992916687949061" xr:uid="{4A6E5212-13E5-A344-9A80-7D8EC0FEF111}"/>
-    <hyperlink ref="B54" r:id="rId35" display="http://tiktok.com/@laporan8.id/video/7505020492026301712" xr:uid="{95A98446-85FB-FC4A-9A2C-5C989B429439}"/>
-    <hyperlink ref="B55" r:id="rId36" display="http://tiktok.com/@merdekacom/video/7504959986116644104" xr:uid="{D24531EB-93CA-0048-B7B3-029E4EDBE3A1}"/>
-    <hyperlink ref="B56" r:id="rId37" display="http://tiktok.com/@official.ntv/video/7505021877312752914" xr:uid="{22A9774D-CAE6-544D-A4B9-256CA2A5C5E9}"/>
-    <hyperlink ref="B57" r:id="rId38" display="http://tiktok.com/@pasundanekspres_news/video/7504999379279826231" xr:uid="{C2DE4D22-3C0C-034B-BC40-A40EB788062D}"/>
-    <hyperlink ref="B58" r:id="rId39" display="http://tiktok.com/@pojoksatu.id/video/7505016984325655809" xr:uid="{EFCC7F35-7CA3-BD44-875D-2314E929015A}"/>
-    <hyperlink ref="B59" r:id="rId40" display="http://tiktok.com/@sukabumiupdate.com/video/7504951489194954000" xr:uid="{392C5EFD-1F36-5040-BC48-B31D08A41611}"/>
-    <hyperlink ref="B60" r:id="rId41" display="http://tiktok.com/@tribunpriangan.com/video/7505010268427029768" xr:uid="{15DBC594-28A0-1F4B-B9C0-4C2BCA31DB2E}"/>
-    <hyperlink ref="B61" r:id="rId42" display="http://tiktok.com/@tribunpriangan.com/video/7505015190161919240" xr:uid="{D223C346-7B7B-0047-B80F-6ACD1C3E71F1}"/>
-    <hyperlink ref="B67" r:id="rId43" display="http://tiktok.com/@kompastv.indonesia/video/7504895309391121672" xr:uid="{FC772CA4-7BB9-3A49-901A-1E710409A758}"/>
-    <hyperlink ref="B68" r:id="rId44" display="http://tiktok.com/@calonmayit823/video/7504818905911708983" xr:uid="{FA690BFE-F257-2049-99DE-6A36F678C6E2}"/>
-    <hyperlink ref="B69" r:id="rId45" xr:uid="{6E928440-A50C-654D-9B1F-B3665ACDAE7E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8A112528-7560-0747-BFDA-08D82140DC1B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF2F04C6-421F-8746-8769-BDD3AAA99FFC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1445585A-2DE8-094E-91AD-363E5489EC4A}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{05D623C0-516E-F04F-896B-BE9E4E6A95B0}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{1E67A4BB-C0F1-8C4A-96D6-06DD556D91D5}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{75F045C9-FA9C-2846-AD9B-FE7B61192E25}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{9EE1E4D7-6E71-3C4F-8AC6-72714AAA9CA8}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{3313C2CF-267C-2043-A160-6FAB4680107A}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{A8BE3A13-FBF0-3445-B0E7-2A51D1414A8E}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{6236FC17-4F87-9C4D-AEC9-8141FC7E417E}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{22F85E17-327F-E240-A31E-EB26021663DE}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{68EE84B2-2780-0F4D-A55D-F11CC4D034CD}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{8D300381-0FC4-B642-90AC-663ACC1C25E1}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{9BC69C34-C6B6-E242-B87E-A7C59A5CBBC6}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{44B85FF8-7E20-4B49-A468-B3B35343CB6F}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{99A41EE4-42C8-8F45-B84D-7850D12B87D7}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{4452FE8B-B553-914A-8EAC-A6645372B246}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{CFFA6F66-892D-B143-92DC-12D20AAF2CED}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{F3DA47C5-A2A6-9D44-9F0C-0A7D9106FF5D}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{ECCEB11C-53EC-EE4D-B42D-5A1A3002726D}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{7AABDE74-3CA6-494A-9347-F9C818425E64}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{6480B707-801F-F34F-8758-6052A52EC3C0}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{7943490A-9C81-1D45-B663-8F37CF424B36}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{E511BF0B-79F7-AC45-95F0-2116285102B9}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{1559E013-E579-704D-873E-7C1F35BE0FDC}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{DB04B6DA-97B7-7148-AB77-014F5E79AE92}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{9F7F6D87-7C47-0A44-BCF9-0F7A8B3FFBBB}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{938F9DB1-E070-B845-B2DB-D1129CFEB826}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{4943C987-69EC-4D4F-94E9-B064BADB9EA5}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{3A8A918A-E6E0-824B-B5EB-1AB695EE33CD}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{6F7EED90-B5E0-1349-AAE9-1C5751875763}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{8163D509-460C-A24B-A3C0-5FF2F8EC1C40}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{D5C11AE9-586B-8F43-92D8-DF5BBCFFF01E}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{90D72754-4192-B44A-B093-03B99DFFD7D1}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{73B9B9B8-6913-7E41-98D6-892F29CDB708}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{C1C03F57-3F32-E84B-86EF-6F925A5FF259}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{014FA2F8-8F15-A644-A8A3-D82D87022AEB}"/>
+    <hyperlink ref="B43" r:id="rId38" xr:uid="{873A57A7-F8E2-AB41-9EBA-79EBE872ABD1}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{7A96B917-F44A-5841-84B3-EB7EBBF5EF05}"/>
+    <hyperlink ref="B45" r:id="rId40" xr:uid="{6ACD666E-D533-3949-B806-ED8D92F2BF83}"/>
+    <hyperlink ref="B46" r:id="rId41" xr:uid="{9745BF2C-8ABF-BF48-97C2-7B52832DA168}"/>
+    <hyperlink ref="B47" r:id="rId42" xr:uid="{028DB74C-2B6C-624C-9957-DC9B0DE2DC0D}"/>
+    <hyperlink ref="B48" r:id="rId43" xr:uid="{853C192F-3269-EF45-8D4D-DFB87E6A0744}"/>
+    <hyperlink ref="B49" r:id="rId44" xr:uid="{81568AB0-CBD8-DC4A-B2DB-3D280CE543B4}"/>
+    <hyperlink ref="B50" r:id="rId45" xr:uid="{868E9CF4-44F0-C94F-8C42-15AB69E6CDF8}"/>
+    <hyperlink ref="B51" r:id="rId46" xr:uid="{87D45F4F-F142-6D40-B146-D922308652DA}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{E473D56B-F02B-AF49-AA37-1B020472B146}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{380A51C2-5497-D540-B3B3-0765D6539E40}"/>
+    <hyperlink ref="B54" r:id="rId49" xr:uid="{8488A0D9-C22D-0A45-B627-A5EB18E25445}"/>
+    <hyperlink ref="B55" r:id="rId50" xr:uid="{E9110BB3-756C-2341-B7E1-87B932ED0D32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C21C73-23C5-9442-8283-84421BE32FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381B9B4-DDCA-C843-8CC4-8A2DCE40626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>kategori</t>
   </si>
@@ -43,203 +43,128 @@
     <t>status</t>
   </si>
   <si>
-    <t>Angka pengangguran</t>
-  </si>
-  <si>
     <t>Premanisme</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KdjMohammadDanielWasilata/posts/1028295215949317</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KompasTV/posts/1357174252439180</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MisarSuryanaChannel/posts/2132639233866143</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MisarSuryanaChannel/posts/9767879036665105</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PelintasJalan/posts/1183787336878889</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Pojokbogor/posts/1162640432575064</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TiaraMaharani/posts/24083699234587336</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TiaraMaharani/posts/2618846261638543</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TiaraMaharani/posts/4053977014861640</t>
-  </si>
-  <si>
-    <t>Respon KDM</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJwAboUS6I3</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/682941997675124</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/779947314542938</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@edigondrong25/video/7505373649549970694</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@save.jabar/video/7505252153431395602</t>
-  </si>
-  <si>
-    <t>Dukung KDM</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJvexW1yb5-</t>
-  </si>
-  <si>
-    <t>Dukung wamil anak</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArisvaraReal/posts/122135982458747493</t>
-  </si>
-  <si>
-    <t>Penghargaan Kinerja Ekonomi</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@taman_taman_surga/video/7504970283296574738</t>
-  </si>
-  <si>
-    <t>Silakan PDIP Walkout</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@smartpipeul77/video/7505148092736670982</t>
-  </si>
-  <si>
-    <t>PDIP Walkout</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJvb7KbpdFL</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/A'uvi/posts/2549736308701977</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AhmadALiImron/posts/2913138165513882</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ALFANFAUZI,Berasa/posts/1272859044466509</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AzahraFachion/posts/3476392742536839</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangBerita/posts/1609562223068672</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1189576959865083</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1189834306506015</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1189915439831235</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MetroTV/posts/1261653448663901</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NandangMulyanaMultikreasigrafika/posts/3124687664348801</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SekilasPeristiwa/posts/648035848234921</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SukabumiUpdate.com/posts/703888518859885</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SyahriAbdullah/posts/3878616675722095</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunMedan/posts/1115077103990246</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@antaramegapolitan/video/7505236529359457541</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@bisniscom/video/7505256095045209362</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@detikjabar/video/7505334672143125778</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@fgq_abq/video/7505237285508631813</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@heritage.2159/video/7505296752010956038</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@inilahcom/video/7505244980202605832</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@intiporia_/video/7505358408493616392</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@lampungnews.id/video/7505215516630420791</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@lingkardotnews/video/7505269905009184006</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@mangadul21/video/7505185867418356998</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@prianganinsider/video/7505198815285202181</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@spiritbinokasih/video/7505211525783702792</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tahwarta/video/7505276237665864968</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@taman_taman_surga/video/7505088475327204626</t>
-  </si>
-  <si>
-    <t>Kritik wamil anak</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DokterGamal/posts/1244352193728080</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDediFanbase/posts/1006647304919373</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@gamal.albinsaid/video/7505353015382215954</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FransiusK./posts/122210880788141201</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@infoupdate08/video/7505298653897182471</t>
   </si>
   <si>
     <t>Jakarta tidak ikut</t>
   </si>
   <si>
-    <t>https://www.facebook.com/KangRosmana/posts/2700558470134903</t>
+    <t>https://instagram.com/p/DJx3Gd1hYhd</t>
   </si>
   <si>
-    <t>https://www.facebook.com/MawarMerah/posts/1737616756877813</t>
+    <t>https://instagram.com/p/DJx5y4lzFwL</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJyZ3Zwvvdf</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@alikaputrifaisal18/video/7505474708859653431</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kdmgubernurbaik/video/7505674657815710983</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qJWD9LMeS0</t>
+  </si>
+  <si>
+    <t>Respon ke KPAI</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@cecesunandar163/video/7505755452194557191</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1rPOILprbfw</t>
+  </si>
+  <si>
+    <t>PDIP walkout</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1190580069764772</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBengkulu.com/posts/780591577811845</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunWOW.com/posts/1147957634038704</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@asepkumerot/video/7505472127223581970</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@hello.ihsan/video/7505694152089177349</t>
+  </si>
+  <si>
+    <t>KPAI kritik</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJySaoet3QH</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kumparan/video/7505567944957627654</t>
+  </si>
+  <si>
+    <t>JPPI kritik wamil</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DJyiF3MTOIE</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Syahril/posts/1918137175658117</t>
+  </si>
+  <si>
+    <t>Jateng tidak ikut</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Murianews.com/posts/1147467807397485</t>
+  </si>
+  <si>
+    <t>KDM otoriter</t>
+  </si>
+  <si>
+    <t>Mulyono</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DivisiHumasPolri/posts/1116317383872041</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ErwinKustiawan/posts/24238785592394927</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunBali/posts/1651434405358408</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MetroTV/posts/1262432525252660</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangHarisMardiyana/posts/1246145233778797</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDediFanbase/posts/1007324281518342</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ArdhiArdhaz/posts/683234717645852</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/LintasKudus/posts/1261396225382940</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AMinJabbar/posts/2566460467033492</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AMinJabbar/posts/2898688973651013</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AhmadinejadSosialPower/posts/122209806938151898</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AlvannahChef/posts/1423760198634497</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,13 +183,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -290,11 +208,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,7 +530,7 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B55"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +552,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -643,7 +560,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -651,7 +568,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -659,82 +576,82 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,328 +659,232 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -5671,56 +5492,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8A112528-7560-0747-BFDA-08D82140DC1B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF2F04C6-421F-8746-8769-BDD3AAA99FFC}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{1445585A-2DE8-094E-91AD-363E5489EC4A}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{05D623C0-516E-F04F-896B-BE9E4E6A95B0}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{1E67A4BB-C0F1-8C4A-96D6-06DD556D91D5}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{75F045C9-FA9C-2846-AD9B-FE7B61192E25}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9EE1E4D7-6E71-3C4F-8AC6-72714AAA9CA8}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{3313C2CF-267C-2043-A160-6FAB4680107A}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{A8BE3A13-FBF0-3445-B0E7-2A51D1414A8E}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{6236FC17-4F87-9C4D-AEC9-8141FC7E417E}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{22F85E17-327F-E240-A31E-EB26021663DE}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{68EE84B2-2780-0F4D-A55D-F11CC4D034CD}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{8D300381-0FC4-B642-90AC-663ACC1C25E1}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{9BC69C34-C6B6-E242-B87E-A7C59A5CBBC6}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{44B85FF8-7E20-4B49-A468-B3B35343CB6F}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{99A41EE4-42C8-8F45-B84D-7850D12B87D7}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{4452FE8B-B553-914A-8EAC-A6645372B246}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{CFFA6F66-892D-B143-92DC-12D20AAF2CED}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{F3DA47C5-A2A6-9D44-9F0C-0A7D9106FF5D}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{ECCEB11C-53EC-EE4D-B42D-5A1A3002726D}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{7AABDE74-3CA6-494A-9347-F9C818425E64}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{6480B707-801F-F34F-8758-6052A52EC3C0}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{7943490A-9C81-1D45-B663-8F37CF424B36}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{E511BF0B-79F7-AC45-95F0-2116285102B9}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{1559E013-E579-704D-873E-7C1F35BE0FDC}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{DB04B6DA-97B7-7148-AB77-014F5E79AE92}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{9F7F6D87-7C47-0A44-BCF9-0F7A8B3FFBBB}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{938F9DB1-E070-B845-B2DB-D1129CFEB826}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{4943C987-69EC-4D4F-94E9-B064BADB9EA5}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{3A8A918A-E6E0-824B-B5EB-1AB695EE33CD}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{6F7EED90-B5E0-1349-AAE9-1C5751875763}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{8163D509-460C-A24B-A3C0-5FF2F8EC1C40}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{D5C11AE9-586B-8F43-92D8-DF5BBCFFF01E}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{90D72754-4192-B44A-B093-03B99DFFD7D1}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{73B9B9B8-6913-7E41-98D6-892F29CDB708}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{C1C03F57-3F32-E84B-86EF-6F925A5FF259}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{014FA2F8-8F15-A644-A8A3-D82D87022AEB}"/>
-    <hyperlink ref="B43" r:id="rId38" xr:uid="{873A57A7-F8E2-AB41-9EBA-79EBE872ABD1}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{7A96B917-F44A-5841-84B3-EB7EBBF5EF05}"/>
-    <hyperlink ref="B45" r:id="rId40" xr:uid="{6ACD666E-D533-3949-B806-ED8D92F2BF83}"/>
-    <hyperlink ref="B46" r:id="rId41" xr:uid="{9745BF2C-8ABF-BF48-97C2-7B52832DA168}"/>
-    <hyperlink ref="B47" r:id="rId42" xr:uid="{028DB74C-2B6C-624C-9957-DC9B0DE2DC0D}"/>
-    <hyperlink ref="B48" r:id="rId43" xr:uid="{853C192F-3269-EF45-8D4D-DFB87E6A0744}"/>
-    <hyperlink ref="B49" r:id="rId44" xr:uid="{81568AB0-CBD8-DC4A-B2DB-3D280CE543B4}"/>
-    <hyperlink ref="B50" r:id="rId45" xr:uid="{868E9CF4-44F0-C94F-8C42-15AB69E6CDF8}"/>
-    <hyperlink ref="B51" r:id="rId46" xr:uid="{87D45F4F-F142-6D40-B146-D922308652DA}"/>
-    <hyperlink ref="B52" r:id="rId47" xr:uid="{E473D56B-F02B-AF49-AA37-1B020472B146}"/>
-    <hyperlink ref="B53" r:id="rId48" xr:uid="{380A51C2-5497-D540-B3B3-0765D6539E40}"/>
-    <hyperlink ref="B54" r:id="rId49" xr:uid="{8488A0D9-C22D-0A45-B627-A5EB18E25445}"/>
-    <hyperlink ref="B55" r:id="rId50" xr:uid="{E9110BB3-756C-2341-B7E1-87B932ED0D32}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D68210AC-CE4B-9C4B-A6F1-5F8E15EDC922}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D0055E72-F296-424F-BCED-1080206BC568}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{AD9AE783-4DC2-C644-B840-A501D56FCAD1}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{ADE995FB-5716-3F49-B1E9-06C8BC80CC5F}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{B257F7CC-CB4D-C94B-AAAF-AB9924B6812D}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{17A445B7-FE0C-F647-9C3B-0D8185752905}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{547AB871-04D3-C141-B54C-CEBAC130A90F}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{031EE2CC-42EE-BA4D-A9E0-E826A91CE939}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{1A7CAE00-B72C-B24A-B492-9EDEDFDB88D1}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{2314587D-6C8B-3546-AA9C-93151B5127FF}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{AEFAEADC-2C8F-6645-A72A-CAF168CA98A4}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{6E3B91AF-91CD-BF47-949E-5C1167F586C8}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{29D735D0-0B31-344E-9665-DBAD9D63C94D}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{43DD3C9A-CC3D-3741-A06B-D1BD5DCF296F}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{F2D9C9D0-C453-8E49-BA92-BADED07294E3}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{D768F569-A0DC-AF4D-8F45-E4ACDC63F8B0}"/>
+    <hyperlink ref="B25" r:id="rId17" xr:uid="{737542C0-4E56-F94D-8530-9DB2972CB7CD}"/>
+    <hyperlink ref="B27" r:id="rId18" xr:uid="{B2D3426A-B984-014A-BC0A-841D81B79359}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1381B9B4-DDCA-C843-8CC4-8A2DCE40626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3050078-047E-424B-8F7E-CB522D3A5A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>kategori</t>
   </si>
@@ -43,121 +43,283 @@
     <t>status</t>
   </si>
   <si>
-    <t>Premanisme</t>
-  </si>
-  <si>
-    <t>Jakarta tidak ikut</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJx3Gd1hYhd</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJx5y4lzFwL</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJyZ3Zwvvdf</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@alikaputrifaisal18/video/7505474708859653431</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kdmgubernurbaik/video/7505674657815710983</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5qJWD9LMeS0</t>
-  </si>
-  <si>
-    <t>Respon ke KPAI</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@cecesunandar163/video/7505755452194557191</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1rPOILprbfw</t>
-  </si>
-  <si>
-    <t>PDIP walkout</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1190580069764772</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBengkulu.com/posts/780591577811845</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunWOW.com/posts/1147957634038704</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@asepkumerot/video/7505472127223581970</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hello.ihsan/video/7505694152089177349</t>
-  </si>
-  <si>
-    <t>KPAI kritik</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJySaoet3QH</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kumparan/video/7505567944957627654</t>
-  </si>
-  <si>
-    <t>JPPI kritik wamil</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DJyiF3MTOIE</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Syahril/posts/1918137175658117</t>
-  </si>
-  <si>
-    <t>Jateng tidak ikut</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Murianews.com/posts/1147467807397485</t>
-  </si>
-  <si>
-    <t>KDM otoriter</t>
-  </si>
-  <si>
-    <t>Mulyono</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/DivisiHumasPolri/posts/1116317383872041</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ErwinKustiawan/posts/24238785592394927</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunBali/posts/1651434405358408</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MetroTV/posts/1262432525252660</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangHarisMardiyana/posts/1246145233778797</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KangDediFanbase/posts/1007324281518342</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ArdhiArdhaz/posts/683234717645852</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/LintasKudus/posts/1261396225382940</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AMinJabbar/posts/2566460467033492</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AMinJabbar/posts/2898688973651013</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AhmadinejadSosialPower/posts/122209806938151898</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AlvannahChef/posts/1423760198634497</t>
+    <t>Dampak wamil anak</t>
+  </si>
+  <si>
+    <t>Kritik Yusuf</t>
+  </si>
+  <si>
+    <t>KDM beri hadiah</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@bangtumpal/video/7508351352536321286</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@bangzeys3/video/7508266421982366984</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@dulur.kdm/video/7508230092313627912</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@fokusindosiar/video/7508252673704070420</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@fraksipppdprdjabar/video/7508177070153813253</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@genfunofficial/video/7508339196965375240</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@gerindra_purwakarta/video/7508293075341413639</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@ilham.nurhata/video/7508342253304253714</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@indramayu.info/video/7508331124326796549</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@infojabar_official/video/7508210015749098782</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@jimak63/video/7508177202278681862</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@kabarbursacom/video/7508273110840331525</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@kihurip165/video/7508287039251418424</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@kompastv.indonesia/video/7508377945455480081</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@konteninspiratif007/video/7508320717553863957</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@lapak.acc.bogor/video/7508080197908909330</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@laporan8.id/video/7508268068066299152</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@mersidazhafiraataya/video/7508243048434896145</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@musicdiaryplaylist/video/7508091853384797446</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@musicdiaryplaylist/video/7508092446912367877</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@papazuh/video/7508243940420652306</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@pelintasjalan/video/7508195733133167928</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@pembantulangit/video/7508338691413183752</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@ridhoilahi1341974/video/7508243768856907013</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@rt_alfian/video/7508217377541147912</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@shabir_alfatih/video/7508308751569472774</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@tonny.prem/video/7508316857527454994</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DKEd0nRT--V</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DKEv0jkTd2G</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BOLA.COM/posts/1280634696759120</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JPNN.com/posts/1124659283037163</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1yo-lnmEEkM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=38ukl_8TZOA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4UnvvD7-Kc4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5DoCYUd-C7s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=azmZ1PaMiDo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C5xwOZItV1A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Co1CQ0jOJ5I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dvx4JUEpeJ8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=havcD1r7R2Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N84tBucvCDo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nAPBOhXOVwI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ne-VSnzIexI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qExGNSoJSSg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yzW3neHfARo</t>
+  </si>
+  <si>
+    <t>Merayakan persib</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@hendra_h5/video/7508269038112410898</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@kdmfans2029/video/7508344659584863509</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@rinarisyanti/video/7508267426539212038</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DKEQTJcPZ20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FqnVl9dknIs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KUEmI7s17Vs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lqDwfMtdueA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xKUNiFlUsTI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XLyce6XrMXo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ytAN-SNYCKE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZIvDr-WNYMY</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Rozikindarjek/posts/1467665654418420</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Rozikindarjek/posts/1534241324203053</t>
+  </si>
+  <si>
+    <t>Melepas wamil anak</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DKEPrGpPO3e</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rOOmeBWlMco</t>
+  </si>
+  <si>
+    <t>Prestasi Jabar</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jabarprovgoid/posts/1141033391397037</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kukut/posts/1409317543597741</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mnlTbW0-VC0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qgbzLovgvE4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wEb_7ETNmsI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=--UEdeSz5Kk</t>
+  </si>
+  <si>
+    <t>Ono kritik wamil</t>
+  </si>
+  <si>
+    <t>Ono remehkan KDM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JjYoyQ1D5Kc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BandungIsBlue/posts/688941537220795</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BursaTransferSepakbolaDunia/posts/1459651568679402</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FootballArenaTroll/posts/1201497261987175</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GaleriSepakbolaIndonesiaOnline-GSIO/posts/1123836873105356</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KarawangInfo(www.karawanginfo.com)/posts/1087538136732223</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KarawangInfo(www.karawanginfo.com)/posts/1087551430064227</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KhoerulAzzam/posts/23919717940999010</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KompasTV/posts/1362891178534154</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KompasTV/posts/1363119748511297</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MRikzan/posts/1403517794302378</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RadarBandung/posts/1114403744039070</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SaFriiSarkodes/posts/9171422176292914</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SeputarLigaIndonesia/posts/122265904946201553</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UKURGARUT/posts/1550595766001705</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/YuliaRamdan/posts/1732502000712731</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BangSomadMadureh/posts/1200651468740192</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FauziRidwan/posts/1206983890649944</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FauziRidwan/posts/1791704274726752</t>
   </si>
 </sst>
 </file>
@@ -530,13 +692,13 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,463 +714,683 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -5492,24 +5874,73 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D68210AC-CE4B-9C4B-A6F1-5F8E15EDC922}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D0055E72-F296-424F-BCED-1080206BC568}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{AD9AE783-4DC2-C644-B840-A501D56FCAD1}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{ADE995FB-5716-3F49-B1E9-06C8BC80CC5F}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{B257F7CC-CB4D-C94B-AAAF-AB9924B6812D}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{17A445B7-FE0C-F647-9C3B-0D8185752905}"/>
-    <hyperlink ref="B12" r:id="rId7" xr:uid="{547AB871-04D3-C141-B54C-CEBAC130A90F}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{031EE2CC-42EE-BA4D-A9E0-E826A91CE939}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{1A7CAE00-B72C-B24A-B492-9EDEDFDB88D1}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{2314587D-6C8B-3546-AA9C-93151B5127FF}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{AEFAEADC-2C8F-6645-A72A-CAF168CA98A4}"/>
-    <hyperlink ref="B18" r:id="rId12" xr:uid="{6E3B91AF-91CD-BF47-949E-5C1167F586C8}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{29D735D0-0B31-344E-9665-DBAD9D63C94D}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{43DD3C9A-CC3D-3741-A06B-D1BD5DCF296F}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{F2D9C9D0-C453-8E49-BA92-BADED07294E3}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{D768F569-A0DC-AF4D-8F45-E4ACDC63F8B0}"/>
-    <hyperlink ref="B25" r:id="rId17" xr:uid="{737542C0-4E56-F94D-8530-9DB2972CB7CD}"/>
-    <hyperlink ref="B27" r:id="rId18" xr:uid="{B2D3426A-B984-014A-BC0A-841D81B79359}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00C91B1C-0BF5-944E-8339-C07F35B85C76}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A6295BCA-CDD1-F940-BDD1-D51D899CC5F1}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4FC28B7F-3BED-B742-BF8D-36C8E91C51D4}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3F5B3CBE-A40C-0545-AC5D-312A09EB8C83}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{6A8FDEB9-C537-D049-83C1-A9D2B85C48A9}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{22D54D7A-EC73-4E4A-8EB9-5E336898C358}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C3AE1471-361F-1D49-8848-2935AC715DEC}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{BF8EF0E6-5059-0C4C-B527-965DB6688281}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{A8839737-491D-3441-83FA-0052C029801C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{B254F8E2-3855-D947-9BCF-2FB69D01B46A}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{4FADCC02-9BBB-8E4C-A57E-D575E6E0C989}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{A5CDCBCD-6184-7C41-8D70-A2F2BF09B585}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{E0AA6241-DAFE-8448-A208-981F0A1C3AF6}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{B708CEAE-6FF2-3F4B-82B4-BEDA69B8A1F4}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{40B35A4D-5399-5E4E-B633-B3700C787189}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{8BD52643-C607-D742-B61E-B17CC34418C0}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{948100FA-B930-1C45-B6F7-BEA95FD80FBA}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{0005693F-A174-7247-A657-F5817E415FAD}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{2A6F3E40-BB94-B24D-BB6C-DE3E76B0E59D}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{22C0293A-3130-604F-BA0C-63DBA3790D0A}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{C728F549-1509-2549-A2F4-CEEB3FDDE627}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{CAE05F55-D1CE-E948-A23C-7586A2BDD56D}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{2FCCFDB1-7DD4-4048-B691-E024586C8396}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{15977A6D-4F2E-F94F-9A22-7A4DF1561EDC}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{F666D809-8254-6F43-A3E6-5E6412B26701}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{D45E9427-CA53-1448-8E40-0FC13CE963E5}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{81DEEB6D-43DA-4341-8E72-8669259494B0}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{0ED95E72-A672-714F-AEBA-23D48D245DD0}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{EAA54288-F6C3-DB4E-A2B5-FDB5BEDDEE53}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{3F485C24-7268-284E-846F-6433D1745E50}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{A47832B4-9062-2849-AAD4-E111B691CBC8}"/>
+    <hyperlink ref="B48" r:id="rId32" xr:uid="{DA3830C1-ADAD-4D4B-86B6-C68B9F56282F}"/>
+    <hyperlink ref="B49" r:id="rId33" xr:uid="{38EDB33D-1088-3A40-B3D8-769DFFA6EBC8}"/>
+    <hyperlink ref="B50" r:id="rId34" xr:uid="{5F52358E-29F2-9D49-8E22-A24413475999}"/>
+    <hyperlink ref="B51" r:id="rId35" xr:uid="{DABD72E8-5B16-9448-99E6-AC106B5D2036}"/>
+    <hyperlink ref="B52" r:id="rId36" xr:uid="{5FAE241A-8D23-9C4B-8B38-B5F3B1C405FA}"/>
+    <hyperlink ref="B53" r:id="rId37" xr:uid="{C97C8B9E-47D8-914B-8083-C316C9918F5F}"/>
+    <hyperlink ref="B54" r:id="rId38" xr:uid="{A054AD3D-139A-DC4F-8F03-6B47955F242E}"/>
+    <hyperlink ref="B55" r:id="rId39" xr:uid="{751E80E1-47F7-D248-8678-392CCFDB905C}"/>
+    <hyperlink ref="B56" r:id="rId40" xr:uid="{CB182D11-2182-074A-B8D1-641D8CCFA6D3}"/>
+    <hyperlink ref="B57" r:id="rId41" xr:uid="{424B7845-88E4-F04A-82B3-6E0F013272C6}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{53FF2744-ED55-3B45-B824-51F73A6EA092}"/>
+    <hyperlink ref="B59" r:id="rId43" xr:uid="{F684C4D1-913A-8F46-B242-D9F6EA3604D2}"/>
+    <hyperlink ref="B60" r:id="rId44" xr:uid="{E435B9CD-97EA-3144-96CE-0B67C004F61C}"/>
+    <hyperlink ref="B61" r:id="rId45" xr:uid="{30216CF5-FF99-FD49-96B2-BE0A668DD9C6}"/>
+    <hyperlink ref="B62" r:id="rId46" xr:uid="{AA5EB881-145B-AF4F-8BE5-4A6A345C772F}"/>
+    <hyperlink ref="B63" r:id="rId47" xr:uid="{A7E10AA9-0637-6B4C-A55F-D2A3C2B91931}"/>
+    <hyperlink ref="B64" r:id="rId48" xr:uid="{10E3C51F-D560-7C4A-BEF1-693E78B5AC23}"/>
+    <hyperlink ref="B65" r:id="rId49" xr:uid="{CDABE213-2A65-5B4A-9CD9-E32D3B9C069F}"/>
+    <hyperlink ref="B66" r:id="rId50" xr:uid="{F4B08846-CB4C-9E41-B8C9-0F0B6F98CC5F}"/>
+    <hyperlink ref="B67" r:id="rId51" xr:uid="{7A1FA1A7-EEF5-2545-8471-7B50F8439EE6}"/>
+    <hyperlink ref="B68" r:id="rId52" xr:uid="{D5252468-7F3C-7549-9943-19678228073E}"/>
+    <hyperlink ref="B69" r:id="rId53" xr:uid="{78122C23-98A0-7F4A-9BDF-9D7ED25163E3}"/>
+    <hyperlink ref="B70" r:id="rId54" xr:uid="{E7078DBE-F542-3740-AFBE-0011B8A2D026}"/>
+    <hyperlink ref="B71" r:id="rId55" xr:uid="{79FE0811-B606-454A-AF47-C3F2C03EF443}"/>
+    <hyperlink ref="B72" r:id="rId56" xr:uid="{9E3E6722-A6D9-354A-B31E-2E1576F04DCE}"/>
+    <hyperlink ref="B73" r:id="rId57" xr:uid="{9A017C6F-26B4-514C-B75C-10AA82E16D2F}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{33DAD9D9-C4F1-7241-9E21-33A1051F6D7B}"/>
+    <hyperlink ref="B75" r:id="rId59" xr:uid="{E99CE6A4-DCC3-CF4E-B25D-7FFC9E196C63}"/>
+    <hyperlink ref="B76" r:id="rId60" xr:uid="{4B306B02-3715-ED42-93CE-8DC9FF93C052}"/>
+    <hyperlink ref="B78" r:id="rId61" xr:uid="{F61C4F04-0C3B-134F-A3D8-7507CB545532}"/>
+    <hyperlink ref="B79" r:id="rId62" xr:uid="{A8CD20B7-2435-E040-A383-9CE3A3E834D8}"/>
+    <hyperlink ref="B80" r:id="rId63" xr:uid="{80E870BE-FD24-1643-B92A-17BD7C81B60B}"/>
+    <hyperlink ref="B81" r:id="rId64" xr:uid="{B1E67B37-F48A-6646-BF11-47010F89AE13}"/>
+    <hyperlink ref="B82" r:id="rId65" xr:uid="{D4FD4CA7-1E61-0747-AC69-185201087072}"/>
+    <hyperlink ref="B83" r:id="rId66" xr:uid="{C449B190-F750-E04D-8468-BFF05942DFD7}"/>
+    <hyperlink ref="B86" r:id="rId67" xr:uid="{5F1A9F85-CD2F-E345-8774-E3CBF0A0B4BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Kerja/Project Program/lysaAI/Media-Monitoring-BE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3050078-047E-424B-8F7E-CB522D3A5A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80DADF-AE0E-C04B-8166-58A96F010B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>kategori</t>
   </si>
@@ -43,283 +43,274 @@
     <t>status</t>
   </si>
   <si>
-    <t>Dampak wamil anak</t>
-  </si>
-  <si>
-    <t>Kritik Yusuf</t>
-  </si>
-  <si>
-    <t>KDM beri hadiah</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@bangtumpal/video/7508351352536321286</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@bangzeys3/video/7508266421982366984</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@dulur.kdm/video/7508230092313627912</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@fokusindosiar/video/7508252673704070420</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@fraksipppdprdjabar/video/7508177070153813253</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@genfunofficial/video/7508339196965375240</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@gerindra_purwakarta/video/7508293075341413639</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@ilham.nurhata/video/7508342253304253714</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@indramayu.info/video/7508331124326796549</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@infojabar_official/video/7508210015749098782</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@jimak63/video/7508177202278681862</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@kabarbursacom/video/7508273110840331525</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@kihurip165/video/7508287039251418424</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@kompastv.indonesia/video/7508377945455480081</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@konteninspiratif007/video/7508320717553863957</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@lapak.acc.bogor/video/7508080197908909330</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@laporan8.id/video/7508268068066299152</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@mersidazhafiraataya/video/7508243048434896145</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@musicdiaryplaylist/video/7508091853384797446</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@musicdiaryplaylist/video/7508092446912367877</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@papazuh/video/7508243940420652306</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@pelintasjalan/video/7508195733133167928</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@pembantulangit/video/7508338691413183752</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@ridhoilahi1341974/video/7508243768856907013</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@rt_alfian/video/7508217377541147912</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@shabir_alfatih/video/7508308751569472774</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@tonny.prem/video/7508316857527454994</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DKEd0nRT--V</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DKEv0jkTd2G</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BOLA.COM/posts/1280634696759120</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/JPNN.com/posts/1124659283037163</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1yo-lnmEEkM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=38ukl_8TZOA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4UnvvD7-Kc4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5DoCYUd-C7s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=azmZ1PaMiDo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C5xwOZItV1A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Co1CQ0jOJ5I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dvx4JUEpeJ8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=havcD1r7R2Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=N84tBucvCDo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nAPBOhXOVwI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ne-VSnzIexI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qExGNSoJSSg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yzW3neHfARo</t>
-  </si>
-  <si>
-    <t>Merayakan persib</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@hendra_h5/video/7508269038112410898</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@kdmfans2029/video/7508344659584863509</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@rinarisyanti/video/7508267426539212038</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DKEQTJcPZ20</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FqnVl9dknIs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KUEmI7s17Vs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lqDwfMtdueA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xKUNiFlUsTI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XLyce6XrMXo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ytAN-SNYCKE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZIvDr-WNYMY</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Rozikindarjek/posts/1467665654418420</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Rozikindarjek/posts/1534241324203053</t>
-  </si>
-  <si>
-    <t>Melepas wamil anak</t>
-  </si>
-  <si>
-    <t>https://instagram.com/p/DKEPrGpPO3e</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rOOmeBWlMco</t>
-  </si>
-  <si>
-    <t>Prestasi Jabar</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Jabarprovgoid/posts/1141033391397037</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kukut/posts/1409317543597741</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mnlTbW0-VC0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qgbzLovgvE4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wEb_7ETNmsI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=--UEdeSz5Kk</t>
-  </si>
-  <si>
-    <t>Ono kritik wamil</t>
-  </si>
-  <si>
-    <t>Ono remehkan KDM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JjYoyQ1D5Kc</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BandungIsBlue/posts/688941537220795</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BursaTransferSepakbolaDunia/posts/1459651568679402</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FootballArenaTroll/posts/1201497261987175</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GaleriSepakbolaIndonesiaOnline-GSIO/posts/1123836873105356</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KarawangInfo(www.karawanginfo.com)/posts/1087538136732223</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KarawangInfo(www.karawanginfo.com)/posts/1087551430064227</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KhoerulAzzam/posts/23919717940999010</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KompasTV/posts/1362891178534154</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KompasTV/posts/1363119748511297</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MRikzan/posts/1403517794302378</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/RadarBandung/posts/1114403744039070</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SaFriiSarkodes/posts/9171422176292914</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SeputarLigaIndonesia/posts/122265904946201553</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UKURGARUT/posts/1550595766001705</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/YuliaRamdan/posts/1732502000712731</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BangSomadMadureh/posts/1200651468740192</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FauziRidwan/posts/1206983890649944</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FauziRidwan/posts/1791704274726752</t>
+    <t>Jam malam</t>
+  </si>
+  <si>
+    <t>Penutupan tambang</t>
+  </si>
+  <si>
+    <t>Aktivitas sekolah</t>
+  </si>
+  <si>
+    <t>Bantuan korban</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Faridz/posts/1248554000229785</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Faridz/posts/1248658986885953</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1203544011801711</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunJabar.id/posts/1056797189729893</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Tribunnews.com/posts/1126950726147702</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_V6RYZjcAns</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1C9OLMkUecU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ApE12wNlyXk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BRj44bEhQLM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d7_nmJVHE88</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fX6l0Vccp9I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gWK5l6fVtlM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IwkeB7dJAHM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jp7GxZ1j0PQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lJn7pVhTySQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=logK9c0O8xs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RjvSYaxPk9k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W5n5fzWbb-I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wdDOVP5LrkM</t>
+  </si>
+  <si>
+    <t>tiktok.com/@dialogindocirebon/video/7511195949012929799</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kdmfans2029/video/7511239243318971666</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kompastv.indonesia/video/7511211758795656468</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kompastv.indonesia/video/7511274788179037460</t>
+  </si>
+  <si>
+    <t>tiktok.com/@pakar_it.com/video/7511225178119081234</t>
+  </si>
+  <si>
+    <t>tiktok.com/@pikiranrakyat/video/7511261205646855431</t>
+  </si>
+  <si>
+    <t>tiktok.com/@redaksiradarcirebon/video/7511206711974235448</t>
+  </si>
+  <si>
+    <t>tiktok.com/@rudiatma81/video/7511215198586293522</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6qv16ywQnhI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7V4g8H2pD18</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7yRT5J2Ud9Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8EVp6_Kg3w4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I67PXOB6s1g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LWUJ8UAvfMw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NvLwmK9Bz8U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uFdY4g9Ixu0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WGObDfTyjdo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XALL1e52U-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XpTlc4PhEaE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ygoILbXnyBM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z0r_K0xpftc</t>
+  </si>
+  <si>
+    <t>tiktok.com/@kompastv.indonesia/video/7511322695531859208</t>
+  </si>
+  <si>
+    <t>tiktok.com/@tehputri.karlina/video/7511278246860721414</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Cianjur-Ran/posts/1204401261151057</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1203263618496417</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Wartakini/posts/695946599848870</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2LufbNh2ZRI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gFV6ZxOKieE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j-LOUS3YIkk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Lq9gU87nnn0</t>
+  </si>
+  <si>
+    <t>tiktok.com/@antara_tv/video/7511289661159951672</t>
+  </si>
+  <si>
+    <t>tiktok.com/@metro_tv/video/7511312424272710932</t>
+  </si>
+  <si>
+    <t>tiktok.com/@official.ntv/video/7511245564961361159</t>
+  </si>
+  <si>
+    <t>Insiden longsor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iwe_6TkIGkU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PPNwUBuepRQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tNacA_Fc-Gc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VxtJwpt2OWI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yxxCHVVKWEE</t>
+  </si>
+  <si>
+    <t>tiktok.com/@cecesunandar163/video/7511189609460567303</t>
+  </si>
+  <si>
+    <t>tiktok.com/@tribunnewsindo/video/7511210387677777170</t>
+  </si>
+  <si>
+    <t>tiktok.com/@tribunpapuabarat_/video/7511247806401678600</t>
+  </si>
+  <si>
+    <t>tiktok.com/@vivanewsofficial/video/7511278432668503313</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5itL5DSkY-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7SKpB_QiR1Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ecSCTsSrGCw</t>
+  </si>
+  <si>
+    <t>Kepuasan KDM</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ckpinfo/posts/721147850426537</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Muawanah/posts/1866805577442260</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bX12vbyeZx0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ft-MNO2Du70</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KM7Yd5X21Fs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xAatK_8qsSI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XDq7EVH0B0M</t>
+  </si>
+  <si>
+    <t>tiktok.com/@pakar_it.com/video/7511323728156904722</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/EkaDiyanto/posts/1248659640319449</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InfoBandungRaya/posts/1491874012142847</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KartarSutaJiwaPangkalan/posts/677752735079667</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Pusakainfo/posts/711992454917230</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CirebonBanget/posts/1244275697061915</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Depok24jam/posts/1140444871459231</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FanskeluargaRAffiahmaddanNagitaslavina/posts/1233271005057997</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InfoBaleendah/posts/1015859597344571</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Inserttoday/posts/1282551393230226</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MetroTV/posts/1273545310808048</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NarasiNewsroom/posts/1037172155214194</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SudarwanDanim/posts/4077187185854324</t>
   </si>
 </sst>
 </file>
@@ -692,7 +683,7 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,370 +705,370 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,47 +1076,47 @@
         <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>38</v>
+      <c r="B49" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>39</v>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>40</v>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
+      <c r="B52" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>42</v>
+      <c r="B53" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,31 +1124,31 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>44</v>
+      <c r="B55" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>45</v>
+      <c r="B56" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>46</v>
+      <c r="B57" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,208 +1180,204 @@
         <v>5</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
@@ -1426,15 +1413,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="1"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -1446,11 +1433,11 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -1458,7 +1445,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
@@ -1482,15 +1469,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
+      <c r="B110" s="1"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
@@ -5874,73 +5861,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00C91B1C-0BF5-944E-8339-C07F35B85C76}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A6295BCA-CDD1-F940-BDD1-D51D899CC5F1}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4FC28B7F-3BED-B742-BF8D-36C8E91C51D4}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3F5B3CBE-A40C-0545-AC5D-312A09EB8C83}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{6A8FDEB9-C537-D049-83C1-A9D2B85C48A9}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{22D54D7A-EC73-4E4A-8EB9-5E336898C358}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{C3AE1471-361F-1D49-8848-2935AC715DEC}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{BF8EF0E6-5059-0C4C-B527-965DB6688281}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{A8839737-491D-3441-83FA-0052C029801C}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{B254F8E2-3855-D947-9BCF-2FB69D01B46A}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{4FADCC02-9BBB-8E4C-A57E-D575E6E0C989}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{A5CDCBCD-6184-7C41-8D70-A2F2BF09B585}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{E0AA6241-DAFE-8448-A208-981F0A1C3AF6}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{B708CEAE-6FF2-3F4B-82B4-BEDA69B8A1F4}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{40B35A4D-5399-5E4E-B633-B3700C787189}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{8BD52643-C607-D742-B61E-B17CC34418C0}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{948100FA-B930-1C45-B6F7-BEA95FD80FBA}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{0005693F-A174-7247-A657-F5817E415FAD}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{2A6F3E40-BB94-B24D-BB6C-DE3E76B0E59D}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{22C0293A-3130-604F-BA0C-63DBA3790D0A}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{C728F549-1509-2549-A2F4-CEEB3FDDE627}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{CAE05F55-D1CE-E948-A23C-7586A2BDD56D}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{2FCCFDB1-7DD4-4048-B691-E024586C8396}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{15977A6D-4F2E-F94F-9A22-7A4DF1561EDC}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{F666D809-8254-6F43-A3E6-5E6412B26701}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{D45E9427-CA53-1448-8E40-0FC13CE963E5}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{81DEEB6D-43DA-4341-8E72-8669259494B0}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{0ED95E72-A672-714F-AEBA-23D48D245DD0}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{EAA54288-F6C3-DB4E-A2B5-FDB5BEDDEE53}"/>
-    <hyperlink ref="B32" r:id="rId30" xr:uid="{3F485C24-7268-284E-846F-6433D1745E50}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{A47832B4-9062-2849-AAD4-E111B691CBC8}"/>
-    <hyperlink ref="B48" r:id="rId32" xr:uid="{DA3830C1-ADAD-4D4B-86B6-C68B9F56282F}"/>
-    <hyperlink ref="B49" r:id="rId33" xr:uid="{38EDB33D-1088-3A40-B3D8-769DFFA6EBC8}"/>
-    <hyperlink ref="B50" r:id="rId34" xr:uid="{5F52358E-29F2-9D49-8E22-A24413475999}"/>
-    <hyperlink ref="B51" r:id="rId35" xr:uid="{DABD72E8-5B16-9448-99E6-AC106B5D2036}"/>
-    <hyperlink ref="B52" r:id="rId36" xr:uid="{5FAE241A-8D23-9C4B-8B38-B5F3B1C405FA}"/>
-    <hyperlink ref="B53" r:id="rId37" xr:uid="{C97C8B9E-47D8-914B-8083-C316C9918F5F}"/>
-    <hyperlink ref="B54" r:id="rId38" xr:uid="{A054AD3D-139A-DC4F-8F03-6B47955F242E}"/>
-    <hyperlink ref="B55" r:id="rId39" xr:uid="{751E80E1-47F7-D248-8678-392CCFDB905C}"/>
-    <hyperlink ref="B56" r:id="rId40" xr:uid="{CB182D11-2182-074A-B8D1-641D8CCFA6D3}"/>
-    <hyperlink ref="B57" r:id="rId41" xr:uid="{424B7845-88E4-F04A-82B3-6E0F013272C6}"/>
-    <hyperlink ref="B58" r:id="rId42" xr:uid="{53FF2744-ED55-3B45-B824-51F73A6EA092}"/>
-    <hyperlink ref="B59" r:id="rId43" xr:uid="{F684C4D1-913A-8F46-B242-D9F6EA3604D2}"/>
-    <hyperlink ref="B60" r:id="rId44" xr:uid="{E435B9CD-97EA-3144-96CE-0B67C004F61C}"/>
-    <hyperlink ref="B61" r:id="rId45" xr:uid="{30216CF5-FF99-FD49-96B2-BE0A668DD9C6}"/>
-    <hyperlink ref="B62" r:id="rId46" xr:uid="{AA5EB881-145B-AF4F-8BE5-4A6A345C772F}"/>
-    <hyperlink ref="B63" r:id="rId47" xr:uid="{A7E10AA9-0637-6B4C-A55F-D2A3C2B91931}"/>
-    <hyperlink ref="B64" r:id="rId48" xr:uid="{10E3C51F-D560-7C4A-BEF1-693E78B5AC23}"/>
-    <hyperlink ref="B65" r:id="rId49" xr:uid="{CDABE213-2A65-5B4A-9CD9-E32D3B9C069F}"/>
-    <hyperlink ref="B66" r:id="rId50" xr:uid="{F4B08846-CB4C-9E41-B8C9-0F0B6F98CC5F}"/>
-    <hyperlink ref="B67" r:id="rId51" xr:uid="{7A1FA1A7-EEF5-2545-8471-7B50F8439EE6}"/>
-    <hyperlink ref="B68" r:id="rId52" xr:uid="{D5252468-7F3C-7549-9943-19678228073E}"/>
-    <hyperlink ref="B69" r:id="rId53" xr:uid="{78122C23-98A0-7F4A-9BDF-9D7ED25163E3}"/>
-    <hyperlink ref="B70" r:id="rId54" xr:uid="{E7078DBE-F542-3740-AFBE-0011B8A2D026}"/>
-    <hyperlink ref="B71" r:id="rId55" xr:uid="{79FE0811-B606-454A-AF47-C3F2C03EF443}"/>
-    <hyperlink ref="B72" r:id="rId56" xr:uid="{9E3E6722-A6D9-354A-B31E-2E1576F04DCE}"/>
-    <hyperlink ref="B73" r:id="rId57" xr:uid="{9A017C6F-26B4-514C-B75C-10AA82E16D2F}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{33DAD9D9-C4F1-7241-9E21-33A1051F6D7B}"/>
-    <hyperlink ref="B75" r:id="rId59" xr:uid="{E99CE6A4-DCC3-CF4E-B25D-7FFC9E196C63}"/>
-    <hyperlink ref="B76" r:id="rId60" xr:uid="{4B306B02-3715-ED42-93CE-8DC9FF93C052}"/>
-    <hyperlink ref="B78" r:id="rId61" xr:uid="{F61C4F04-0C3B-134F-A3D8-7507CB545532}"/>
-    <hyperlink ref="B79" r:id="rId62" xr:uid="{A8CD20B7-2435-E040-A383-9CE3A3E834D8}"/>
-    <hyperlink ref="B80" r:id="rId63" xr:uid="{80E870BE-FD24-1643-B92A-17BD7C81B60B}"/>
-    <hyperlink ref="B81" r:id="rId64" xr:uid="{B1E67B37-F48A-6646-BF11-47010F89AE13}"/>
-    <hyperlink ref="B82" r:id="rId65" xr:uid="{D4FD4CA7-1E61-0747-AC69-185201087072}"/>
-    <hyperlink ref="B83" r:id="rId66" xr:uid="{C449B190-F750-E04D-8468-BFF05942DFD7}"/>
-    <hyperlink ref="B86" r:id="rId67" xr:uid="{5F1A9F85-CD2F-E345-8774-E3CBF0A0B4BB}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5CE8206A-0755-BB49-9261-04311D244AF5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{39E2CBA0-EFD4-6042-A504-CC34C5DCB679}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{916E4683-B3E7-EA4E-98D0-555658574C0E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{ED62B094-58A4-9344-A3A1-447221B55B89}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{1FB64367-A36A-0241-A66C-657049682908}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B4F413E9-01C2-5C45-9B5A-031D7ED172A5}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{1DDD3F82-A31F-D14B-8D93-6075A1B9ABBA}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{1BFB4B9E-4D14-7F4E-B938-D918700D2E56}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{94E504AB-D8A7-5E4C-9089-F85F9EB8F90C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{4BB80016-391D-0E49-BBFA-69C1BFE16CBF}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{A7E8DB5C-7A33-E943-9E1F-DD9E3C85E3C8}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{FB43D82B-FAC3-DD42-AA1D-BB672645AC14}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{0F5A51CC-754D-4648-AD68-FEF5648B13D3}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{740D23D2-AEB0-8841-92CE-218D0A273FEC}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{C28A7CE9-6014-DB43-ACB6-2B567E30E264}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{70D6215B-DF5E-A242-B543-BD9A3B4CC39E}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{AD1F61CB-6AF9-3646-924C-D18866FD5EA9}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{0BD1A63B-46CA-8548-A788-84423D73881D}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{91400A00-57DE-B347-875A-77650D8177FE}"/>
+    <hyperlink ref="B21" r:id="rId20" display="http://tiktok.com/@dialogindocirebon/video/7511195949012929799" xr:uid="{FBAEFE5D-877A-A046-8906-76CACD1E9C09}"/>
+    <hyperlink ref="B22" r:id="rId21" display="http://tiktok.com/@kdmfans2029/video/7511239243318971666" xr:uid="{E8B4927E-CF65-1A4B-BE28-14E9D849B123}"/>
+    <hyperlink ref="B23" r:id="rId22" display="http://tiktok.com/@kompastv.indonesia/video/7511211758795656468" xr:uid="{9BD8037A-58ED-4B4C-BEB0-191E592818CC}"/>
+    <hyperlink ref="B24" r:id="rId23" display="http://tiktok.com/@kompastv.indonesia/video/7511274788179037460" xr:uid="{47214B5D-27D8-6F4F-BE66-DCC2F8EF4EAB}"/>
+    <hyperlink ref="B25" r:id="rId24" display="http://tiktok.com/@pakar_it.com/video/7511225178119081234" xr:uid="{5BB232E2-AE73-9C41-9448-A1774A5B6DD6}"/>
+    <hyperlink ref="B26" r:id="rId25" display="http://tiktok.com/@pikiranrakyat/video/7511261205646855431" xr:uid="{689F9277-1B12-314B-A7D0-C09A4F6BD839}"/>
+    <hyperlink ref="B27" r:id="rId26" display="http://tiktok.com/@redaksiradarcirebon/video/7511206711974235448" xr:uid="{2AFAE7AB-B47E-6248-8D15-7C1B45ABF770}"/>
+    <hyperlink ref="B28" r:id="rId27" display="http://tiktok.com/@rudiatma81/video/7511215198586293522" xr:uid="{E3C9072A-D5BB-1544-812A-86FD288DC1E3}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{BDEDED2A-A62C-9B4E-820D-0733D7A4CE49}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{B415E0A4-AF1C-5D4F-B4AB-77BF65ACAD81}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{BFD61746-27BF-3C4F-8BD2-71615145625E}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{761B98DB-2373-1446-9A07-298231BA92B3}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{019122B5-C8DC-9E45-9773-E76064876799}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{0A68E537-C33E-B740-8BA6-E7D3B60526FF}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{2AF2BED3-03C5-5047-89C8-2E905D68C32A}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{533761F4-DDDC-6A45-B2C2-0503DCA0BDDA}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{84ED5ABD-64E8-A645-9AD5-C953326894DA}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{0E8928E5-FF66-C54A-A79B-5F3AA2BFFB6F}"/>
+    <hyperlink ref="B43" r:id="rId38" xr:uid="{5D57FF55-BDEE-434F-A2C0-54C394D5C434}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{044A6603-0FBB-194D-B142-72AC30F7BCC0}"/>
+    <hyperlink ref="B45" r:id="rId40" xr:uid="{F321F1BB-6946-BB45-96D0-8DF7DD54C86C}"/>
+    <hyperlink ref="B46" r:id="rId41" display="http://tiktok.com/@kompastv.indonesia/video/7511322695531859208" xr:uid="{516B847E-0C84-E241-A364-89ADB34E86BF}"/>
+    <hyperlink ref="B47" r:id="rId42" display="http://tiktok.com/@tehputri.karlina/video/7511278246860721414" xr:uid="{A71333ED-C432-114D-95A0-FB3E63BE83C5}"/>
+    <hyperlink ref="B48" r:id="rId43" xr:uid="{DB346BB9-E2E1-6F4C-8BFD-B554761D8372}"/>
+    <hyperlink ref="B54" r:id="rId44" xr:uid="{590E89D4-3165-CD49-85C4-EF9EB4632EEE}"/>
+    <hyperlink ref="B58" r:id="rId45" xr:uid="{7E48581F-0FF6-764C-9593-E8C948B5EC66}"/>
+    <hyperlink ref="B59" r:id="rId46" xr:uid="{6C8C66E8-F61F-F640-81B8-3BA9C2CD7C93}"/>
+    <hyperlink ref="B60" r:id="rId47" xr:uid="{A6CB291F-C9A5-6544-BCE1-DCBD01730D7F}"/>
+    <hyperlink ref="B61" r:id="rId48" xr:uid="{CC605544-F9EB-8848-9016-B91D1823BE8B}"/>
+    <hyperlink ref="B62" r:id="rId49" xr:uid="{735731FB-9C02-104C-A83C-709609F70AF5}"/>
+    <hyperlink ref="B63" r:id="rId50" display="http://tiktok.com/@antara_tv/video/7511289661159951672" xr:uid="{82526CEB-1C7F-D842-868E-9476C7516DED}"/>
+    <hyperlink ref="B64" r:id="rId51" display="http://tiktok.com/@metro_tv/video/7511312424272710932" xr:uid="{462FEA0B-29BC-A14E-ACC3-D65541E5ACEA}"/>
+    <hyperlink ref="B65" r:id="rId52" display="http://tiktok.com/@official.ntv/video/7511245564961361159" xr:uid="{4032DD6A-48B4-8843-A86D-08EA5C5E8061}"/>
+    <hyperlink ref="B66" r:id="rId53" xr:uid="{F50F7F34-9525-5945-8958-CE7C30D0068F}"/>
+    <hyperlink ref="B67" r:id="rId54" xr:uid="{FD1D050E-94DE-0248-9022-AE9CC7A065CE}"/>
+    <hyperlink ref="B68" r:id="rId55" xr:uid="{A1B82BBC-82A5-4942-983B-339D18CECE45}"/>
+    <hyperlink ref="B69" r:id="rId56" xr:uid="{CEBD6892-956A-FD42-BAF7-0138D14E2CF5}"/>
+    <hyperlink ref="B70" r:id="rId57" xr:uid="{BB4EC3E7-CB38-5142-9291-2CFC5F251366}"/>
+    <hyperlink ref="B71" r:id="rId58" display="http://tiktok.com/@cecesunandar163/video/7511189609460567303" xr:uid="{A2A0D506-110D-4A43-8015-8D4D5F88DC00}"/>
+    <hyperlink ref="B72" r:id="rId59" display="http://tiktok.com/@tribunnewsindo/video/7511210387677777170" xr:uid="{8E47982C-1025-554D-8BB8-1D73CAE069EE}"/>
+    <hyperlink ref="B73" r:id="rId60" display="http://tiktok.com/@tribunpapuabarat_/video/7511247806401678600" xr:uid="{6FFC89A2-DEB3-E042-9618-A3FDD75C9416}"/>
+    <hyperlink ref="B74" r:id="rId61" display="http://tiktok.com/@vivanewsofficial/video/7511278432668503313" xr:uid="{AAF8BE55-60CE-754A-B2E7-BC9647E60670}"/>
+    <hyperlink ref="B75" r:id="rId62" xr:uid="{25CBCA05-9108-4342-97DD-59956CC4C77A}"/>
+    <hyperlink ref="B76" r:id="rId63" xr:uid="{E45CCB34-3634-A946-A83E-D5136468E4E6}"/>
+    <hyperlink ref="B77" r:id="rId64" xr:uid="{9A46BA81-E7DD-7549-AF74-2302FF581B8B}"/>
+    <hyperlink ref="B78" r:id="rId65" xr:uid="{EB349E29-3C1A-3C43-90A1-410ECD66ABD6}"/>
+    <hyperlink ref="B79" r:id="rId66" xr:uid="{4F37C1C5-AB07-144A-928A-9D143B870F22}"/>
+    <hyperlink ref="B80" r:id="rId67" xr:uid="{628B2F5B-4B0C-764C-822B-45BB5FC8B9FC}"/>
+    <hyperlink ref="B81" r:id="rId68" xr:uid="{342CBD1E-0F95-A545-BF29-741D06F1B12B}"/>
+    <hyperlink ref="B82" r:id="rId69" xr:uid="{5EEFB998-1499-EC48-996C-BD2AA9CF0373}"/>
+    <hyperlink ref="B83" r:id="rId70" xr:uid="{CF462FCA-9018-0D41-89CE-45843049460C}"/>
+    <hyperlink ref="B84" r:id="rId71" xr:uid="{D61A2EE7-2107-F54C-83C5-10AD61F16DBE}"/>
+    <hyperlink ref="B85" r:id="rId72" display="http://tiktok.com/@pakar_it.com/video/7511323728156904722" xr:uid="{6B76C74F-626C-8948-B4DF-087DBC64C320}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80DADF-AE0E-C04B-8166-58A96F010B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272D960-8813-D64C-AB37-4B9C4834FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>kategori</t>
   </si>
@@ -46,271 +46,328 @@
     <t>Jam malam</t>
   </si>
   <si>
-    <t>Penutupan tambang</t>
-  </si>
-  <si>
     <t>Aktivitas sekolah</t>
   </si>
   <si>
-    <t>Bantuan korban</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Faridz/posts/1248554000229785</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Faridz/posts/1248658986885953</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1203544011801711</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TribunJabar.id/posts/1056797189729893</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Tribunnews.com/posts/1126950726147702</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_V6RYZjcAns</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1C9OLMkUecU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ApE12wNlyXk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BRj44bEhQLM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d7_nmJVHE88</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fX6l0Vccp9I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gWK5l6fVtlM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IwkeB7dJAHM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jp7GxZ1j0PQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lJn7pVhTySQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=logK9c0O8xs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RjvSYaxPk9k</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W5n5fzWbb-I</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wdDOVP5LrkM</t>
-  </si>
-  <si>
-    <t>tiktok.com/@dialogindocirebon/video/7511195949012929799</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kdmfans2029/video/7511239243318971666</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kompastv.indonesia/video/7511211758795656468</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kompastv.indonesia/video/7511274788179037460</t>
-  </si>
-  <si>
-    <t>tiktok.com/@pakar_it.com/video/7511225178119081234</t>
-  </si>
-  <si>
-    <t>tiktok.com/@pikiranrakyat/video/7511261205646855431</t>
-  </si>
-  <si>
-    <t>tiktok.com/@redaksiradarcirebon/video/7511206711974235448</t>
-  </si>
-  <si>
-    <t>tiktok.com/@rudiatma81/video/7511215198586293522</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6qv16ywQnhI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7V4g8H2pD18</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7yRT5J2Ud9Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8EVp6_Kg3w4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=I67PXOB6s1g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LWUJ8UAvfMw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NvLwmK9Bz8U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uFdY4g9Ixu0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WGObDfTyjdo</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XALL1e52U-s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XpTlc4PhEaE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ygoILbXnyBM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Z0r_K0xpftc</t>
-  </si>
-  <si>
-    <t>tiktok.com/@kompastv.indonesia/video/7511322695531859208</t>
-  </si>
-  <si>
-    <t>tiktok.com/@tehputri.karlina/video/7511278246860721414</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Cianjur-Ran/posts/1204401261151057</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1203263618496417</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Wartakini/posts/695946599848870</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2LufbNh2ZRI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gFV6ZxOKieE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=j-LOUS3YIkk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Lq9gU87nnn0</t>
-  </si>
-  <si>
-    <t>tiktok.com/@antara_tv/video/7511289661159951672</t>
-  </si>
-  <si>
-    <t>tiktok.com/@metro_tv/video/7511312424272710932</t>
-  </si>
-  <si>
-    <t>tiktok.com/@official.ntv/video/7511245564961361159</t>
-  </si>
-  <si>
-    <t>Insiden longsor</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iwe_6TkIGkU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PPNwUBuepRQ</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tNacA_Fc-Gc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VxtJwpt2OWI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yxxCHVVKWEE</t>
-  </si>
-  <si>
-    <t>tiktok.com/@cecesunandar163/video/7511189609460567303</t>
-  </si>
-  <si>
-    <t>tiktok.com/@tribunnewsindo/video/7511210387677777170</t>
-  </si>
-  <si>
-    <t>tiktok.com/@tribunpapuabarat_/video/7511247806401678600</t>
-  </si>
-  <si>
-    <t>tiktok.com/@vivanewsofficial/video/7511278432668503313</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5itL5DSkY-4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7SKpB_QiR1Q</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ecSCTsSrGCw</t>
-  </si>
-  <si>
-    <t>Kepuasan KDM</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ckpinfo/posts/721147850426537</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Muawanah/posts/1866805577442260</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bX12vbyeZx0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ft-MNO2Du70</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KM7Yd5X21Fs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xAatK_8qsSI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XDq7EVH0B0M</t>
-  </si>
-  <si>
-    <t>tiktok.com/@pakar_it.com/video/7511323728156904722</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/EkaDiyanto/posts/1248659640319449</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/InfoBandungRaya/posts/1491874012142847</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KartarSutaJiwaPangkalan/posts/677752735079667</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Pusakainfo/posts/711992454917230</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/CirebonBanget/posts/1244275697061915</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Depok24jam/posts/1140444871459231</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/FanskeluargaRAffiahmaddanNagitaslavina/posts/1233271005057997</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/InfoBaleendah/posts/1015859597344571</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Inserttoday/posts/1282551393230226</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/MetroTV/posts/1273545310808048</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NarasiNewsroom/posts/1037172155214194</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SudarwanDanim/posts/4077187185854324</t>
+    <t>http://instagram.com/p/DKdgLR8TzTQ</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdhgMfu_Jp</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdnNemP2as</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdunF2hlIs</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeIEozTtNy</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeJEHsyx3n</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeyrRQTxMV</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@akuratco/video/7511959348487228679</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@detikjabar/video/7512000716198661384</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@genfunofficial/video/7511926308457286919</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@infojabarjuara/video/7511908975252688136</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@metro_tv/video/7512036150203256082</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@rikifirdaus0505/video/7511887896589176069</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@tvoneofficial/video/7512023553886162196</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/detikcom/posts/1221111503391430</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JabarKita/posts/1013700800967971</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1205206534968792</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kumparan/posts/1132016988957574</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Liputan6/posts/1319484909542793</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SukabumiUpdate.com/posts/716725150909555</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1SzqI7cfs_0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5aX34oTN5LY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BRSApxuZmJw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ClD--bN4lUA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ja2BVRo31M0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kOfULvSkx2w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OEbUQEWT9zA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qBeP6eu9KHc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qrKdBdL7CnE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ukG2CXrG-rM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x9iOyco-nzE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yd2P4X6KgyU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z0p1moap_z0</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdPCh2T4JA</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdq2Fuhjku</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeF2fGyFpD</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeF7gCS1qR</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeHMa3upi-</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKep_KwyTne</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeQ8AWJDln</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@infobandungkota/video/7511828253351431442</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@pasundanekspres_news/video/7511936336937487632</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Infolimodepok/posts/122235378632068553</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kutipan/posts/726409750063461</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Muhammadikbalwibiksana/posts/1302654958090623</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-PSfl0zicVg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8yKADUgey2s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ANZOSvCicw4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CMtqn9XOwgI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gXq8w9tN-64</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RS4gyJaBQIU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UO_KgY-GBU8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v44ytG9KlVI</t>
+  </si>
+  <si>
+    <t>Pelantikan Tasik</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@jabarekspres/video/7511936940292246800</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@merdekacom/video/7512018341926554887</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@officialinews/video/7512038004857244935</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1205700561586056</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Doa7IcNO0M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=chalu1HK7Ok</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IKRKzhY9Cfc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iYm1HR4yTJE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o3AwyuPuBc8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SS_So6a0fvg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuYJ_P0p8Ls</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zZ1rpYyUPeM</t>
+  </si>
+  <si>
+    <t>Transaksi non-tunai</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdjduPz9Fb</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKePcDIREhz</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@kang.oon/video/7512072231539707192</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@kompastv.indonesia/video/7511977910169783570</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=58ewCtup9Wg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GqKJFO4YP-8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TdyHrCNsAC4</t>
+  </si>
+  <si>
+    <t>Larangan PR</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKevKz4z3-w</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeZA4fxpYP</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/infogarut.id/posts/1314758403983783</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sekitarbandungcom/posts/1041478468086747</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Tirto.id/posts/1153339633489122</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9-0CAf4jrX4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UH92s57rEFA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yz4J69W5sD4</t>
+  </si>
+  <si>
+    <t>DPR Kritik Jam malam</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKddbvtP-6T</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKdrPnaRiFj</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeHY8QO0TY</t>
+  </si>
+  <si>
+    <t>http://instagram.com/p/DKeRvkBsq9C</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@officialinews/video/7512082402185874709</t>
+  </si>
+  <si>
+    <t>http://tiktok.com/@pak_syamm/video/7511900839242435846</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/iNews/posts/1164955879009810</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AntonSubran/posts/3065438970287377</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/EnsipediaID/posts/1188509806648634</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/IndramayuInfo/posts/1263952585738259</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/IndramayuPost.Com/posts/1151404000365271</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InfoBekasi/posts/1022672746658017</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TehMiaSumiatiDahlan/posts/3899855710252800</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TempoMedia/posts/1155512749948402</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BBCNewsIndonesia/posts/1160630926101686</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JawaBaratMenyala/posts/122112600578876381</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KikiGarbelly/posts/9768285536615690</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NisrinaNafisah/posts/9760547037375261</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PolsekibunPolrestabdg/posts/678741731716308</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GARUTUPDATE/posts/1007758524891379</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AmirulMu'mininKhalifah/posts/1102745251894479</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UpdateNusantara/posts/753743940931006</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/YohanaSulistyowati/posts/1016205797388382</t>
   </si>
 </sst>
 </file>
@@ -683,7 +740,7 @@
   <dimension ref="A1:C1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,322 +762,322 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,388 +1125,464 @@
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-    </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
@@ -5861,78 +5994,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5CE8206A-0755-BB49-9261-04311D244AF5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{39E2CBA0-EFD4-6042-A504-CC34C5DCB679}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{916E4683-B3E7-EA4E-98D0-555658574C0E}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{ED62B094-58A4-9344-A3A1-447221B55B89}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{1FB64367-A36A-0241-A66C-657049682908}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{B4F413E9-01C2-5C45-9B5A-031D7ED172A5}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{1DDD3F82-A31F-D14B-8D93-6075A1B9ABBA}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{1BFB4B9E-4D14-7F4E-B938-D918700D2E56}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{94E504AB-D8A7-5E4C-9089-F85F9EB8F90C}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{4BB80016-391D-0E49-BBFA-69C1BFE16CBF}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{A7E8DB5C-7A33-E943-9E1F-DD9E3C85E3C8}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{FB43D82B-FAC3-DD42-AA1D-BB672645AC14}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{0F5A51CC-754D-4648-AD68-FEF5648B13D3}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{740D23D2-AEB0-8841-92CE-218D0A273FEC}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{C28A7CE9-6014-DB43-ACB6-2B567E30E264}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{70D6215B-DF5E-A242-B543-BD9A3B4CC39E}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{AD1F61CB-6AF9-3646-924C-D18866FD5EA9}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{0BD1A63B-46CA-8548-A788-84423D73881D}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{91400A00-57DE-B347-875A-77650D8177FE}"/>
-    <hyperlink ref="B21" r:id="rId20" display="http://tiktok.com/@dialogindocirebon/video/7511195949012929799" xr:uid="{FBAEFE5D-877A-A046-8906-76CACD1E9C09}"/>
-    <hyperlink ref="B22" r:id="rId21" display="http://tiktok.com/@kdmfans2029/video/7511239243318971666" xr:uid="{E8B4927E-CF65-1A4B-BE28-14E9D849B123}"/>
-    <hyperlink ref="B23" r:id="rId22" display="http://tiktok.com/@kompastv.indonesia/video/7511211758795656468" xr:uid="{9BD8037A-58ED-4B4C-BEB0-191E592818CC}"/>
-    <hyperlink ref="B24" r:id="rId23" display="http://tiktok.com/@kompastv.indonesia/video/7511274788179037460" xr:uid="{47214B5D-27D8-6F4F-BE66-DCC2F8EF4EAB}"/>
-    <hyperlink ref="B25" r:id="rId24" display="http://tiktok.com/@pakar_it.com/video/7511225178119081234" xr:uid="{5BB232E2-AE73-9C41-9448-A1774A5B6DD6}"/>
-    <hyperlink ref="B26" r:id="rId25" display="http://tiktok.com/@pikiranrakyat/video/7511261205646855431" xr:uid="{689F9277-1B12-314B-A7D0-C09A4F6BD839}"/>
-    <hyperlink ref="B27" r:id="rId26" display="http://tiktok.com/@redaksiradarcirebon/video/7511206711974235448" xr:uid="{2AFAE7AB-B47E-6248-8D15-7C1B45ABF770}"/>
-    <hyperlink ref="B28" r:id="rId27" display="http://tiktok.com/@rudiatma81/video/7511215198586293522" xr:uid="{E3C9072A-D5BB-1544-812A-86FD288DC1E3}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{BDEDED2A-A62C-9B4E-820D-0733D7A4CE49}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{B415E0A4-AF1C-5D4F-B4AB-77BF65ACAD81}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{BFD61746-27BF-3C4F-8BD2-71615145625E}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{761B98DB-2373-1446-9A07-298231BA92B3}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{019122B5-C8DC-9E45-9773-E76064876799}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{0A68E537-C33E-B740-8BA6-E7D3B60526FF}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{2AF2BED3-03C5-5047-89C8-2E905D68C32A}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{533761F4-DDDC-6A45-B2C2-0503DCA0BDDA}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{84ED5ABD-64E8-A645-9AD5-C953326894DA}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{0E8928E5-FF66-C54A-A79B-5F3AA2BFFB6F}"/>
-    <hyperlink ref="B43" r:id="rId38" xr:uid="{5D57FF55-BDEE-434F-A2C0-54C394D5C434}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{044A6603-0FBB-194D-B142-72AC30F7BCC0}"/>
-    <hyperlink ref="B45" r:id="rId40" xr:uid="{F321F1BB-6946-BB45-96D0-8DF7DD54C86C}"/>
-    <hyperlink ref="B46" r:id="rId41" display="http://tiktok.com/@kompastv.indonesia/video/7511322695531859208" xr:uid="{516B847E-0C84-E241-A364-89ADB34E86BF}"/>
-    <hyperlink ref="B47" r:id="rId42" display="http://tiktok.com/@tehputri.karlina/video/7511278246860721414" xr:uid="{A71333ED-C432-114D-95A0-FB3E63BE83C5}"/>
-    <hyperlink ref="B48" r:id="rId43" xr:uid="{DB346BB9-E2E1-6F4C-8BFD-B554761D8372}"/>
-    <hyperlink ref="B54" r:id="rId44" xr:uid="{590E89D4-3165-CD49-85C4-EF9EB4632EEE}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{7E48581F-0FF6-764C-9593-E8C948B5EC66}"/>
-    <hyperlink ref="B59" r:id="rId46" xr:uid="{6C8C66E8-F61F-F640-81B8-3BA9C2CD7C93}"/>
-    <hyperlink ref="B60" r:id="rId47" xr:uid="{A6CB291F-C9A5-6544-BCE1-DCBD01730D7F}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{CC605544-F9EB-8848-9016-B91D1823BE8B}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{735731FB-9C02-104C-A83C-709609F70AF5}"/>
-    <hyperlink ref="B63" r:id="rId50" display="http://tiktok.com/@antara_tv/video/7511289661159951672" xr:uid="{82526CEB-1C7F-D842-868E-9476C7516DED}"/>
-    <hyperlink ref="B64" r:id="rId51" display="http://tiktok.com/@metro_tv/video/7511312424272710932" xr:uid="{462FEA0B-29BC-A14E-ACC3-D65541E5ACEA}"/>
-    <hyperlink ref="B65" r:id="rId52" display="http://tiktok.com/@official.ntv/video/7511245564961361159" xr:uid="{4032DD6A-48B4-8843-A86D-08EA5C5E8061}"/>
-    <hyperlink ref="B66" r:id="rId53" xr:uid="{F50F7F34-9525-5945-8958-CE7C30D0068F}"/>
-    <hyperlink ref="B67" r:id="rId54" xr:uid="{FD1D050E-94DE-0248-9022-AE9CC7A065CE}"/>
-    <hyperlink ref="B68" r:id="rId55" xr:uid="{A1B82BBC-82A5-4942-983B-339D18CECE45}"/>
-    <hyperlink ref="B69" r:id="rId56" xr:uid="{CEBD6892-956A-FD42-BAF7-0138D14E2CF5}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{BB4EC3E7-CB38-5142-9291-2CFC5F251366}"/>
-    <hyperlink ref="B71" r:id="rId58" display="http://tiktok.com/@cecesunandar163/video/7511189609460567303" xr:uid="{A2A0D506-110D-4A43-8015-8D4D5F88DC00}"/>
-    <hyperlink ref="B72" r:id="rId59" display="http://tiktok.com/@tribunnewsindo/video/7511210387677777170" xr:uid="{8E47982C-1025-554D-8BB8-1D73CAE069EE}"/>
-    <hyperlink ref="B73" r:id="rId60" display="http://tiktok.com/@tribunpapuabarat_/video/7511247806401678600" xr:uid="{6FFC89A2-DEB3-E042-9618-A3FDD75C9416}"/>
-    <hyperlink ref="B74" r:id="rId61" display="http://tiktok.com/@vivanewsofficial/video/7511278432668503313" xr:uid="{AAF8BE55-60CE-754A-B2E7-BC9647E60670}"/>
-    <hyperlink ref="B75" r:id="rId62" xr:uid="{25CBCA05-9108-4342-97DD-59956CC4C77A}"/>
-    <hyperlink ref="B76" r:id="rId63" xr:uid="{E45CCB34-3634-A946-A83E-D5136468E4E6}"/>
-    <hyperlink ref="B77" r:id="rId64" xr:uid="{9A46BA81-E7DD-7549-AF74-2302FF581B8B}"/>
-    <hyperlink ref="B78" r:id="rId65" xr:uid="{EB349E29-3C1A-3C43-90A1-410ECD66ABD6}"/>
-    <hyperlink ref="B79" r:id="rId66" xr:uid="{4F37C1C5-AB07-144A-928A-9D143B870F22}"/>
-    <hyperlink ref="B80" r:id="rId67" xr:uid="{628B2F5B-4B0C-764C-822B-45BB5FC8B9FC}"/>
-    <hyperlink ref="B81" r:id="rId68" xr:uid="{342CBD1E-0F95-A545-BF29-741D06F1B12B}"/>
-    <hyperlink ref="B82" r:id="rId69" xr:uid="{5EEFB998-1499-EC48-996C-BD2AA9CF0373}"/>
-    <hyperlink ref="B83" r:id="rId70" xr:uid="{CF462FCA-9018-0D41-89CE-45843049460C}"/>
-    <hyperlink ref="B84" r:id="rId71" xr:uid="{D61A2EE7-2107-F54C-83C5-10AD61F16DBE}"/>
-    <hyperlink ref="B85" r:id="rId72" display="http://tiktok.com/@pakar_it.com/video/7511323728156904722" xr:uid="{6B76C74F-626C-8948-B4DF-087DBC64C320}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FE5A3F52-A56F-3440-A6F5-6B106D68D695}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{87DF8742-406D-6F45-B5F9-F84126161BAD}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{0C89AB9E-40F9-F04B-AED5-5BA68465EC3C}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E2AA4E49-9FA4-A140-A5EC-5751DE9456B4}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4004DB32-EA8E-C54B-9377-E9BA85256666}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{09378CB9-251A-1D4E-AF43-26172E0AEDF4}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{215FD4D4-2A2A-684A-B1B0-9E19199181CF}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{52585441-73B6-7D44-9935-AC7B0CD26FC8}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{2ED36CC4-CCB8-1B4A-BADA-573CB60BD7C1}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{08DB7492-5616-A646-90C7-D559E9E25FD6}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{62C461E8-2644-A44B-8678-BA08DEB140F1}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{EA14620A-3B82-4048-848C-29B47C29154D}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{45B341F7-A8DB-EB4A-88CA-756661EF225B}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{98B0381C-3D95-9841-B045-8550BFFFA579}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{77E82CBD-2DD9-0B4C-B829-148F488ED874}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{DC43CE4D-126E-554B-A378-2AF11DB56E85}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{CEFA847D-25AB-E740-AAE7-745236AC3525}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{A514769E-7586-DA4A-8FAC-D3CE32B52BFD}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{E4362F65-C077-CC46-BA34-8527A3D5B5EC}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{07A2D0B8-8DE7-F94D-AD57-304CC11F90F3}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{8BEAD023-B616-D641-81F8-1C24BA7063D4}"/>
+    <hyperlink ref="B30" r:id="rId22" xr:uid="{D48B0BE0-3388-D949-BB02-C6CE8FBAF3A2}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{CF3A16E0-3D77-3743-98E4-F844B855B364}"/>
+    <hyperlink ref="B32" r:id="rId24" xr:uid="{C84CAF05-6259-5745-AB5A-68B579D67BF4}"/>
+    <hyperlink ref="B33" r:id="rId25" xr:uid="{5A90BDC3-BDDB-2A41-9A7F-DCBA457A6A98}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{B76391DB-F143-1941-B2F4-DBF578A20937}"/>
+    <hyperlink ref="B35" r:id="rId27" xr:uid="{98A044DE-E8F8-6C4D-B95F-6E1C1E7286F3}"/>
+    <hyperlink ref="B36" r:id="rId28" xr:uid="{F164337C-57BF-EA4B-8382-A1F873232664}"/>
+    <hyperlink ref="B37" r:id="rId29" xr:uid="{7F863F6C-F779-CE4E-95D5-A11DA7463A8F}"/>
+    <hyperlink ref="B38" r:id="rId30" xr:uid="{EE2F2672-E26F-584E-9EFF-F77D52645EEE}"/>
+    <hyperlink ref="B39" r:id="rId31" xr:uid="{DC9FEF3B-E5A2-524C-9530-AFD0585AA53F}"/>
+    <hyperlink ref="B40" r:id="rId32" xr:uid="{B19E2062-89B1-A344-A333-370F9B93087C}"/>
+    <hyperlink ref="B41" r:id="rId33" xr:uid="{E5F881D1-9583-9340-A3FF-E9092DE3F8DE}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{F5B07370-2085-DC46-A53B-5B9BCE9DD838}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{0C23ED5A-6882-9646-ACB2-3E20C5EF62EE}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{FCDDD652-729C-6B4D-9209-E275F08FC72A}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{5192F675-46BA-F443-A731-4B4936E95883}"/>
+    <hyperlink ref="B46" r:id="rId38" xr:uid="{CC8C3295-5A50-F74E-94D6-315C5155995E}"/>
+    <hyperlink ref="B47" r:id="rId39" xr:uid="{E03DD228-878B-A644-8C79-1452BF20A36E}"/>
+    <hyperlink ref="B48" r:id="rId40" xr:uid="{62764D0C-D087-B940-BE43-718B0A7A73C5}"/>
+    <hyperlink ref="B49" r:id="rId41" xr:uid="{44F9DE53-E454-3A48-B107-054D5215C9A4}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{C5B71306-0F34-BF46-ADF3-D48A63B7E26E}"/>
+    <hyperlink ref="B52" r:id="rId43" xr:uid="{6D90CF6E-4428-104B-AED8-91E613FB3352}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{F5EABCF2-3D1E-9B49-8CD1-014D87034B1A}"/>
+    <hyperlink ref="B56" r:id="rId45" xr:uid="{3A36EA10-E591-0249-9F9E-986A06B3AABC}"/>
+    <hyperlink ref="B59" r:id="rId46" xr:uid="{57332FB0-597C-774C-8381-76BF6F36C827}"/>
+    <hyperlink ref="B60" r:id="rId47" xr:uid="{2BFCAE4E-F698-A54A-9747-2739D789C50A}"/>
+    <hyperlink ref="B61" r:id="rId48" xr:uid="{C1BFF344-D61E-F74D-9B91-8F2A6E54B4AC}"/>
+    <hyperlink ref="B62" r:id="rId49" xr:uid="{882238BB-D3FE-E14A-8871-87E1748401B7}"/>
+    <hyperlink ref="B63" r:id="rId50" xr:uid="{B8F13AD2-16CC-C84E-97E7-685E07528510}"/>
+    <hyperlink ref="B64" r:id="rId51" xr:uid="{569D332E-015B-514C-9E5A-E41FC0B97B8B}"/>
+    <hyperlink ref="B65" r:id="rId52" xr:uid="{648C76F1-AA5D-D341-B641-F14C48FD9221}"/>
+    <hyperlink ref="B66" r:id="rId53" xr:uid="{66C04127-1709-6F4C-960E-92EE5A2037BC}"/>
+    <hyperlink ref="B67" r:id="rId54" xr:uid="{153D000A-DE93-744C-8379-99A0F9C07137}"/>
+    <hyperlink ref="B68" r:id="rId55" xr:uid="{7E0E59E6-9C3B-834E-8EA2-8EE1F33EC8A1}"/>
+    <hyperlink ref="B69" r:id="rId56" xr:uid="{7BA40F34-6C69-4644-807C-8471A1FC3DDB}"/>
+    <hyperlink ref="B70" r:id="rId57" xr:uid="{EB94AF47-943F-F746-85A1-70B0187C0E13}"/>
+    <hyperlink ref="B71" r:id="rId58" xr:uid="{583B09E3-DB57-9141-90DD-9EEAB2C67600}"/>
+    <hyperlink ref="B72" r:id="rId59" xr:uid="{F50E4332-3CF0-EA4F-9ABE-E5556350579C}"/>
+    <hyperlink ref="B73" r:id="rId60" xr:uid="{D6EABFA2-A9FE-7544-8E38-3CACF19801A1}"/>
+    <hyperlink ref="B74" r:id="rId61" xr:uid="{1EAD59F3-DA24-024A-9D65-02C9776E02AD}"/>
+    <hyperlink ref="B75" r:id="rId62" xr:uid="{A360CD4F-53C9-E44A-8C92-D5CD4E5CD964}"/>
+    <hyperlink ref="B76" r:id="rId63" xr:uid="{BC08D856-D273-8C47-8FEC-931F37559114}"/>
+    <hyperlink ref="B77" r:id="rId64" xr:uid="{1C032864-88D5-1A41-A255-B928BE155700}"/>
+    <hyperlink ref="B78" r:id="rId65" xr:uid="{BDD6B5BA-C97D-7340-9BDA-DBCF573C8E4B}"/>
+    <hyperlink ref="B79" r:id="rId66" xr:uid="{14640460-C32C-F048-A155-52E8F1A3C1C9}"/>
+    <hyperlink ref="B80" r:id="rId67" xr:uid="{8A09C534-0A5E-B149-9B03-B8B13CC374D0}"/>
+    <hyperlink ref="B81" r:id="rId68" xr:uid="{A346F74B-9545-D846-931A-233982FD9E99}"/>
+    <hyperlink ref="B82" r:id="rId69" xr:uid="{7EB3647B-D29D-E549-849A-B4E64CD7ADEA}"/>
+    <hyperlink ref="B84" r:id="rId70" xr:uid="{0A5F8E4F-975C-2B40-BE87-C816046514AE}"/>
+    <hyperlink ref="B85" r:id="rId71" xr:uid="{74B8989D-E37E-A34A-9A52-C6D7DAA2E29E}"/>
+    <hyperlink ref="B86" r:id="rId72" xr:uid="{C0819C6A-AECD-7241-90FD-BEA02A76AFA3}"/>
+    <hyperlink ref="B87" r:id="rId73" xr:uid="{C9882BAC-C3A6-AB41-835E-D070A1FC9EC0}"/>
+    <hyperlink ref="B88" r:id="rId74" xr:uid="{F9802095-CBA5-554D-B1AB-823EA4447A1F}"/>
+    <hyperlink ref="B89" r:id="rId75" xr:uid="{619D8E2E-809B-F940-84CE-951CD70346B4}"/>
+    <hyperlink ref="B90" r:id="rId76" xr:uid="{689D60F2-70B2-944C-84B3-818FBC92BC07}"/>
+    <hyperlink ref="B91" r:id="rId77" xr:uid="{30741517-FA38-7943-B64D-3E10752A208B}"/>
+    <hyperlink ref="B92" r:id="rId78" xr:uid="{DDB17825-264A-FC4A-9825-CDF8D5463885}"/>
+    <hyperlink ref="B93" r:id="rId79" xr:uid="{7BE64850-ABA4-254A-9719-817869DBC2D6}"/>
+    <hyperlink ref="B94" r:id="rId80" xr:uid="{009B8B7A-431B-3E40-916A-F9B049C33BBC}"/>
+    <hyperlink ref="B95" r:id="rId81" xr:uid="{CD774C16-6244-2944-B209-53BA89406F03}"/>
+    <hyperlink ref="B96" r:id="rId82" xr:uid="{99A155BB-EEAE-FF4C-9286-27A37EF59E58}"/>
+    <hyperlink ref="B97" r:id="rId83" xr:uid="{C20BB32B-6BC8-D64F-BB4D-0E4DB33616C0}"/>
+    <hyperlink ref="B98" r:id="rId84" xr:uid="{F223BA72-390E-3A48-B013-B9BDC6B397F2}"/>
+    <hyperlink ref="B99" r:id="rId85" xr:uid="{67A996AC-7E85-9742-A79D-02653E6D36FD}"/>
+    <hyperlink ref="B100" r:id="rId86" xr:uid="{F0E5A00E-B3A0-5641-82B5-84A8DFC2CE3B}"/>
+    <hyperlink ref="B102" r:id="rId87" xr:uid="{0A5C59EC-B0E4-7044-B4AE-3BA653649F62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Project Program/lysaAI/Media-Monitoring-BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E272D960-8813-D64C-AB37-4B9C4834FDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C855A-4BCB-DC41-A0DE-8C9DDF259CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>kategori</t>
   </si>
@@ -49,325 +49,268 @@
     <t>Aktivitas sekolah</t>
   </si>
   <si>
-    <t>http://instagram.com/p/DKdgLR8TzTQ</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdhgMfu_Jp</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdnNemP2as</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdunF2hlIs</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeIEozTtNy</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeJEHsyx3n</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeyrRQTxMV</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@akuratco/video/7511959348487228679</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@detikjabar/video/7512000716198661384</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@genfunofficial/video/7511926308457286919</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@infojabarjuara/video/7511908975252688136</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@metro_tv/video/7512036150203256082</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@rikifirdaus0505/video/7511887896589176069</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@tvoneofficial/video/7512023553886162196</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/detikcom/posts/1221111503391430</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/JabarKita/posts/1013700800967971</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1205206534968792</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/kumparan/posts/1132016988957574</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Liputan6/posts/1319484909542793</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/SukabumiUpdate.com/posts/716725150909555</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1SzqI7cfs_0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5aX34oTN5LY</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BRSApxuZmJw</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ClD--bN4lUA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ja2BVRo31M0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kOfULvSkx2w</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OEbUQEWT9zA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qBeP6eu9KHc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qrKdBdL7CnE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ukG2CXrG-rM</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x9iOyco-nzE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Yd2P4X6KgyU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=z0p1moap_z0</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdPCh2T4JA</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdq2Fuhjku</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeF2fGyFpD</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeF7gCS1qR</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeHMa3upi-</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKep_KwyTne</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeQ8AWJDln</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@infobandungkota/video/7511828253351431442</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@pasundanekspres_news/video/7511936336937487632</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Infolimodepok/posts/122235378632068553</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kutipan/posts/726409750063461</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Muhammadikbalwibiksana/posts/1302654958090623</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-PSfl0zicVg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8yKADUgey2s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ANZOSvCicw4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CMtqn9XOwgI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gXq8w9tN-64</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RS4gyJaBQIU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UO_KgY-GBU8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=v44ytG9KlVI</t>
-  </si>
-  <si>
-    <t>Pelantikan Tasik</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@jabarekspres/video/7511936940292246800</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@merdekacom/video/7512018341926554887</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@officialinews/video/7512038004857244935</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kompas.com/posts/1205700561586056</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7Doa7IcNO0M</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=chalu1HK7Ok</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IKRKzhY9Cfc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iYm1HR4yTJE</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=o3AwyuPuBc8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SS_So6a0fvg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuYJ_P0p8Ls</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zZ1rpYyUPeM</t>
-  </si>
-  <si>
-    <t>Transaksi non-tunai</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdjduPz9Fb</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKePcDIREhz</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@kang.oon/video/7512072231539707192</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@kompastv.indonesia/video/7511977910169783570</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=58ewCtup9Wg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GqKJFO4YP-8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TdyHrCNsAC4</t>
-  </si>
-  <si>
-    <t>Larangan PR</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKevKz4z3-w</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeZA4fxpYP</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/infogarut.id/posts/1314758403983783</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/sekitarbandungcom/posts/1041478468086747</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Tirto.id/posts/1153339633489122</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9-0CAf4jrX4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UH92s57rEFA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Yz4J69W5sD4</t>
-  </si>
-  <si>
-    <t>DPR Kritik Jam malam</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKddbvtP-6T</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKdrPnaRiFj</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeHY8QO0TY</t>
-  </si>
-  <si>
-    <t>http://instagram.com/p/DKeRvkBsq9C</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@officialinews/video/7512082402185874709</t>
-  </si>
-  <si>
-    <t>http://tiktok.com/@pak_syamm/video/7511900839242435846</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/iNews/posts/1164955879009810</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AntonSubran/posts/3065438970287377</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/EnsipediaID/posts/1188509806648634</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IndramayuInfo/posts/1263952585738259</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/IndramayuPost.Com/posts/1151404000365271</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/InfoBekasi/posts/1022672746658017</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TehMiaSumiatiDahlan/posts/3899855710252800</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TempoMedia/posts/1155512749948402</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/BBCNewsIndonesia/posts/1160630926101686</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/JawaBaratMenyala/posts/122112600578876381</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/KikiGarbelly/posts/9768285536615690</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/NisrinaNafisah/posts/9760547037375261</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PolsekibunPolrestabdg/posts/678741731716308</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/GARUTUPDATE/posts/1007758524891379</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/AmirulMu'mininKhalifah/posts/1102745251894479</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/UpdateNusantara/posts/753743940931006</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/YohanaSulistyowati/posts/1016205797388382</t>
+    <t>Hapus PR</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sJbr0VRUnjk</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/DKiruNCzngm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2L8odGFf6v8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6KnCC651GAo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=csq9r3ZLbMg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kvFpN5SFXO8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NjjLc8SOKUM</t>
+  </si>
+  <si>
+    <t>tiktok.com/@laporan8.id/video/7512723805463252242</t>
+  </si>
+  <si>
+    <t>Demo siswa</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Husnuddin/posts/24084124957891046</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2MJ37Q8tlk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lnNX3hi3hBU</t>
+  </si>
+  <si>
+    <t>tiktok.com/@esanews_id/video/7512740952746872070</t>
+  </si>
+  <si>
+    <t>tiktok.com/@putranto69/video/7512609062652087557</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lilis_juniawati03/posts/1226940242776524</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iukSAcXKvHg</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/3649040008360521886</t>
+  </si>
+  <si>
+    <t>KDM dilaporkan ortu</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Cikarang.people/posts/722776430118073</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunJabar.id/posts/1184554067045000</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Tribunnews.com/posts/1129919565850818</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_vPC-dB_Qfw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9XP6p-rXORU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eVObQ-elZOc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KKtPICQBPfk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lBhndZgTqSE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LSYVp6SHl_o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O1LRFYCutLc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QBh1YrLHs5c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QnLNwee88Ik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TB05bkbWCWo</t>
+  </si>
+  <si>
+    <t>tiktok.com/@abah_ali_banjaran/video/7512798647885597972</t>
+  </si>
+  <si>
+    <t>tiktok.com/@bijak.bajik/video/7512804625808969016</t>
+  </si>
+  <si>
+    <t>tiktok.com/@calonmayit823/video/7512753843134942520</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Perkakas1721/posts/1153752833455238</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8O1F5v1zVXg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=crdD1o6euI8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FOiJsm4yuFc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHsT1cpvZt4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TsDNKczLwKk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZqdLqbvur4I</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/3649514304988165228</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Kompas.com/posts/1208374617985317</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=85Zxt5_viRw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8Byxk5rY18</t>
+  </si>
+  <si>
+    <t>Anggaran tasik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GCD3tuhMjBw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sqOi13vJ_ZM</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/3649606085390536722</t>
+  </si>
+  <si>
+    <t>https://instagram.com/p/3649718499624679469</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Avelstore.market/posts/1158942799371614</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-FNjWLgtLo</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CacaNadhifa/posts/122238565628190969</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DuniaDavinci/posts/1149893106944057</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/History&amp;InformasiPenting/posts/1224786918797742</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/History&amp;InformasiPenting/posts/1268501981573608</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/History&amp;InformasiPenting/posts/1351491589243370</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/History&amp;InformasiPenting/posts/1442465683568681</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NandangMulyanaMultikreasigrafika/posts/3148455528638681</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuaraMuslimahJabar/posts/1139213221564772</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UrangPurwakarta/posts/744870024543184</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BekasiGue/posts/691093440340606</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NezhaChanell/posts/2298471607276628</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AqilaaPutri/posts/1465822597923165</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KangDarci/posts/4156845207889830</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DesaMekarwangi-Cikadu/posts/1109840104501879</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ErvanRamadhan/posts/1357768061952629</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BahBhurayot/posts/9660538874056070</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BangBung/posts/1305757724517457</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/JampeHarupat/posts/692126267006213</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KikiGarbelly/posts/9786893808088196</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NisaAulia/posts/1134779492023944</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SafiraNafisa/posts/1789477131913423</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SuaraHatiSangIstri/posts/1025006923141622</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunSumsel/posts/1159023036251133</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TribunVideo/posts/1124234746397294</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/WargiKasundaan/posts/1046141987616622</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MasMuh/posts/122233294472203326</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RAFans/posts/1048578647372326</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RizkyFans23/posts/1256087669639218</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UrangBekasi/posts/684787614543235</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/FolkMajalaya/posts/122136880286760837</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BahZen/posts/675326258834191</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HarapanRakyatOnline/posts/1211386767665378</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NengKaniaTS/posts/1227578919159635</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TokoMuslim/posts/723570966700399</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PemdesPamanukanHilir/posts/122166810812562915</t>
   </si>
 </sst>
 </file>
@@ -739,9 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -762,202 +703,202 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,15 +906,15 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>102</v>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,608 +922,532 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
@@ -5994,93 +5859,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FE5A3F52-A56F-3440-A6F5-6B106D68D695}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{87DF8742-406D-6F45-B5F9-F84126161BAD}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0C89AB9E-40F9-F04B-AED5-5BA68465EC3C}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E2AA4E49-9FA4-A140-A5EC-5751DE9456B4}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{4004DB32-EA8E-C54B-9377-E9BA85256666}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{09378CB9-251A-1D4E-AF43-26172E0AEDF4}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{215FD4D4-2A2A-684A-B1B0-9E19199181CF}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{52585441-73B6-7D44-9935-AC7B0CD26FC8}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{2ED36CC4-CCB8-1B4A-BADA-573CB60BD7C1}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{08DB7492-5616-A646-90C7-D559E9E25FD6}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{62C461E8-2644-A44B-8678-BA08DEB140F1}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{EA14620A-3B82-4048-848C-29B47C29154D}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{45B341F7-A8DB-EB4A-88CA-756661EF225B}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{98B0381C-3D95-9841-B045-8550BFFFA579}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{77E82CBD-2DD9-0B4C-B829-148F488ED874}"/>
-    <hyperlink ref="B22" r:id="rId16" xr:uid="{DC43CE4D-126E-554B-A378-2AF11DB56E85}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{CEFA847D-25AB-E740-AAE7-745236AC3525}"/>
-    <hyperlink ref="B24" r:id="rId18" xr:uid="{A514769E-7586-DA4A-8FAC-D3CE32B52BFD}"/>
-    <hyperlink ref="B25" r:id="rId19" xr:uid="{E4362F65-C077-CC46-BA34-8527A3D5B5EC}"/>
-    <hyperlink ref="B26" r:id="rId20" xr:uid="{07A2D0B8-8DE7-F94D-AD57-304CC11F90F3}"/>
-    <hyperlink ref="B29" r:id="rId21" xr:uid="{8BEAD023-B616-D641-81F8-1C24BA7063D4}"/>
-    <hyperlink ref="B30" r:id="rId22" xr:uid="{D48B0BE0-3388-D949-BB02-C6CE8FBAF3A2}"/>
-    <hyperlink ref="B31" r:id="rId23" xr:uid="{CF3A16E0-3D77-3743-98E4-F844B855B364}"/>
-    <hyperlink ref="B32" r:id="rId24" xr:uid="{C84CAF05-6259-5745-AB5A-68B579D67BF4}"/>
-    <hyperlink ref="B33" r:id="rId25" xr:uid="{5A90BDC3-BDDB-2A41-9A7F-DCBA457A6A98}"/>
-    <hyperlink ref="B34" r:id="rId26" xr:uid="{B76391DB-F143-1941-B2F4-DBF578A20937}"/>
-    <hyperlink ref="B35" r:id="rId27" xr:uid="{98A044DE-E8F8-6C4D-B95F-6E1C1E7286F3}"/>
-    <hyperlink ref="B36" r:id="rId28" xr:uid="{F164337C-57BF-EA4B-8382-A1F873232664}"/>
-    <hyperlink ref="B37" r:id="rId29" xr:uid="{7F863F6C-F779-CE4E-95D5-A11DA7463A8F}"/>
-    <hyperlink ref="B38" r:id="rId30" xr:uid="{EE2F2672-E26F-584E-9EFF-F77D52645EEE}"/>
-    <hyperlink ref="B39" r:id="rId31" xr:uid="{DC9FEF3B-E5A2-524C-9530-AFD0585AA53F}"/>
-    <hyperlink ref="B40" r:id="rId32" xr:uid="{B19E2062-89B1-A344-A333-370F9B93087C}"/>
-    <hyperlink ref="B41" r:id="rId33" xr:uid="{E5F881D1-9583-9340-A3FF-E9092DE3F8DE}"/>
-    <hyperlink ref="B42" r:id="rId34" xr:uid="{F5B07370-2085-DC46-A53B-5B9BCE9DD838}"/>
-    <hyperlink ref="B43" r:id="rId35" xr:uid="{0C23ED5A-6882-9646-ACB2-3E20C5EF62EE}"/>
-    <hyperlink ref="B44" r:id="rId36" xr:uid="{FCDDD652-729C-6B4D-9209-E275F08FC72A}"/>
-    <hyperlink ref="B45" r:id="rId37" xr:uid="{5192F675-46BA-F443-A731-4B4936E95883}"/>
-    <hyperlink ref="B46" r:id="rId38" xr:uid="{CC8C3295-5A50-F74E-94D6-315C5155995E}"/>
-    <hyperlink ref="B47" r:id="rId39" xr:uid="{E03DD228-878B-A644-8C79-1452BF20A36E}"/>
-    <hyperlink ref="B48" r:id="rId40" xr:uid="{62764D0C-D087-B940-BE43-718B0A7A73C5}"/>
-    <hyperlink ref="B49" r:id="rId41" xr:uid="{44F9DE53-E454-3A48-B107-054D5215C9A4}"/>
-    <hyperlink ref="B50" r:id="rId42" xr:uid="{C5B71306-0F34-BF46-ADF3-D48A63B7E26E}"/>
-    <hyperlink ref="B52" r:id="rId43" xr:uid="{6D90CF6E-4428-104B-AED8-91E613FB3352}"/>
-    <hyperlink ref="B55" r:id="rId44" xr:uid="{F5EABCF2-3D1E-9B49-8CD1-014D87034B1A}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{3A36EA10-E591-0249-9F9E-986A06B3AABC}"/>
-    <hyperlink ref="B59" r:id="rId46" xr:uid="{57332FB0-597C-774C-8381-76BF6F36C827}"/>
-    <hyperlink ref="B60" r:id="rId47" xr:uid="{2BFCAE4E-F698-A54A-9747-2739D789C50A}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{C1BFF344-D61E-F74D-9B91-8F2A6E54B4AC}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{882238BB-D3FE-E14A-8871-87E1748401B7}"/>
-    <hyperlink ref="B63" r:id="rId50" xr:uid="{B8F13AD2-16CC-C84E-97E7-685E07528510}"/>
-    <hyperlink ref="B64" r:id="rId51" xr:uid="{569D332E-015B-514C-9E5A-E41FC0B97B8B}"/>
-    <hyperlink ref="B65" r:id="rId52" xr:uid="{648C76F1-AA5D-D341-B641-F14C48FD9221}"/>
-    <hyperlink ref="B66" r:id="rId53" xr:uid="{66C04127-1709-6F4C-960E-92EE5A2037BC}"/>
-    <hyperlink ref="B67" r:id="rId54" xr:uid="{153D000A-DE93-744C-8379-99A0F9C07137}"/>
-    <hyperlink ref="B68" r:id="rId55" xr:uid="{7E0E59E6-9C3B-834E-8EA2-8EE1F33EC8A1}"/>
-    <hyperlink ref="B69" r:id="rId56" xr:uid="{7BA40F34-6C69-4644-807C-8471A1FC3DDB}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{EB94AF47-943F-F746-85A1-70B0187C0E13}"/>
-    <hyperlink ref="B71" r:id="rId58" xr:uid="{583B09E3-DB57-9141-90DD-9EEAB2C67600}"/>
-    <hyperlink ref="B72" r:id="rId59" xr:uid="{F50E4332-3CF0-EA4F-9ABE-E5556350579C}"/>
-    <hyperlink ref="B73" r:id="rId60" xr:uid="{D6EABFA2-A9FE-7544-8E38-3CACF19801A1}"/>
-    <hyperlink ref="B74" r:id="rId61" xr:uid="{1EAD59F3-DA24-024A-9D65-02C9776E02AD}"/>
-    <hyperlink ref="B75" r:id="rId62" xr:uid="{A360CD4F-53C9-E44A-8C92-D5CD4E5CD964}"/>
-    <hyperlink ref="B76" r:id="rId63" xr:uid="{BC08D856-D273-8C47-8FEC-931F37559114}"/>
-    <hyperlink ref="B77" r:id="rId64" xr:uid="{1C032864-88D5-1A41-A255-B928BE155700}"/>
-    <hyperlink ref="B78" r:id="rId65" xr:uid="{BDD6B5BA-C97D-7340-9BDA-DBCF573C8E4B}"/>
-    <hyperlink ref="B79" r:id="rId66" xr:uid="{14640460-C32C-F048-A155-52E8F1A3C1C9}"/>
-    <hyperlink ref="B80" r:id="rId67" xr:uid="{8A09C534-0A5E-B149-9B03-B8B13CC374D0}"/>
-    <hyperlink ref="B81" r:id="rId68" xr:uid="{A346F74B-9545-D846-931A-233982FD9E99}"/>
-    <hyperlink ref="B82" r:id="rId69" xr:uid="{7EB3647B-D29D-E549-849A-B4E64CD7ADEA}"/>
-    <hyperlink ref="B84" r:id="rId70" xr:uid="{0A5F8E4F-975C-2B40-BE87-C816046514AE}"/>
-    <hyperlink ref="B85" r:id="rId71" xr:uid="{74B8989D-E37E-A34A-9A52-C6D7DAA2E29E}"/>
-    <hyperlink ref="B86" r:id="rId72" xr:uid="{C0819C6A-AECD-7241-90FD-BEA02A76AFA3}"/>
-    <hyperlink ref="B87" r:id="rId73" xr:uid="{C9882BAC-C3A6-AB41-835E-D070A1FC9EC0}"/>
-    <hyperlink ref="B88" r:id="rId74" xr:uid="{F9802095-CBA5-554D-B1AB-823EA4447A1F}"/>
-    <hyperlink ref="B89" r:id="rId75" xr:uid="{619D8E2E-809B-F940-84CE-951CD70346B4}"/>
-    <hyperlink ref="B90" r:id="rId76" xr:uid="{689D60F2-70B2-944C-84B3-818FBC92BC07}"/>
-    <hyperlink ref="B91" r:id="rId77" xr:uid="{30741517-FA38-7943-B64D-3E10752A208B}"/>
-    <hyperlink ref="B92" r:id="rId78" xr:uid="{DDB17825-264A-FC4A-9825-CDF8D5463885}"/>
-    <hyperlink ref="B93" r:id="rId79" xr:uid="{7BE64850-ABA4-254A-9719-817869DBC2D6}"/>
-    <hyperlink ref="B94" r:id="rId80" xr:uid="{009B8B7A-431B-3E40-916A-F9B049C33BBC}"/>
-    <hyperlink ref="B95" r:id="rId81" xr:uid="{CD774C16-6244-2944-B209-53BA89406F03}"/>
-    <hyperlink ref="B96" r:id="rId82" xr:uid="{99A155BB-EEAE-FF4C-9286-27A37EF59E58}"/>
-    <hyperlink ref="B97" r:id="rId83" xr:uid="{C20BB32B-6BC8-D64F-BB4D-0E4DB33616C0}"/>
-    <hyperlink ref="B98" r:id="rId84" xr:uid="{F223BA72-390E-3A48-B013-B9BDC6B397F2}"/>
-    <hyperlink ref="B99" r:id="rId85" xr:uid="{67A996AC-7E85-9742-A79D-02653E6D36FD}"/>
-    <hyperlink ref="B100" r:id="rId86" xr:uid="{F0E5A00E-B3A0-5641-82B5-84A8DFC2CE3B}"/>
-    <hyperlink ref="B102" r:id="rId87" xr:uid="{0A5C59EC-B0E4-7044-B4AE-3BA653649F62}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9202BC06-AFF2-AC47-A448-1C9564A25A20}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{08205023-1171-CA4C-8235-5DE3CD5F46F9}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{42B82845-6A15-5542-BD66-D383F36B3940}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{81D4BA3A-1546-B34B-97D6-F09E09A72A65}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{032BEF8E-68D5-7349-9753-A8D368BEB8DF}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{2C0C5917-5A77-154D-AA14-2A6A0E88CB99}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{4E1E8250-F706-4643-BFB0-38BC68343E3B}"/>
+    <hyperlink ref="B18" r:id="rId8" display="http://tiktok.com/@laporan8.id/video/7512723805463252242" xr:uid="{345A1679-07D0-1A4B-9315-9B9A89D6EE36}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{92B52E9B-5BCB-0F40-96C1-1C2544A844CE}"/>
+    <hyperlink ref="B22" r:id="rId10" xr:uid="{F15C2BE9-DD94-1045-888F-62AAF028DB81}"/>
+    <hyperlink ref="B23" r:id="rId11" xr:uid="{13B4105D-B378-094B-ACDE-BF90FD455D62}"/>
+    <hyperlink ref="B24" r:id="rId12" display="http://tiktok.com/@esanews_id/video/7512740952746872070" xr:uid="{4EB24738-64DF-0B4D-8EAC-4CCC1D4BB419}"/>
+    <hyperlink ref="B25" r:id="rId13" display="http://tiktok.com/@putranto69/video/7512609062652087557" xr:uid="{694BE5F8-B6EE-8249-9038-6AF4E1A5B9E0}"/>
+    <hyperlink ref="B28" r:id="rId14" xr:uid="{DA28ACCA-B810-814E-90ED-482DFED2773D}"/>
+    <hyperlink ref="B29" r:id="rId15" xr:uid="{3BDF7306-8C07-BF4C-94A1-56E026548E5D}"/>
+    <hyperlink ref="B30" r:id="rId16" xr:uid="{D6C14D99-3FC4-D74C-BC6E-E613D0F4D4B3}"/>
+    <hyperlink ref="B35" r:id="rId17" xr:uid="{1C01F92A-221C-C34B-ADEF-762EDE7A9F42}"/>
+    <hyperlink ref="B43" r:id="rId18" xr:uid="{D0C98A73-BDE3-6842-9D37-76CB439F393E}"/>
+    <hyperlink ref="B44" r:id="rId19" xr:uid="{72E9A0E3-2733-304D-8394-D146E301D957}"/>
+    <hyperlink ref="B46" r:id="rId20" xr:uid="{4E1B739A-4BD7-B049-8EEA-EC1526E421C9}"/>
+    <hyperlink ref="B47" r:id="rId21" xr:uid="{1A5A7202-9A06-B640-97E3-E5A2E3BDDD24}"/>
+    <hyperlink ref="B48" r:id="rId22" xr:uid="{437E58EA-816E-744C-A2AE-8B973E5CF323}"/>
+    <hyperlink ref="B49" r:id="rId23" xr:uid="{EBE6D252-F96A-D445-BAE0-FCDCEDE15D41}"/>
+    <hyperlink ref="B50" r:id="rId24" xr:uid="{809F7835-0516-E04F-A495-048590296EA8}"/>
+    <hyperlink ref="B51" r:id="rId25" xr:uid="{90B1CA0F-FC99-E14A-9504-B15F8341F6D7}"/>
+    <hyperlink ref="B52" r:id="rId26" xr:uid="{3D03D03F-2B0C-F34C-9111-1B83DA3B19BC}"/>
+    <hyperlink ref="B53" r:id="rId27" xr:uid="{3B814500-A176-EF4A-B6BD-3064683E89F6}"/>
+    <hyperlink ref="B54" r:id="rId28" xr:uid="{383EFCF4-5710-1B4E-B534-CEB29D951C89}"/>
+    <hyperlink ref="B55" r:id="rId29" xr:uid="{E31320B1-F594-9145-A4C0-68EA0D5315B6}"/>
+    <hyperlink ref="B56" r:id="rId30" display="http://tiktok.com/@abah_ali_banjaran/video/7512798647885597972" xr:uid="{BFBC8185-F826-9D4B-899B-669E1A59DF21}"/>
+    <hyperlink ref="B57" r:id="rId31" display="http://tiktok.com/@bijak.bajik/video/7512804625808969016" xr:uid="{46A23718-8B1C-0A43-ADB0-0C31AC2C1226}"/>
+    <hyperlink ref="B58" r:id="rId32" display="http://tiktok.com/@calonmayit823/video/7512753843134942520" xr:uid="{84DE0EFF-47D0-6241-B519-F86FA7F649EB}"/>
+    <hyperlink ref="B60" r:id="rId33" xr:uid="{20416096-3952-DC4C-82ED-3F012C03E163}"/>
+    <hyperlink ref="B64" r:id="rId34" xr:uid="{B634B603-2977-4C48-A760-C4393C8C2DD0}"/>
+    <hyperlink ref="B65" r:id="rId35" xr:uid="{54E51CEE-9ED0-E842-BE80-EEE6BD21AE4B}"/>
+    <hyperlink ref="B66" r:id="rId36" xr:uid="{16260C85-09C6-8141-A81F-48F4929E9254}"/>
+    <hyperlink ref="B67" r:id="rId37" xr:uid="{2CB9E168-8670-434D-B112-9DD5F31EE03E}"/>
+    <hyperlink ref="B68" r:id="rId38" xr:uid="{3561FF85-8FDD-5C46-859E-BE522F88B5F4}"/>
+    <hyperlink ref="B69" r:id="rId39" xr:uid="{E7D15582-F66B-2A4C-9ADB-E50C93194DC2}"/>
+    <hyperlink ref="B70" r:id="rId40" xr:uid="{D226488C-3DDC-FE46-B5D2-7418C1C90DD4}"/>
+    <hyperlink ref="B72" r:id="rId41" xr:uid="{167D5CFF-E547-E849-8B09-F42F281FBA90}"/>
+    <hyperlink ref="B73" r:id="rId42" xr:uid="{40B1C3C0-41C1-894B-B531-2950E58213AA}"/>
+    <hyperlink ref="B74" r:id="rId43" xr:uid="{738899A5-E82E-3543-A055-4E1169DD88A7}"/>
+    <hyperlink ref="B77" r:id="rId44" xr:uid="{BC0E90EC-3F0E-1344-AC69-34BA471B0997}"/>
+    <hyperlink ref="B78" r:id="rId45" xr:uid="{2B5DC852-66EA-104B-9122-0545C2D28E81}"/>
+    <hyperlink ref="B79" r:id="rId46" xr:uid="{601300F9-CD4F-0342-8BD7-3E513E8F3B54}"/>
+    <hyperlink ref="B80" r:id="rId47" xr:uid="{77C6B779-70F8-4248-B557-8C7F6921F6D5}"/>
+    <hyperlink ref="B81" r:id="rId48" xr:uid="{10E7170A-C00F-A547-91A9-2F47817906BF}"/>
+    <hyperlink ref="B85" r:id="rId49" xr:uid="{E8D95B49-1549-0540-AF89-25134643E35E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
